--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/zu_ZA.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/zu_ZA.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5276">
   <si>
     <t>translation_group</t>
   </si>
@@ -15799,12 +15799,6 @@
   </si>
   <si>
     <t xml:space="preserve"> izaziso</t>
-  </si>
-  <si>
-    <t>2021-02-24T11:44:54.000000Z</t>
-  </si>
-  <si>
-    <t>2021-02-24T11: 44: 54.000000Z</t>
   </si>
   <si>
     <t>1 day ago</t>
@@ -16191,17 +16185,17 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D2772"/>
+  <dimension ref="A1:D2773"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="D2772" sqref="D2772"/>
+      <selection activeCell="D2773" sqref="D2773"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="9.10" style="0"/>
-    <col min="2" max="2" width="9.10" style="0"/>
-    <col min="3" max="3" width="9.10" style="0"/>
+    <col min="2" max="2" width="22" customWidth="true" style="0"/>
+    <col min="3" max="3" width="255.7109375" customWidth="true" style="0"/>
     <col min="4" max="4" width="9.10" style="0"/>
   </cols>
   <sheetData>
@@ -54848,18 +54842,10 @@
       </c>
     </row>
     <row r="2762" spans="1:4">
-      <c r="A2762" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2762" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2762" t="s">
-        <v>5260</v>
-      </c>
-      <c r="D2762" t="s">
-        <v>5261</v>
-      </c>
+      <c r="A2762"/>
+      <c r="B2762"/>
+      <c r="C2762"/>
+      <c r="D2762"/>
     </row>
     <row r="2763" spans="1:4">
       <c r="A2763" t="s">
@@ -54869,10 +54855,10 @@
         <v>4</v>
       </c>
       <c r="C2763" t="s">
-        <v>5262</v>
+        <v>5260</v>
       </c>
       <c r="D2763" t="s">
-        <v>5263</v>
+        <v>5261</v>
       </c>
     </row>
     <row r="2764" spans="1:4">
@@ -54883,10 +54869,10 @@
         <v>4</v>
       </c>
       <c r="C2764" t="s">
-        <v>5264</v>
+        <v>5262</v>
       </c>
       <c r="D2764" t="s">
-        <v>5265</v>
+        <v>5263</v>
       </c>
     </row>
     <row r="2765" spans="1:4">
@@ -54897,10 +54883,10 @@
         <v>4</v>
       </c>
       <c r="C2765" t="s">
-        <v>5266</v>
+        <v>5264</v>
       </c>
       <c r="D2765" t="s">
-        <v>5267</v>
+        <v>5265</v>
       </c>
     </row>
     <row r="2766" spans="1:4">
@@ -54911,10 +54897,10 @@
         <v>4</v>
       </c>
       <c r="C2766" t="s">
-        <v>5268</v>
+        <v>5266</v>
       </c>
       <c r="D2766" t="s">
-        <v>5269</v>
+        <v>5267</v>
       </c>
     </row>
     <row r="2767" spans="1:4">
@@ -54925,10 +54911,10 @@
         <v>4</v>
       </c>
       <c r="C2767" t="s">
-        <v>5270</v>
+        <v>5268</v>
       </c>
       <c r="D2767" t="s">
-        <v>5271</v>
+        <v>5269</v>
       </c>
     </row>
     <row r="2768" spans="1:4">
@@ -54939,10 +54925,10 @@
         <v>4</v>
       </c>
       <c r="C2768" t="s">
-        <v>5272</v>
+        <v>5270</v>
       </c>
       <c r="D2768" t="s">
-        <v>5273</v>
+        <v>5271</v>
       </c>
     </row>
     <row r="2769" spans="1:4">
@@ -54953,10 +54939,10 @@
         <v>4</v>
       </c>
       <c r="C2769" t="s">
-        <v>5274</v>
+        <v>5272</v>
       </c>
       <c r="D2769" t="s">
-        <v>5275</v>
+        <v>5273</v>
       </c>
     </row>
     <row r="2770" spans="1:4">
@@ -54995,11 +54981,17 @@
         <v>4</v>
       </c>
       <c r="C2772" t="s">
-        <v>5276</v>
+        <v>5274</v>
       </c>
       <c r="D2772" t="s">
-        <v>5277</v>
-      </c>
+        <v>5275</v>
+      </c>
+    </row>
+    <row r="2773" spans="1:4">
+      <c r="A2773"/>
+      <c r="B2773"/>
+      <c r="C2773"/>
+      <c r="D2773"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/zu_ZA.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/zu_ZA.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5769">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5965">
   <si>
     <t>translation_group</t>
   </si>
@@ -10238,7 +10238,7 @@
     <t>Izilungiselelo ze-Seo</t>
   </si>
   <si>
-    <t>Fill in the fields for maximum results when finding your website in _x0003_search engines.</t>
+    <t>Fill in the fields for maximum results when finding your website in search engines.</t>
   </si>
   <si>
     <t>Gcwalisa izinkambu ukuthola imiphumela ephezulu lapho uthola iwebhusayithi yakho ezinjini zokusesha.</t>
@@ -17326,6 +17326,604 @@
   </si>
   <si>
     <t>Mail providers</t>
+  </si>
+  <si>
+    <t>Welcome to Microweber</t>
+  </si>
+  <si>
+    <t>Uyemukelwa kwaMicroweber</t>
+  </si>
+  <si>
+    <t>Use Microweber to build your website, online shop or blog.</t>
+  </si>
+  <si>
+    <t>Sebenzisa iMicroweber ukwakha iwebhusayithi yakho, isitolo esiku-inthanethi noma ibhulogi.</t>
+  </si>
+  <si>
+    <t>Create and edit content, sell online, manage orders and clients.</t>
+  </si>
+  <si>
+    <t>Dala futhi uhlele okuqukethwe, thengisa ku-inthanethi, uphathe ama-oda namakhasimende.</t>
+  </si>
+  <si>
+    <t>Remove</t>
+  </si>
+  <si>
+    <t>Abandoned cart's</t>
+  </si>
+  <si>
+    <t>Inqola elahliwe</t>
+  </si>
+  <si>
+    <t>You are using this template.</t>
+  </si>
+  <si>
+    <t>Usebenzisa lesi sifanekiso.</t>
+  </si>
+  <si>
+    <t>The change will affect only the current page.</t>
+  </si>
+  <si>
+    <t>Ushintsho luzothinta kuphela ikhasi lamanje.</t>
+  </si>
+  <si>
+    <t>Allow multiple templates</t>
+  </si>
+  <si>
+    <t>Vumela izifanekiso eziningi</t>
+  </si>
+  <si>
+    <t>If you allow multiple templates, you will be abble to use different templates when you create a new pages.</t>
+  </si>
+  <si>
+    <t>Uma uvumela izifanekiso eziningi, uzokwazi ukusebenzisa izifanekiso ezahlukahlukene lapho udala amakhasi amasha.</t>
+  </si>
+  <si>
+    <t>System e-mail website settings</t>
+  </si>
+  <si>
+    <t>Amasethingi e-imeyili e-System</t>
+  </si>
+  <si>
+    <t>Deliver messages related with new registration, password resets and others system functionalities.</t>
+  </si>
+  <si>
+    <t>Dlulisa imilayezo ehlobene nokubhaliswa okusha, ukusethwa kabusha kwephasiwedi nokunye ukusebenza kohlelo.</t>
+  </si>
+  <si>
+    <t>From e-mail address</t>
+  </si>
+  <si>
+    <t>Kusuka ekhelini le-imeyili</t>
+  </si>
+  <si>
+    <t>Ex. Your Website Name</t>
+  </si>
+  <si>
+    <t>Isb. Igama Lakho Lewebhusayithi</t>
+  </si>
+  <si>
+    <t>General e-mail provider settings</t>
+  </si>
+  <si>
+    <t>Izilungiselelo ezijwayelekile zabanikezeli be-imeyili</t>
+  </si>
+  <si>
+    <t>Set up your email provider.</t>
+  </si>
+  <si>
+    <t>Setha umhlinzeki wakho we-imeyili.</t>
+  </si>
+  <si>
+    <t>The general e-mail provider will deliver all messages related with the website. Including system messages and contact form messages.</t>
+  </si>
+  <si>
+    <t>Umhlinzeki we-imeyili ojwayelekile uzoletha yonke imilayezo ehlobene newebhusayithi. Kubandakanya imiyalezo yohlelo nemiyalezo yefomu lokuxhumana.</t>
+  </si>
+  <si>
+    <t>Website Logo</t>
+  </si>
+  <si>
+    <t>Iwebhusayithi Ilogo</t>
+  </si>
+  <si>
+    <t>Select an logo for your website.</t>
+  </si>
+  <si>
+    <t>Khetha uphawu lwewebhusayithi yakho.</t>
+  </si>
+  <si>
+    <t>Upload logo</t>
+  </si>
+  <si>
+    <t>Layisha ilogo</t>
+  </si>
+  <si>
+    <t>Website Favicon</t>
+  </si>
+  <si>
+    <t>Iwebhusayithi Favicon</t>
+  </si>
+  <si>
+    <t>Changing default language..</t>
+  </si>
+  <si>
+    <t>Ishintsha ulimi oluzenzakalelayo ..</t>
+  </si>
+  <si>
+    <t>Clear cache..</t>
+  </si>
+  <si>
+    <t>Sula inqolobane ..</t>
+  </si>
+  <si>
+    <t>Install Multilanguage Module</t>
+  </si>
+  <si>
+    <t>Faka iModyuli Yezilimi Eziningi</t>
+  </si>
+  <si>
+    <t>Users can register with temporary emails like - Mailinator, MailDrop, Guerrilla...s</t>
+  </si>
+  <si>
+    <t>Abasebenzisi bangabhalisa ngama-imeyili esikhashana afana ne - Mailinator, MailDrop, Guerrilla ... s</t>
+  </si>
+  <si>
+    <t>Register users can automatically receive an automatic email from you. See the settings and post your messages.</t>
+  </si>
+  <si>
+    <t>Bhalisa abasebenzisi bangathola ngokuzenzakalela i-imeyili evela kuwe. Bona izilungiselelo bese uthumela imilayezo yakho.</t>
+  </si>
+  <si>
+    <t>Send email on new user registration to admin users</t>
+  </si>
+  <si>
+    <t>Thumela i-imeyili ekubhalisweni komsebenzisi okusha kubasebenzisi be-admin</t>
+  </si>
+  <si>
+    <t>Do you want adminitrators to receive an e-mail when new user is registered?</t>
+  </si>
+  <si>
+    <t>Ngabe ufuna abaphathi ukuthi bathole i-imeyili lapho umsebenzisi omusha ebhalisiwe?</t>
+  </si>
+  <si>
+    <t>Microweber is free open source drag and drop website builder and CMS. It is under MIT license and we use Laravel PHP framework</t>
+  </si>
+  <si>
+    <t>IMicroweber ingumthombo ovulekile ovulekile wokudonsa bese uphonsa umakhi wewebhusayithi ne-CMS. Ingaphansi kwelayisense ye-MIT futhi sisebenzisa uhlaka lwe-Laravel PHP</t>
+  </si>
+  <si>
+    <t>A Slider</t>
+  </si>
+  <si>
+    <t>Shipping to address</t>
+  </si>
+  <si>
+    <t>Ukuthumela ekhelini</t>
+  </si>
+  <si>
+    <t>Pickup from address</t>
+  </si>
+  <si>
+    <t>Ukulandwa kukheli</t>
+  </si>
+  <si>
+    <t>Global settings</t>
+  </si>
+  <si>
+    <t>Izilungiselelo zomhlaba jikelele</t>
+  </si>
+  <si>
+    <t>E-mail Integrations</t>
+  </si>
+  <si>
+    <t>Ukuhlanganiswa kwe-imeyili</t>
+  </si>
+  <si>
+    <t>You don't have system e-mail and smtp setup.</t>
+  </si>
+  <si>
+    <t>Awunayo i-e-mail yohlelo nokusethwa kwe-smtp.</t>
+  </si>
+  <si>
+    <t>Setup your system settings here.</t>
+  </si>
+  <si>
+    <t>Setha izilungiselelo zakho zohlelo lapha.</t>
+  </si>
+  <si>
+    <t>Global contact form settings</t>
+  </si>
+  <si>
+    <t>Izilungiselelo zefomu lokuxhumana lomhlaba jikelele</t>
+  </si>
+  <si>
+    <t>E-mail sending options</t>
+  </si>
+  <si>
+    <t>Izinketho zokuthumela i-imeyili</t>
+  </si>
+  <si>
+    <t>Global sender</t>
+  </si>
+  <si>
+    <t>Umthumeli womhlaba jikelele</t>
+  </si>
+  <si>
+    <t>Use custom sender settings</t>
+  </si>
+  <si>
+    <t>Sebenzisa izilungiselelo zomthumeli wangokwezifiso</t>
+  </si>
+  <si>
+    <t>Use custom sender settings for the global contact forms.</t>
+  </si>
+  <si>
+    <t>Sebenzisa izilungiselelo zomthumeli wangokwezifiso kumafomu wokuxhumana womhlaba jikelele.</t>
+  </si>
+  <si>
+    <t>By default we will use website system e-mail settings.</t>
+  </si>
+  <si>
+    <t>Ngokuzenzakalelayo sizosebenzisa izilungiselelo ze-imeyili zohlelo lwewebhusayithi.</t>
+  </si>
+  <si>
+    <t>You can change the system e-mail settings here.</t>
+  </si>
+  <si>
+    <t>Ungashintsha amasethingi e-imeyili ohlelo lapha.</t>
+  </si>
+  <si>
+    <t>Global Receivers</t>
+  </si>
+  <si>
+    <t>Abamukeli Bomhlaba Wonke</t>
+  </si>
+  <si>
+    <t>Send contact forms data to global receivers when is submited</t>
+  </si>
+  <si>
+    <t>Thumela idatha yamafomu wokuxhumana kubamukeli bomhlaba wonke lapho ithunyelwa</t>
+  </si>
+  <si>
+    <t>To e-mail addresses</t>
+  </si>
+  <si>
+    <t>Ukuze amakheli e-imeyili</t>
+  </si>
+  <si>
+    <t>E-mail address of the receivers seperated with coma.</t>
+  </si>
+  <si>
+    <t>Ikheli le-imeyili labemukeli abahlukaniswe ngekhoma.</t>
+  </si>
+  <si>
+    <t>Contact your hosting provider to enable PHP SOAP extension.</t>
+  </si>
+  <si>
+    <t>Xhumana nomhlinzeki wakho wokubamba ukuze unike amandla isandiso se-PHP SOAP.</t>
+  </si>
+  <si>
+    <t>Elements</t>
+  </si>
+  <si>
+    <t>Izinto</t>
+  </si>
+  <si>
+    <t>2 months ago</t>
+  </si>
+  <si>
+    <t>2 izinyanga ezedlule</t>
+  </si>
+  <si>
+    <t>Remove logo</t>
+  </si>
+  <si>
+    <t>Remove favicon</t>
+  </si>
+  <si>
+    <t>Susa i-favicon</t>
+  </si>
+  <si>
+    <t>Custom</t>
+  </si>
+  <si>
+    <t>Ngokwezifiso</t>
+  </si>
+  <si>
+    <t>bxSlider</t>
+  </si>
+  <si>
+    <t>Schema.org</t>
+  </si>
+  <si>
+    <t>I-Schema.org</t>
+  </si>
+  <si>
+    <t>ProductsV2</t>
+  </si>
+  <si>
+    <t>Timeline</t>
+  </si>
+  <si>
+    <t>Umugqa wesikhathi</t>
+  </si>
+  <si>
+    <t>White label WHMCS</t>
+  </si>
+  <si>
+    <t>Ilebula elimhlophe i-WHMCS</t>
+  </si>
+  <si>
+    <t>Number of the visible testimonials</t>
+  </si>
+  <si>
+    <t>Module template has changed</t>
+  </si>
+  <si>
+    <t>Isifanekiso semodyuli sishintshile</t>
+  </si>
+  <si>
+    <t>Content versions</t>
+  </si>
+  <si>
+    <t>Izinhlobo zokuqukethwe</t>
+  </si>
+  <si>
+    <t>Clear Cache</t>
+  </si>
+  <si>
+    <t>Default layouts and elements</t>
+  </si>
+  <si>
+    <t>Izakhiwo ezizenzakalelayo nezinto</t>
+  </si>
+  <si>
+    <t>Arrows List</t>
+  </si>
+  <si>
+    <t>Uhlu lwemicibisholo</t>
+  </si>
+  <si>
+    <t>Checked List</t>
+  </si>
+  <si>
+    <t>Uhlu Oluhloliwe</t>
+  </si>
+  <si>
+    <t>Background Text</t>
+  </si>
+  <si>
+    <t>Umbhalo ongemuva</t>
+  </si>
+  <si>
+    <t>Title with Text</t>
+  </si>
+  <si>
+    <t>Isihloko esinombhalo</t>
+  </si>
+  <si>
+    <t>Icon with Text</t>
+  </si>
+  <si>
+    <t>Isithonjana esinombhalo</t>
+  </si>
+  <si>
+    <t>Two Text Columns</t>
+  </si>
+  <si>
+    <t>Amakholomu Umbhalo Amabili</t>
+  </si>
+  <si>
+    <t>Two text columns with icon and title</t>
+  </si>
+  <si>
+    <t>Amakholomu wombhalo amabili anesithonjana nesihloko</t>
+  </si>
+  <si>
+    <t>Image with Title and Text</t>
+  </si>
+  <si>
+    <t>Isithombe esinesihloko nombhalo</t>
+  </si>
+  <si>
+    <t>Text with Image and Title</t>
+  </si>
+  <si>
+    <t>Umbhalo onesithombe nesihloko</t>
+  </si>
+  <si>
+    <t>Text with Image</t>
+  </si>
+  <si>
+    <t>Enable comments</t>
+  </si>
+  <si>
+    <t>Nika amandla amazwana</t>
+  </si>
+  <si>
+    <t>Captcha settings</t>
+  </si>
+  <si>
+    <t>Izilungiselelo ze-Captcha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setup your captcha preferences from </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setha okuncamelayo kwe-captcha kusuka ku- </t>
+  </si>
+  <si>
+    <t>Add / Edit fields of the form using the custom fields</t>
+  </si>
+  <si>
+    <t>Current contact form settings</t>
+  </si>
+  <si>
+    <t>Izilungiselelo zamanje zefomu lokuxhumana</t>
+  </si>
+  <si>
+    <t>Contact form name</t>
+  </si>
+  <si>
+    <t>Igama lefomu lokuxhumana</t>
+  </si>
+  <si>
+    <t>What is the name of this contact form?</t>
+  </si>
+  <si>
+    <t>Yini igama laleli fomu lokuxhumana?</t>
+  </si>
+  <si>
+    <t>Receivers</t>
+  </si>
+  <si>
+    <t>Abamukeli</t>
+  </si>
+  <si>
+    <t>Send contact form data to custom receivers when is submited</t>
+  </si>
+  <si>
+    <t>Thumela idatha yefomu lokuxhumana kubamukeli abangokwezifiso lapho ifakwa</t>
+  </si>
+  <si>
+    <t>Use custom receivers settings for the current contact form.</t>
+  </si>
+  <si>
+    <t>Sebenzisa izilungiselelo zabamukeli ngokwezifiso zefomu lokuxhumana lamanje.</t>
+  </si>
+  <si>
+    <t>By default we will use contact form global settings.</t>
+  </si>
+  <si>
+    <t>Ngokuzenzakalelayo sizosebenzisa izilungiselelo zomhlaba jikelele zokuxhumana.</t>
+  </si>
+  <si>
+    <t>You can change the contact form global settings here.</t>
+  </si>
+  <si>
+    <t>Ungashintsha amasethingi wefomu lokuxhumana lapha.</t>
+  </si>
+  <si>
+    <t>Auto respond message to user</t>
+  </si>
+  <si>
+    <t>Phendula umyalezo ngokuzenzakalela kumsebenzisi</t>
+  </si>
+  <si>
+    <t>Enable auto respond message to user</t>
+  </si>
+  <si>
+    <t>Nika amandla umlayezo wokuphendula ngokuzenzakalela kumsebenzisi</t>
+  </si>
+  <si>
+    <t>Allow users to receive "Thank you emails after subscription."</t>
+  </si>
+  <si>
+    <t>Vumela abasebenzisi ukuthi bathole "Ngiyabonga ama-imeyili ngemuva kokubhalisile."</t>
+  </si>
+  <si>
+    <t>Auto respond subject</t>
+  </si>
+  <si>
+    <t>Isihloko sokuphendula ngokuzenzakalela</t>
+  </si>
+  <si>
+    <t>Auto responders allows you to set up automated replies to incoming email</t>
+  </si>
+  <si>
+    <t>Auto respond message</t>
+  </si>
+  <si>
+    <t>Phendula ngokuzenzakalela umlayezo</t>
+  </si>
+  <si>
+    <t>Auto respond e-mail sent back to the user</t>
+  </si>
+  <si>
+    <t>Phendula ngokuzenzakalela i-imeyili ebuyiselwe kumsebenzisi</t>
+  </si>
+  <si>
+    <t>Auto respond custom sender</t>
+  </si>
+  <si>
+    <t>Phendula ngokuzenzakalela umthumeli</t>
+  </si>
+  <si>
+    <t>Use custom sender settings for the current contact form.</t>
+  </si>
+  <si>
+    <t>Sebenzisa izilungiselelo zomthumeli wangokwezifiso zefomu lokuxhumana lamanje.</t>
+  </si>
+  <si>
+    <t>Auto respond from e-mail address</t>
+  </si>
+  <si>
+    <t>Phendula ngokuzenzakalela kukheli le-imeyili</t>
+  </si>
+  <si>
+    <t>Auto respond from name</t>
+  </si>
+  <si>
+    <t>Phendula ngokuzenzakalela kusuka egameni</t>
+  </si>
+  <si>
+    <t>Auto respond reply to e-mail</t>
+  </si>
+  <si>
+    <t>Phendula ngokuzenzakalela impendulo ku-imeyili</t>
+  </si>
+  <si>
+    <t>When the user receive the auto respond message they can response back to reply to email.</t>
+  </si>
+  <si>
+    <t>Lapho umsebenzisi ethola umyalezo wokuphendula ngokuzenzakalela angaphendula abuye aphendule ku-imeyili.</t>
+  </si>
+  <si>
+    <t>Auto respond e-mail attachments</t>
+  </si>
+  <si>
+    <t>Phendula ngokuzenzakalela okunamathiselwe kwe-imeyili</t>
+  </si>
+  <si>
+    <t>If you want to attach og images, you must upload them to gallery from 'Add media'</t>
+  </si>
+  <si>
+    <t>You don’t have any posts yet</t>
+  </si>
+  <si>
+    <t>Awunawo amaposi okwamanje</t>
+  </si>
+  <si>
+    <t>Create your first post right now.</t>
+  </si>
+  <si>
+    <t>Dala okuthunyelwe kwakho kokuqala njengamanje.</t>
+  </si>
+  <si>
+    <t>Create a Post</t>
+  </si>
+  <si>
+    <t>Dala okuthunyelwe</t>
+  </si>
+  <si>
+    <t>templates-new-world</t>
+  </si>
+  <si>
+    <t>How to write product descriptions that sell
+                                                    One of the best things you can do to make your store successful is invest some time in writing great product descriptions. You want to provide detailed yet concise information that will entice potential customers to buy.
+                                                    Think like a consumer
+                                                    Think about what you as a consumer would want to know, then include those features in your description. For clothes: materials and fit. For food: ingredients and how it was prepared. Bullets are your friends when listing
+                                                   features — try to
+                                                            limit each one to 5-8 words.</t>
+  </si>
+  <si>
+    <t>Ungazibhala kanjani izincazelo zomkhiqizo ezithengisa
+                                                    Enye yezinto ezinhle kakhulu ongayenza ukwenza isitolo sakho siphumelele ukutshala isikhathi esithile ngokubhala izincazelo ezinhle zomkhiqizo. Ufuna ukuhlinzeka ngemininingwane enemininingwane efingqiwe ezodonsa abathengi abangase babe khona ukuthi bathenge.
+                                                    Cabanga njengomthengi
+                                                    Cabanga ngalokho wena njengomthengi ongathanda ukukwazi, bese ufaka lezo zici encazelweni yakho. Okwezingubo: okokusebenza nokulingana. Okokudla: izithako nokuthi kwakulungiswa kanjani. Izinhlamvu zingabangani bakho uma ufaka kuhlu izici ze-
+                                                   - zama
+                                                            ukhawulele igama ngalinye kumagama angu-5-8.</t>
   </si>
 </sst>
 </file>
@@ -17664,7 +18262,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E2959"/>
+  <dimension ref="A1:E3062"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -67972,6 +68570,1757 @@
         <v>3652</v>
       </c>
       <c r="E2959" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2960" spans="1:5">
+      <c r="A2960" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2960" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2960" t="s">
+        <v>5769</v>
+      </c>
+      <c r="D2960" t="s">
+        <v>5770</v>
+      </c>
+      <c r="E2960" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2961" spans="1:5">
+      <c r="A2961" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2961" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2961" t="s">
+        <v>5771</v>
+      </c>
+      <c r="D2961" t="s">
+        <v>5772</v>
+      </c>
+      <c r="E2961" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2962" spans="1:5">
+      <c r="A2962" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2962" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2962" t="s">
+        <v>5773</v>
+      </c>
+      <c r="D2962" t="s">
+        <v>5774</v>
+      </c>
+      <c r="E2962" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2963" spans="1:5">
+      <c r="A2963" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2963" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2963" t="s">
+        <v>5775</v>
+      </c>
+      <c r="D2963" t="s">
+        <v>2878</v>
+      </c>
+      <c r="E2963" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2964" spans="1:5">
+      <c r="A2964" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2964" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2964" t="s">
+        <v>5776</v>
+      </c>
+      <c r="D2964" t="s">
+        <v>5777</v>
+      </c>
+      <c r="E2964" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2965" spans="1:5">
+      <c r="A2965" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2965" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2965" t="s">
+        <v>5778</v>
+      </c>
+      <c r="D2965" t="s">
+        <v>5779</v>
+      </c>
+      <c r="E2965" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2966" spans="1:5">
+      <c r="A2966" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2966" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2966" t="s">
+        <v>5780</v>
+      </c>
+      <c r="D2966" t="s">
+        <v>5781</v>
+      </c>
+      <c r="E2966" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2967" spans="1:5">
+      <c r="A2967" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2967" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2967" t="s">
+        <v>5782</v>
+      </c>
+      <c r="D2967" t="s">
+        <v>5783</v>
+      </c>
+      <c r="E2967" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2968" spans="1:5">
+      <c r="A2968" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2968" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2968" t="s">
+        <v>5784</v>
+      </c>
+      <c r="D2968" t="s">
+        <v>5785</v>
+      </c>
+      <c r="E2968" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2969" spans="1:5">
+      <c r="A2969" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2969" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2969" t="s">
+        <v>5786</v>
+      </c>
+      <c r="D2969" t="s">
+        <v>5787</v>
+      </c>
+      <c r="E2969" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2970" spans="1:5">
+      <c r="A2970" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2970" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2970" t="s">
+        <v>5788</v>
+      </c>
+      <c r="D2970" t="s">
+        <v>5789</v>
+      </c>
+      <c r="E2970" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2971" spans="1:5">
+      <c r="A2971" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2971" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2971" t="s">
+        <v>5790</v>
+      </c>
+      <c r="D2971" t="s">
+        <v>5791</v>
+      </c>
+      <c r="E2971" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2972" spans="1:5">
+      <c r="A2972" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2972" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2972" t="s">
+        <v>5792</v>
+      </c>
+      <c r="D2972" t="s">
+        <v>5793</v>
+      </c>
+      <c r="E2972" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2973" spans="1:5">
+      <c r="A2973" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2973" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2973" t="s">
+        <v>5794</v>
+      </c>
+      <c r="D2973" t="s">
+        <v>5795</v>
+      </c>
+      <c r="E2973" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2974" spans="1:5">
+      <c r="A2974" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2974" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2974" t="s">
+        <v>5796</v>
+      </c>
+      <c r="D2974" t="s">
+        <v>5797</v>
+      </c>
+      <c r="E2974" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2975" spans="1:5">
+      <c r="A2975" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2975" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2975" t="s">
+        <v>5798</v>
+      </c>
+      <c r="D2975" t="s">
+        <v>5799</v>
+      </c>
+      <c r="E2975" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2976" spans="1:5">
+      <c r="A2976" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2976" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2976" t="s">
+        <v>5800</v>
+      </c>
+      <c r="D2976" t="s">
+        <v>5801</v>
+      </c>
+      <c r="E2976" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2977" spans="1:5">
+      <c r="A2977" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2977" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2977" t="s">
+        <v>5802</v>
+      </c>
+      <c r="D2977" t="s">
+        <v>5803</v>
+      </c>
+      <c r="E2977" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2978" spans="1:5">
+      <c r="A2978" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2978" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2978" t="s">
+        <v>5804</v>
+      </c>
+      <c r="D2978" t="s">
+        <v>5805</v>
+      </c>
+      <c r="E2978" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2979" spans="1:5">
+      <c r="A2979" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2979" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2979" t="s">
+        <v>5806</v>
+      </c>
+      <c r="D2979" t="s">
+        <v>5807</v>
+      </c>
+      <c r="E2979" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2980" spans="1:5">
+      <c r="A2980" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2980" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2980" t="s">
+        <v>5808</v>
+      </c>
+      <c r="D2980" t="s">
+        <v>5809</v>
+      </c>
+      <c r="E2980" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2981" spans="1:5">
+      <c r="A2981" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2981" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2981" t="s">
+        <v>5810</v>
+      </c>
+      <c r="D2981" t="s">
+        <v>5811</v>
+      </c>
+      <c r="E2981" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2982" spans="1:5">
+      <c r="A2982" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2982" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2982" t="s">
+        <v>5812</v>
+      </c>
+      <c r="D2982" t="s">
+        <v>5813</v>
+      </c>
+      <c r="E2982" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2983" spans="1:5">
+      <c r="A2983" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2983" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2983" t="s">
+        <v>5814</v>
+      </c>
+      <c r="D2983" t="s">
+        <v>5815</v>
+      </c>
+      <c r="E2983" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2984" spans="1:5">
+      <c r="A2984" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2984" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2984" t="s">
+        <v>5816</v>
+      </c>
+      <c r="D2984" t="s">
+        <v>5817</v>
+      </c>
+      <c r="E2984" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2985" spans="1:5">
+      <c r="A2985" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2985" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2985" t="s">
+        <v>5818</v>
+      </c>
+      <c r="D2985" t="s">
+        <v>5819</v>
+      </c>
+      <c r="E2985" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2986" spans="1:5">
+      <c r="A2986" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2986" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2986" t="s">
+        <v>5820</v>
+      </c>
+      <c r="D2986" t="s">
+        <v>5821</v>
+      </c>
+      <c r="E2986" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2987" spans="1:5">
+      <c r="A2987" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2987" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2987" t="s">
+        <v>5822</v>
+      </c>
+      <c r="D2987" t="s">
+        <v>5823</v>
+      </c>
+      <c r="E2987" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2988" spans="1:5">
+      <c r="A2988" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2988" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2988" t="s">
+        <v>5824</v>
+      </c>
+      <c r="D2988" t="s">
+        <v>651</v>
+      </c>
+      <c r="E2988" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2989" spans="1:5">
+      <c r="A2989" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2989" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2989" t="s">
+        <v>5825</v>
+      </c>
+      <c r="D2989" t="s">
+        <v>5826</v>
+      </c>
+      <c r="E2989" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2990" spans="1:5">
+      <c r="A2990" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2990" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2990" t="s">
+        <v>5827</v>
+      </c>
+      <c r="D2990" t="s">
+        <v>5828</v>
+      </c>
+      <c r="E2990" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2991" spans="1:5">
+      <c r="A2991" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2991" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2991" t="s">
+        <v>5829</v>
+      </c>
+      <c r="D2991" t="s">
+        <v>5830</v>
+      </c>
+      <c r="E2991" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2992" spans="1:5">
+      <c r="A2992" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2992" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2992" t="s">
+        <v>5831</v>
+      </c>
+      <c r="D2992" t="s">
+        <v>5832</v>
+      </c>
+      <c r="E2992" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2993" spans="1:5">
+      <c r="A2993" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2993" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2993" t="s">
+        <v>5833</v>
+      </c>
+      <c r="D2993" t="s">
+        <v>5834</v>
+      </c>
+      <c r="E2993" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2994" spans="1:5">
+      <c r="A2994" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2994" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2994" t="s">
+        <v>5835</v>
+      </c>
+      <c r="D2994" t="s">
+        <v>5836</v>
+      </c>
+      <c r="E2994" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2995" spans="1:5">
+      <c r="A2995" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2995" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2995" t="s">
+        <v>5837</v>
+      </c>
+      <c r="D2995" t="s">
+        <v>5838</v>
+      </c>
+      <c r="E2995" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2996" spans="1:5">
+      <c r="A2996" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2996" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2996" t="s">
+        <v>5839</v>
+      </c>
+      <c r="D2996" t="s">
+        <v>5840</v>
+      </c>
+      <c r="E2996" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2997" spans="1:5">
+      <c r="A2997" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2997" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2997" t="s">
+        <v>5841</v>
+      </c>
+      <c r="D2997" t="s">
+        <v>5842</v>
+      </c>
+      <c r="E2997" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2998" spans="1:5">
+      <c r="A2998" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2998" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2998" t="s">
+        <v>5843</v>
+      </c>
+      <c r="D2998" t="s">
+        <v>5844</v>
+      </c>
+      <c r="E2998" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2999" spans="1:5">
+      <c r="A2999" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2999" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2999" t="s">
+        <v>5845</v>
+      </c>
+      <c r="D2999" t="s">
+        <v>5846</v>
+      </c>
+      <c r="E2999" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3000" spans="1:5">
+      <c r="A3000" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3000" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3000" t="s">
+        <v>5847</v>
+      </c>
+      <c r="D3000" t="s">
+        <v>5848</v>
+      </c>
+      <c r="E3000" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3001" spans="1:5">
+      <c r="A3001" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3001" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3001" t="s">
+        <v>5849</v>
+      </c>
+      <c r="D3001" t="s">
+        <v>5850</v>
+      </c>
+      <c r="E3001" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3002" spans="1:5">
+      <c r="A3002" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3002" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3002" t="s">
+        <v>5851</v>
+      </c>
+      <c r="D3002" t="s">
+        <v>5852</v>
+      </c>
+      <c r="E3002" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3003" spans="1:5">
+      <c r="A3003" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3003" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3003" t="s">
+        <v>5853</v>
+      </c>
+      <c r="D3003" t="s">
+        <v>5854</v>
+      </c>
+      <c r="E3003" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3004" spans="1:5">
+      <c r="A3004" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3004" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3004" t="s">
+        <v>5855</v>
+      </c>
+      <c r="D3004" t="s">
+        <v>5856</v>
+      </c>
+      <c r="E3004" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3005" spans="1:5">
+      <c r="A3005" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3005" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3005" t="s">
+        <v>5857</v>
+      </c>
+      <c r="D3005" t="s">
+        <v>5858</v>
+      </c>
+      <c r="E3005" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3006" spans="1:5">
+      <c r="A3006" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3006" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3006" t="s">
+        <v>5859</v>
+      </c>
+      <c r="D3006" t="s">
+        <v>5860</v>
+      </c>
+      <c r="E3006" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3007" spans="1:5">
+      <c r="A3007" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3007" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3007" t="s">
+        <v>5861</v>
+      </c>
+      <c r="D3007" t="s">
+        <v>5862</v>
+      </c>
+      <c r="E3007" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3008" spans="1:5">
+      <c r="A3008" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3008" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3008" t="s">
+        <v>5863</v>
+      </c>
+      <c r="D3008" t="s">
+        <v>5864</v>
+      </c>
+      <c r="E3008" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3009" spans="1:5">
+      <c r="A3009" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3009" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3009" t="s">
+        <v>5865</v>
+      </c>
+      <c r="D3009" t="s">
+        <v>3241</v>
+      </c>
+      <c r="E3009" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3010" spans="1:5">
+      <c r="A3010" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3010" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3010" t="s">
+        <v>5866</v>
+      </c>
+      <c r="D3010" t="s">
+        <v>5867</v>
+      </c>
+      <c r="E3010" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3011" spans="1:5">
+      <c r="A3011" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3011" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3011" t="s">
+        <v>5868</v>
+      </c>
+      <c r="D3011" t="s">
+        <v>5869</v>
+      </c>
+      <c r="E3011" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3012" spans="1:5">
+      <c r="A3012" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3012" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3012" t="s">
+        <v>5870</v>
+      </c>
+      <c r="D3012" t="s">
+        <v>5870</v>
+      </c>
+      <c r="E3012" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3013" spans="1:5">
+      <c r="A3013" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3013" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3013" t="s">
+        <v>5871</v>
+      </c>
+      <c r="D3013" t="s">
+        <v>5872</v>
+      </c>
+      <c r="E3013" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3014" spans="1:5">
+      <c r="A3014" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3014" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3014" t="s">
+        <v>5873</v>
+      </c>
+      <c r="D3014" t="s">
+        <v>131</v>
+      </c>
+      <c r="E3014" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3015" spans="1:5">
+      <c r="A3015" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3015" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3015" t="s">
+        <v>5874</v>
+      </c>
+      <c r="D3015" t="s">
+        <v>5875</v>
+      </c>
+      <c r="E3015" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3016" spans="1:5">
+      <c r="A3016" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3016" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3016" t="s">
+        <v>5876</v>
+      </c>
+      <c r="D3016" t="s">
+        <v>5877</v>
+      </c>
+      <c r="E3016" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3017" spans="1:5">
+      <c r="A3017" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3017" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3017" t="s">
+        <v>5878</v>
+      </c>
+      <c r="D3017" t="s">
+        <v>3342</v>
+      </c>
+      <c r="E3017" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3018" spans="1:5">
+      <c r="A3018" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3018" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3018" t="s">
+        <v>5879</v>
+      </c>
+      <c r="D3018" t="s">
+        <v>5880</v>
+      </c>
+      <c r="E3018" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3019" spans="1:5">
+      <c r="A3019" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3019" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3019" t="s">
+        <v>5881</v>
+      </c>
+      <c r="D3019" t="s">
+        <v>5882</v>
+      </c>
+      <c r="E3019" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3020" spans="1:5">
+      <c r="A3020" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3020" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3020" t="s">
+        <v>5883</v>
+      </c>
+      <c r="D3020" t="s">
+        <v>1581</v>
+      </c>
+      <c r="E3020" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3021" spans="1:5">
+      <c r="A3021" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3021" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3021" t="s">
+        <v>5884</v>
+      </c>
+      <c r="D3021" t="s">
+        <v>5885</v>
+      </c>
+      <c r="E3021" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3022" spans="1:5">
+      <c r="A3022" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3022" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3022" t="s">
+        <v>5886</v>
+      </c>
+      <c r="D3022" t="s">
+        <v>5887</v>
+      </c>
+      <c r="E3022" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3023" spans="1:5">
+      <c r="A3023" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3023" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3023" t="s">
+        <v>5888</v>
+      </c>
+      <c r="D3023" t="s">
+        <v>5889</v>
+      </c>
+      <c r="E3023" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3024" spans="1:5">
+      <c r="A3024" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3024" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3024" t="s">
+        <v>5890</v>
+      </c>
+      <c r="D3024" t="s">
+        <v>5891</v>
+      </c>
+      <c r="E3024" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3025" spans="1:5">
+      <c r="A3025" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3025" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3025" t="s">
+        <v>5892</v>
+      </c>
+      <c r="D3025" t="s">
+        <v>5893</v>
+      </c>
+      <c r="E3025" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3026" spans="1:5">
+      <c r="A3026" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3026" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3026" t="s">
+        <v>5894</v>
+      </c>
+      <c r="D3026" t="s">
+        <v>5895</v>
+      </c>
+      <c r="E3026" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3027" spans="1:5">
+      <c r="A3027" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3027" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3027" t="s">
+        <v>5896</v>
+      </c>
+      <c r="D3027" t="s">
+        <v>5897</v>
+      </c>
+      <c r="E3027" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3028" spans="1:5">
+      <c r="A3028" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3028" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3028" t="s">
+        <v>5898</v>
+      </c>
+      <c r="D3028" t="s">
+        <v>5899</v>
+      </c>
+      <c r="E3028" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3029" spans="1:5">
+      <c r="A3029" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3029" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3029" t="s">
+        <v>5900</v>
+      </c>
+      <c r="D3029" t="s">
+        <v>5901</v>
+      </c>
+      <c r="E3029" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3030" spans="1:5">
+      <c r="A3030" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3030" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3030" t="s">
+        <v>5902</v>
+      </c>
+      <c r="D3030" t="s">
+        <v>5903</v>
+      </c>
+      <c r="E3030" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3031" spans="1:5">
+      <c r="A3031" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3031" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3031" t="s">
+        <v>5904</v>
+      </c>
+      <c r="D3031" t="s">
+        <v>1132</v>
+      </c>
+      <c r="E3031" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3032" spans="1:5">
+      <c r="A3032" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3032" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3032" t="s">
+        <v>5905</v>
+      </c>
+      <c r="D3032" t="s">
+        <v>5906</v>
+      </c>
+      <c r="E3032" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3033" spans="1:5">
+      <c r="A3033" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3033" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3033" t="s">
+        <v>5907</v>
+      </c>
+      <c r="D3033" t="s">
+        <v>5908</v>
+      </c>
+      <c r="E3033" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3034" spans="1:5">
+      <c r="A3034" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3034" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3034" t="s">
+        <v>5909</v>
+      </c>
+      <c r="D3034" t="s">
+        <v>5910</v>
+      </c>
+      <c r="E3034" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3035" spans="1:5">
+      <c r="A3035" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3035" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3035" t="s">
+        <v>5911</v>
+      </c>
+      <c r="D3035" t="s">
+        <v>4983</v>
+      </c>
+      <c r="E3035" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3036" spans="1:5">
+      <c r="A3036" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3036" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3036" t="s">
+        <v>5912</v>
+      </c>
+      <c r="D3036" t="s">
+        <v>5913</v>
+      </c>
+      <c r="E3036" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3037" spans="1:5">
+      <c r="A3037" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3037" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3037" t="s">
+        <v>5914</v>
+      </c>
+      <c r="D3037" t="s">
+        <v>5915</v>
+      </c>
+      <c r="E3037" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3038" spans="1:5">
+      <c r="A3038" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3038" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3038" t="s">
+        <v>5916</v>
+      </c>
+      <c r="D3038" t="s">
+        <v>5917</v>
+      </c>
+      <c r="E3038" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3039" spans="1:5">
+      <c r="A3039" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3039" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3039" t="s">
+        <v>5918</v>
+      </c>
+      <c r="D3039" t="s">
+        <v>5919</v>
+      </c>
+      <c r="E3039" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3040" spans="1:5">
+      <c r="A3040" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3040" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3040" t="s">
+        <v>5920</v>
+      </c>
+      <c r="D3040" t="s">
+        <v>5921</v>
+      </c>
+      <c r="E3040" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3041" spans="1:5">
+      <c r="A3041" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3041" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3041" t="s">
+        <v>5922</v>
+      </c>
+      <c r="D3041" t="s">
+        <v>5923</v>
+      </c>
+      <c r="E3041" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3042" spans="1:5">
+      <c r="A3042" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3042" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3042" t="s">
+        <v>5924</v>
+      </c>
+      <c r="D3042" t="s">
+        <v>5925</v>
+      </c>
+      <c r="E3042" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3043" spans="1:5">
+      <c r="A3043" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3043" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3043" t="s">
+        <v>5926</v>
+      </c>
+      <c r="D3043" t="s">
+        <v>5927</v>
+      </c>
+      <c r="E3043" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3044" spans="1:5">
+      <c r="A3044" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3044" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3044" t="s">
+        <v>5928</v>
+      </c>
+      <c r="D3044" t="s">
+        <v>5929</v>
+      </c>
+      <c r="E3044" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3045" spans="1:5">
+      <c r="A3045" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3045" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3045" t="s">
+        <v>5930</v>
+      </c>
+      <c r="D3045" t="s">
+        <v>5931</v>
+      </c>
+      <c r="E3045" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3046" spans="1:5">
+      <c r="A3046" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3046" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3046" t="s">
+        <v>5932</v>
+      </c>
+      <c r="D3046" t="s">
+        <v>5933</v>
+      </c>
+      <c r="E3046" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3047" spans="1:5">
+      <c r="A3047" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3047" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3047" t="s">
+        <v>5934</v>
+      </c>
+      <c r="D3047" t="s">
+        <v>5935</v>
+      </c>
+      <c r="E3047" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3048" spans="1:5">
+      <c r="A3048" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3048" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3048" t="s">
+        <v>5936</v>
+      </c>
+      <c r="D3048" t="s">
+        <v>3142</v>
+      </c>
+      <c r="E3048" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3049" spans="1:5">
+      <c r="A3049" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3049" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3049" t="s">
+        <v>5937</v>
+      </c>
+      <c r="D3049" t="s">
+        <v>5938</v>
+      </c>
+      <c r="E3049" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3050" spans="1:5">
+      <c r="A3050" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3050" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3050" t="s">
+        <v>5939</v>
+      </c>
+      <c r="D3050" t="s">
+        <v>5940</v>
+      </c>
+      <c r="E3050" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3051" spans="1:5">
+      <c r="A3051" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3051" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3051" t="s">
+        <v>5941</v>
+      </c>
+      <c r="D3051" t="s">
+        <v>5942</v>
+      </c>
+      <c r="E3051" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3052" spans="1:5">
+      <c r="A3052" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3052" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3052" t="s">
+        <v>5943</v>
+      </c>
+      <c r="D3052" t="s">
+        <v>5944</v>
+      </c>
+      <c r="E3052" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3053" spans="1:5">
+      <c r="A3053" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3053" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3053" t="s">
+        <v>5945</v>
+      </c>
+      <c r="D3053" t="s">
+        <v>5946</v>
+      </c>
+      <c r="E3053" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3054" spans="1:5">
+      <c r="A3054" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3054" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3054" t="s">
+        <v>5947</v>
+      </c>
+      <c r="D3054" t="s">
+        <v>5948</v>
+      </c>
+      <c r="E3054" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3055" spans="1:5">
+      <c r="A3055" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3055" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3055" t="s">
+        <v>5949</v>
+      </c>
+      <c r="D3055" t="s">
+        <v>5950</v>
+      </c>
+      <c r="E3055" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3056" spans="1:5">
+      <c r="A3056" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3056" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3056" t="s">
+        <v>5951</v>
+      </c>
+      <c r="D3056" t="s">
+        <v>5952</v>
+      </c>
+      <c r="E3056" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3057" spans="1:5">
+      <c r="A3057" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3057" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3057" t="s">
+        <v>5953</v>
+      </c>
+      <c r="D3057" t="s">
+        <v>5954</v>
+      </c>
+      <c r="E3057" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3058" spans="1:5">
+      <c r="A3058" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3058" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3058" t="s">
+        <v>5955</v>
+      </c>
+      <c r="D3058" t="s">
+        <v>4253</v>
+      </c>
+      <c r="E3058" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3059" spans="1:5">
+      <c r="A3059" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3059" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3059" t="s">
+        <v>5956</v>
+      </c>
+      <c r="D3059" t="s">
+        <v>5957</v>
+      </c>
+      <c r="E3059" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3060" spans="1:5">
+      <c r="A3060" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3060" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3060" t="s">
+        <v>5958</v>
+      </c>
+      <c r="D3060" t="s">
+        <v>5959</v>
+      </c>
+      <c r="E3060" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3061" spans="1:5">
+      <c r="A3061" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3061" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3061" t="s">
+        <v>5960</v>
+      </c>
+      <c r="D3061" t="s">
+        <v>5961</v>
+      </c>
+      <c r="E3061" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3062" spans="1:5">
+      <c r="A3062" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3062" t="s">
+        <v>5962</v>
+      </c>
+      <c r="C3062" t="s">
+        <v>5963</v>
+      </c>
+      <c r="D3062" t="s">
+        <v>5964</v>
+      </c>
+      <c r="E3062" t="s">
         <v>8</v>
       </c>
     </row>

--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/zu_ZA.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/zu_ZA.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5965">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6268">
   <si>
     <t>translation_group</t>
   </si>
@@ -17924,6 +17924,915 @@
                                                     Cabanga ngalokho wena njengomthengi ongathanda ukukwazi, bese ufaka lezo zici encazelweni yakho. Okwezingubo: okokusebenza nokulingana. Okokudla: izithako nokuthi kwakulungiswa kanjani. Izinhlamvu zingabangani bakho uma ufaka kuhlu izici ze-
                                                    - zama
                                                             ukhawulele igama ngalinye kumagama angu-5-8.</t>
+  </si>
+  <si>
+    <t>Admin language</t>
+  </si>
+  <si>
+    <t>Ulimi lomlawuli</t>
+  </si>
+  <si>
+    <t>Limit</t>
+  </si>
+  <si>
+    <t>Umkhawulo</t>
+  </si>
+  <si>
+    <t>Code Editor</t>
+  </si>
+  <si>
+    <t>Umhleli Wekhodi</t>
+  </si>
+  <si>
+    <t>Blog</t>
+  </si>
+  <si>
+    <t>Ibhulogi</t>
+  </si>
+  <si>
+    <t>titles</t>
+  </si>
+  <si>
+    <t>izihloko</t>
+  </si>
+  <si>
+    <t>Titles 1</t>
+  </si>
+  <si>
+    <t>Izihloko 1</t>
+  </si>
+  <si>
+    <t>Titles 2</t>
+  </si>
+  <si>
+    <t>Izihloko 2</t>
+  </si>
+  <si>
+    <t>Titles 3</t>
+  </si>
+  <si>
+    <t>Izihloko 3</t>
+  </si>
+  <si>
+    <t>Titles 4</t>
+  </si>
+  <si>
+    <t>Izihloko 4</t>
+  </si>
+  <si>
+    <t>Titles 5</t>
+  </si>
+  <si>
+    <t>Izihloko 5</t>
+  </si>
+  <si>
+    <t>Titles 6</t>
+  </si>
+  <si>
+    <t>Izihloko 6</t>
+  </si>
+  <si>
+    <t>Titles 7</t>
+  </si>
+  <si>
+    <t>Izihloko 7</t>
+  </si>
+  <si>
+    <t>Titles 8</t>
+  </si>
+  <si>
+    <t>Izihloko 8</t>
+  </si>
+  <si>
+    <t>text block</t>
+  </si>
+  <si>
+    <t>ibhulokhi yombhalo</t>
+  </si>
+  <si>
+    <t>Text block 1</t>
+  </si>
+  <si>
+    <t>Ibhulokhi yombhalo 1</t>
+  </si>
+  <si>
+    <t>Text block 2</t>
+  </si>
+  <si>
+    <t>Ibhulokhi yombhalo 2</t>
+  </si>
+  <si>
+    <t>Text block 3</t>
+  </si>
+  <si>
+    <t>Ibhulokhi yombhalo 3</t>
+  </si>
+  <si>
+    <t>Text block 4</t>
+  </si>
+  <si>
+    <t>Ibhulokhi yombhalo 4</t>
+  </si>
+  <si>
+    <t>Text block 5</t>
+  </si>
+  <si>
+    <t>Ibhulokhi yombhalo 5</t>
+  </si>
+  <si>
+    <t>Text block 6</t>
+  </si>
+  <si>
+    <t>Ibhulokhi yombhalo 6</t>
+  </si>
+  <si>
+    <t>Text block 7</t>
+  </si>
+  <si>
+    <t>Ibhulokhi yombhalo 7</t>
+  </si>
+  <si>
+    <t>Text block 8</t>
+  </si>
+  <si>
+    <t>Ibhulokhi yombhalo 8</t>
+  </si>
+  <si>
+    <t>Text block 9</t>
+  </si>
+  <si>
+    <t>Ibhulokhi yombhalo 9</t>
+  </si>
+  <si>
+    <t>Text block 10</t>
+  </si>
+  <si>
+    <t>Ibhulokhi yombhalo 10</t>
+  </si>
+  <si>
+    <t>Text block 11</t>
+  </si>
+  <si>
+    <t>Ibhulokhi yombhalo 11</t>
+  </si>
+  <si>
+    <t>Text block 12</t>
+  </si>
+  <si>
+    <t>Umbhalo block 12</t>
+  </si>
+  <si>
+    <t>Text block 13</t>
+  </si>
+  <si>
+    <t>Umbhalo block 13</t>
+  </si>
+  <si>
+    <t>Text block 14</t>
+  </si>
+  <si>
+    <t>Ibhulokhi yombhalo 14</t>
+  </si>
+  <si>
+    <t>Text block 15</t>
+  </si>
+  <si>
+    <t>Ibhulokhi yombhalo 15</t>
+  </si>
+  <si>
+    <t>features</t>
+  </si>
+  <si>
+    <t>izici</t>
+  </si>
+  <si>
+    <t>Features 1</t>
+  </si>
+  <si>
+    <t>Izici 1</t>
+  </si>
+  <si>
+    <t>Features 2</t>
+  </si>
+  <si>
+    <t>Izici 2</t>
+  </si>
+  <si>
+    <t>Features 3</t>
+  </si>
+  <si>
+    <t>Izici 3</t>
+  </si>
+  <si>
+    <t>Features 4</t>
+  </si>
+  <si>
+    <t>Izici 4</t>
+  </si>
+  <si>
+    <t>grids</t>
+  </si>
+  <si>
+    <t>amagridi</t>
+  </si>
+  <si>
+    <t>menu</t>
+  </si>
+  <si>
+    <t>imenyu</t>
+  </si>
+  <si>
+    <t>Menu - skin-1</t>
+  </si>
+  <si>
+    <t>Imenyu - isikhumba-1</t>
+  </si>
+  <si>
+    <t>Menu - skin-2</t>
+  </si>
+  <si>
+    <t>Imenyu - isikhumba-2</t>
+  </si>
+  <si>
+    <t>Menu - skin-3</t>
+  </si>
+  <si>
+    <t>Imenyu - isikhumba-3</t>
+  </si>
+  <si>
+    <t>Menu - skin-4</t>
+  </si>
+  <si>
+    <t>Imenyu - isikhumba-4</t>
+  </si>
+  <si>
+    <t>Menu - skin-5</t>
+  </si>
+  <si>
+    <t>Imenyu - isikhumba-5</t>
+  </si>
+  <si>
+    <t>footers</t>
+  </si>
+  <si>
+    <t>amanyaweni</t>
+  </si>
+  <si>
+    <t>Footers 1</t>
+  </si>
+  <si>
+    <t>Okwasezansi 1</t>
+  </si>
+  <si>
+    <t>Footers 2</t>
+  </si>
+  <si>
+    <t>Osezansi 2</t>
+  </si>
+  <si>
+    <t>Footers 3</t>
+  </si>
+  <si>
+    <t>Osezansi 3</t>
+  </si>
+  <si>
+    <t>Footers 4</t>
+  </si>
+  <si>
+    <t>Okwasezansi 4</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>okunye</t>
+  </si>
+  <si>
+    <t>jumbotron</t>
+  </si>
+  <si>
+    <t>i-jumbotron</t>
+  </si>
+  <si>
+    <t>Jumbotron 1</t>
+  </si>
+  <si>
+    <t>I-Jumbotron 1</t>
+  </si>
+  <si>
+    <t>pricing</t>
+  </si>
+  <si>
+    <t>amanani entengo</t>
+  </si>
+  <si>
+    <t>Pricing 1</t>
+  </si>
+  <si>
+    <t>Intengo 1</t>
+  </si>
+  <si>
+    <t>Default layouts</t>
+  </si>
+  <si>
+    <t>Izakhiwo ezizenzakalelayo</t>
+  </si>
+  <si>
+    <t>No Content Here</t>
+  </si>
+  <si>
+    <t>Akukho Okuqukethwe Lapha</t>
+  </si>
+  <si>
+    <t>Custom fields are saved</t>
+  </si>
+  <si>
+    <t>Izinkambu ngokwezifiso zilondoloziwe</t>
+  </si>
+  <si>
+    <t>Existing fields</t>
+  </si>
+  <si>
+    <t>Izinkambu ezikhona</t>
+  </si>
+  <si>
+    <t>Choose from your existing fields bellow</t>
+  </si>
+  <si>
+    <t>Khetha kuzinkambu zakho ezikhona ngezansi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Add new fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Engeza izinkambu ezintsha</t>
+  </si>
+  <si>
+    <t>Add new custom field from list bellow</t>
+  </si>
+  <si>
+    <t>Engeza inkambu entsha yangokwezifiso ohlwini olungezansi</t>
+  </si>
+  <si>
+    <t>Your fields</t>
+  </si>
+  <si>
+    <t>Izinkambu zakho</t>
+  </si>
+  <si>
+    <t>List of your added custom fields</t>
+  </si>
+  <si>
+    <t>Uhlu lwezinkambu zakho zangokwezifiso ezingeziwe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">repeat vertically </t>
+  </si>
+  <si>
+    <t xml:space="preserve">phinda uqonde </t>
+  </si>
+  <si>
+    <t>Font Family</t>
+  </si>
+  <si>
+    <t>Umndeni Wefonti</t>
+  </si>
+  <si>
+    <t>Overlay</t>
+  </si>
+  <si>
+    <t>Imbondela</t>
+  </si>
+  <si>
+    <t>Blend mode</t>
+  </si>
+  <si>
+    <t>Imodi yokuhlanganisa</t>
+  </si>
+  <si>
+    <t>Container</t>
+  </si>
+  <si>
+    <t>Isitsha</t>
+  </si>
+  <si>
+    <t>Container type</t>
+  </si>
+  <si>
+    <t>Uhlobo lwesitsha</t>
+  </si>
+  <si>
+    <t>Animations</t>
+  </si>
+  <si>
+    <t>Reloading styles</t>
+  </si>
+  <si>
+    <t>Ilayisha kabusha izitayela</t>
+  </si>
+  <si>
+    <t>Links to</t>
+  </si>
+  <si>
+    <t>Izixhumanisi ze</t>
+  </si>
+  <si>
+    <t>Preview package</t>
+  </si>
+  <si>
+    <t>Buka kuqala iphakheji</t>
+  </si>
+  <si>
+    <t>Demo</t>
+  </si>
+  <si>
+    <t>Idemo</t>
+  </si>
+  <si>
+    <t>Use</t>
+  </si>
+  <si>
+    <t>Sebenzisa</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Okwamanje</t>
+  </si>
+  <si>
+    <t>Reorder</t>
+  </si>
+  <si>
+    <t>Hlela kabusha</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>Uhlelo</t>
+  </si>
+  <si>
+    <t>Browser Redirect</t>
+  </si>
+  <si>
+    <t>Ukuqondisa Kabusha Isiphequluli</t>
+  </si>
+  <si>
+    <t>Integration</t>
+  </si>
+  <si>
+    <t>Ukuhlanganisa</t>
+  </si>
+  <si>
+    <t>Standalone Updater</t>
+  </si>
+  <si>
+    <t>I-Standalone Updater</t>
+  </si>
+  <si>
+    <t>You need license key to install this package</t>
+  </si>
+  <si>
+    <t>Udinga ukhiye welayisensi ukuze ufake le phakheji</t>
+  </si>
+  <si>
+    <t>This package is premium and you must have a license key to install it</t>
+  </si>
+  <si>
+    <t>Le phakheji iyi-premium futhi kufanele ube nokhiye welayisensi ukuze uyifake</t>
+  </si>
+  <si>
+    <t>You need license key</t>
+  </si>
+  <si>
+    <t>Udinga ukhiye welayisensi</t>
+  </si>
+  <si>
+    <t>License activated</t>
+  </si>
+  <si>
+    <t>Ilayisensi yenziwe yasebenza</t>
+  </si>
+  <si>
+    <t>Reloading page</t>
+  </si>
+  <si>
+    <t>Ilayisha kabusha ikhasi</t>
+  </si>
+  <si>
+    <t>License not activated</t>
+  </si>
+  <si>
+    <t>Ilayisensi ayenziwanga isebenze</t>
+  </si>
+  <si>
+    <t>Url</t>
+  </si>
+  <si>
+    <t>I-Url</t>
+  </si>
+  <si>
+    <t>System updates</t>
+  </si>
+  <si>
+    <t>Izibuyekezo zesistimu</t>
+  </si>
+  <si>
+    <t>Check for system updates</t>
+  </si>
+  <si>
+    <t>Hlola izibuyekezo zesistimu</t>
+  </si>
+  <si>
+    <t>Back to list</t>
+  </si>
+  <si>
+    <t>Buyela ohlwini</t>
+  </si>
+  <si>
+    <t>The category must have a name</t>
+  </si>
+  <si>
+    <t>Isigaba kufanele sibe negama</t>
+  </si>
+  <si>
+    <t>Is category hidden?</t>
+  </si>
+  <si>
+    <t>Ingabe isigaba sifihliwe?</t>
+  </si>
+  <si>
+    <t>If you set this to YES this category will be hidden from the website</t>
+  </si>
+  <si>
+    <t>Uma usetha lokhu kuthi YEBO lesi sigaba sizofihlwa kuwebhusayithi</t>
+  </si>
+  <si>
+    <t>template-big</t>
+  </si>
+  <si>
+    <t>Mentioning</t>
+  </si>
+  <si>
+    <t>Ukubalula</t>
+  </si>
+  <si>
+    <t>Your cart is empty.</t>
+  </si>
+  <si>
+    <t>Inqola yakho ayinalutho.</t>
+  </si>
+  <si>
+    <t>Results found</t>
+  </si>
+  <si>
+    <t>Imiphumela itholakele</t>
+  </si>
+  <si>
+    <t>If you choose the Percent from the select field, it will be calculated automatically from the Price and Offer price of the product.</t>
+  </si>
+  <si>
+    <t>Uma ukhetha Iphesenti kunkambu ekhethiwe, lizobalwa ngokuzenzakalelayo ukusuka Enanini Nenani Lokunikezwa lomkhiqizo.</t>
+  </si>
+  <si>
+    <t>أضف منتج</t>
+  </si>
+  <si>
+    <t>validation</t>
+  </si>
+  <si>
+    <t>custom.multilanguage.title.en_US.required</t>
+  </si>
+  <si>
+    <t>values.multilanguage.title.en_US.</t>
+  </si>
+  <si>
+    <t>تحرير المنتج</t>
+  </si>
+  <si>
+    <t>iuiuui</t>
+  </si>
+  <si>
+    <t>iwuui</t>
+  </si>
+  <si>
+    <t>Proceed to Checkout</t>
+  </si>
+  <si>
+    <t>Qhubeka uthenge</t>
+  </si>
+  <si>
+    <t>تحرير آخر</t>
+  </si>
+  <si>
+    <t>Displaying</t>
+  </si>
+  <si>
+    <t>Iyabonisa</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>kwe</t>
+  </si>
+  <si>
+    <t>result(s)</t>
+  </si>
+  <si>
+    <t>imiphumela</t>
+  </si>
+  <si>
+    <t>Page Title - Right Breadcrumb</t>
+  </si>
+  <si>
+    <t>Isihloko Sekhasi - Isinkwa Sesokudla</t>
+  </si>
+  <si>
+    <t>Page Title - Left Breadcrumb</t>
+  </si>
+  <si>
+    <t>Isihloko Sekhasi - Isinkwa Sesokunxele</t>
+  </si>
+  <si>
+    <t>Terms of use</t>
+  </si>
+  <si>
+    <t>Imigomo Yokusebenzisa</t>
+  </si>
+  <si>
+    <t>Delivery and returns</t>
+  </si>
+  <si>
+    <t>Ukulethwa nokubuyisela</t>
+  </si>
+  <si>
+    <t>Shipping information</t>
+  </si>
+  <si>
+    <t>Ulwazi lokuthumela</t>
+  </si>
+  <si>
+    <t>About 1</t>
+  </si>
+  <si>
+    <t>Cishe u-1</t>
+  </si>
+  <si>
+    <t>About 2</t>
+  </si>
+  <si>
+    <t>Cishe u-2</t>
+  </si>
+  <si>
+    <t>About 3</t>
+  </si>
+  <si>
+    <t>Cishe u-3</t>
+  </si>
+  <si>
+    <t>Home 1</t>
+  </si>
+  <si>
+    <t>Ikhaya 1</t>
+  </si>
+  <si>
+    <t>Home 2</t>
+  </si>
+  <si>
+    <t>Ikhaya 2</t>
+  </si>
+  <si>
+    <t>You must click the apply template button to change your template</t>
+  </si>
+  <si>
+    <t>Kufanele uchofoze inkinobho yesifanekiso sokusebenza ukuze ushintshe isifanekiso sakho</t>
+  </si>
+  <si>
+    <t>Search by criteria</t>
+  </si>
+  <si>
+    <t>Sesha ngemibandela</t>
+  </si>
+  <si>
+    <t>Order ID</t>
+  </si>
+  <si>
+    <t>Date from</t>
+  </si>
+  <si>
+    <t>Idethi kusuka</t>
+  </si>
+  <si>
+    <t>Set the orders from date</t>
+  </si>
+  <si>
+    <t>Setha ama-oda kusuka kudethi</t>
+  </si>
+  <si>
+    <t>Date to</t>
+  </si>
+  <si>
+    <t>Idethi eya kuyo</t>
+  </si>
+  <si>
+    <t>Set the orders to date</t>
+  </si>
+  <si>
+    <t>Setha ama-oda abe yimanje</t>
+  </si>
+  <si>
+    <t>Order amount from</t>
+  </si>
+  <si>
+    <t>Oda inani kusuka</t>
+  </si>
+  <si>
+    <t>Show the order with minimum amount</t>
+  </si>
+  <si>
+    <t>Bonisa i-oda elinenani elincane</t>
+  </si>
+  <si>
+    <t>Order amount to</t>
+  </si>
+  <si>
+    <t>Oda inani lokuthi</t>
+  </si>
+  <si>
+    <t>Show the order with maximum amount</t>
+  </si>
+  <si>
+    <t>Bonisa i-oda ngenani eliphezulu</t>
+  </si>
+  <si>
+    <t>Search by products...</t>
+  </si>
+  <si>
+    <t>Sesha ngemikhiqizo...</t>
+  </si>
+  <si>
+    <t>Search by products</t>
+  </si>
+  <si>
+    <t>Sesha ngemikhiqizo</t>
+  </si>
+  <si>
+    <t>Payment Status</t>
+  </si>
+  <si>
+    <t>Isimo Sokukhokha</t>
+  </si>
+  <si>
+    <t>Free search by phone, name, email etc...</t>
+  </si>
+  <si>
+    <t>Ukusesha kwamahhala ngefoni, igama, i-imeyili njll...</t>
+  </si>
+  <si>
+    <t>Submit this criteria</t>
+  </si>
+  <si>
+    <t>Thumela le mibandela</t>
+  </si>
+  <si>
+    <t>Reset filter</t>
+  </si>
+  <si>
+    <t>Setha kabusha isihlungi</t>
+  </si>
+  <si>
+    <t>Export all</t>
+  </si>
+  <si>
+    <t>Khipha konke</t>
+  </si>
+  <si>
+    <t>Select sorting</t>
+  </si>
+  <si>
+    <t>Khetha ukuhlunga</t>
+  </si>
+  <si>
+    <t>Order date</t>
+  </si>
+  <si>
+    <t>Idethi yoku-oda</t>
+  </si>
+  <si>
+    <t>[New &gt; Old]</t>
+  </si>
+  <si>
+    <t>[Okusha &gt; Okudala]</t>
+  </si>
+  <si>
+    <t>[Old &gt; New]</t>
+  </si>
+  <si>
+    <t>[Okudala &gt; Okusha]</t>
+  </si>
+  <si>
+    <t>[High &gt; Low]</t>
+  </si>
+  <si>
+    <t>[Phezulu &gt; Phansi]</t>
+  </si>
+  <si>
+    <t>[Low &gt; High]</t>
+  </si>
+  <si>
+    <t>[Phansi &gt; Phezulu]</t>
+  </si>
+  <si>
+    <t>Order completed</t>
+  </si>
+  <si>
+    <t>I-oda liqediwe</t>
+  </si>
+  <si>
+    <t>translations from the multilnaguage module have been found in your database.</t>
+  </si>
+  <si>
+    <t>ukuhumushwa okuvela kumojula yezilimi eziningi kutholwe kusizindalwazi sakho.</t>
+  </si>
+  <si>
+    <t>Warning! Changing the default language can break translations on your site.</t>
+  </si>
+  <si>
+    <t>Isexwayiso! Ukushintsha ulimi olumisiwe kungaphula ukuhumusha kusayithi lakho.</t>
+  </si>
+  <si>
+    <t>Are you sure want to continue?</t>
+  </si>
+  <si>
+    <t>Uqinisekile ukuthi ufuna ukuqhubeka?</t>
+  </si>
+  <si>
+    <t>Warning! The changing default language maybe will break your site.</t>
+  </si>
+  <si>
+    <t>Isexwayiso! Ukushintsha ulimi oluzenzakalelayo mhlawumbe kuzophula isayithi lakho.</t>
+  </si>
+  <si>
+    <t>Shipping details</t>
+  </si>
+  <si>
+    <t>Imininingwane yokuthumela</t>
+  </si>
+  <si>
+    <t>Shipping type</t>
+  </si>
+  <si>
+    <t>Uhlobo lokuthumela</t>
+  </si>
+  <si>
+    <t>the order is not completed yet</t>
+  </si>
+  <si>
+    <t>i-oda alikaqedwa</t>
+  </si>
+  <si>
+    <t>the order is completed</t>
+  </si>
+  <si>
+    <t>i-oda seliqediwe</t>
+  </si>
+  <si>
+    <t>Created at</t>
+  </si>
+  <si>
+    <t>Idalwe ngo</t>
+  </si>
+  <si>
+    <t>Updated at</t>
+  </si>
+  <si>
+    <t>Kubuyekezwe ngo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quick view </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ukubuka okusheshayo </t>
+  </si>
+  <si>
+    <t>Replace language values</t>
+  </si>
+  <si>
+    <t>Shintshanisa amanani olimi</t>
+  </si>
+  <si>
+    <t>Translations are imported</t>
+  </si>
+  <si>
+    <t>Izinguqulo zingenisiwe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translations not found in database. Do you wish to import translations? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ukuhumusha akutholakali kusizindalwazi. Uyafisa ukungenisa ukuhumusha? </t>
   </si>
 </sst>
 </file>
@@ -17947,10 +18856,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -17961,7 +18867,7 @@
   </cellStyleXfs>
   <cellXfs count="1">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -18262,7 +19168,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E3062"/>
+  <dimension ref="A1:E3217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -70324,8 +71230,2642 @@
         <v>8</v>
       </c>
     </row>
+    <row r="3063" spans="1:5">
+      <c r="A3063" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3063" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3063" t="s">
+        <v>5965</v>
+      </c>
+      <c r="D3063" t="s">
+        <v>5966</v>
+      </c>
+      <c r="E3063" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3064" spans="1:5">
+      <c r="A3064" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3064" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3064" t="s">
+        <v>5967</v>
+      </c>
+      <c r="D3064" t="s">
+        <v>5968</v>
+      </c>
+      <c r="E3064" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3065" spans="1:5">
+      <c r="A3065" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3065" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3065" t="s">
+        <v>5969</v>
+      </c>
+      <c r="D3065" t="s">
+        <v>5970</v>
+      </c>
+      <c r="E3065" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3066" spans="1:5">
+      <c r="A3066" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3066" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3066" t="s">
+        <v>5971</v>
+      </c>
+      <c r="D3066" t="s">
+        <v>5972</v>
+      </c>
+      <c r="E3066" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3067" spans="1:5">
+      <c r="A3067" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3067" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3067" t="s">
+        <v>5973</v>
+      </c>
+      <c r="D3067" t="s">
+        <v>5974</v>
+      </c>
+      <c r="E3067" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3068" spans="1:5">
+      <c r="A3068" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3068" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3068" t="s">
+        <v>5975</v>
+      </c>
+      <c r="D3068" t="s">
+        <v>5976</v>
+      </c>
+      <c r="E3068" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3069" spans="1:5">
+      <c r="A3069" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3069" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3069" t="s">
+        <v>5977</v>
+      </c>
+      <c r="D3069" t="s">
+        <v>5978</v>
+      </c>
+      <c r="E3069" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3070" spans="1:5">
+      <c r="A3070" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3070" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3070" t="s">
+        <v>5979</v>
+      </c>
+      <c r="D3070" t="s">
+        <v>5980</v>
+      </c>
+      <c r="E3070" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3071" spans="1:5">
+      <c r="A3071" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3071" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3071" t="s">
+        <v>5981</v>
+      </c>
+      <c r="D3071" t="s">
+        <v>5982</v>
+      </c>
+      <c r="E3071" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3072" spans="1:5">
+      <c r="A3072" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3072" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3072" t="s">
+        <v>5983</v>
+      </c>
+      <c r="D3072" t="s">
+        <v>5984</v>
+      </c>
+      <c r="E3072" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3073" spans="1:5">
+      <c r="A3073" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3073" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3073" t="s">
+        <v>5985</v>
+      </c>
+      <c r="D3073" t="s">
+        <v>5986</v>
+      </c>
+      <c r="E3073" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3074" spans="1:5">
+      <c r="A3074" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3074" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3074" t="s">
+        <v>5987</v>
+      </c>
+      <c r="D3074" t="s">
+        <v>5988</v>
+      </c>
+      <c r="E3074" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3075" spans="1:5">
+      <c r="A3075" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3075" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3075" t="s">
+        <v>5989</v>
+      </c>
+      <c r="D3075" t="s">
+        <v>5990</v>
+      </c>
+      <c r="E3075" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3076" spans="1:5">
+      <c r="A3076" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3076" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3076" t="s">
+        <v>5991</v>
+      </c>
+      <c r="D3076" t="s">
+        <v>5992</v>
+      </c>
+      <c r="E3076" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3077" spans="1:5">
+      <c r="A3077" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3077" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3077" t="s">
+        <v>5993</v>
+      </c>
+      <c r="D3077" t="s">
+        <v>5994</v>
+      </c>
+      <c r="E3077" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3078" spans="1:5">
+      <c r="A3078" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3078" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3078" t="s">
+        <v>5995</v>
+      </c>
+      <c r="D3078" t="s">
+        <v>5996</v>
+      </c>
+      <c r="E3078" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3079" spans="1:5">
+      <c r="A3079" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3079" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3079" t="s">
+        <v>5997</v>
+      </c>
+      <c r="D3079" t="s">
+        <v>5998</v>
+      </c>
+      <c r="E3079" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3080" spans="1:5">
+      <c r="A3080" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3080" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3080" t="s">
+        <v>5999</v>
+      </c>
+      <c r="D3080" t="s">
+        <v>6000</v>
+      </c>
+      <c r="E3080" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3081" spans="1:5">
+      <c r="A3081" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3081" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3081" t="s">
+        <v>6001</v>
+      </c>
+      <c r="D3081" t="s">
+        <v>6002</v>
+      </c>
+      <c r="E3081" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3082" spans="1:5">
+      <c r="A3082" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3082" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3082" t="s">
+        <v>6003</v>
+      </c>
+      <c r="D3082" t="s">
+        <v>6004</v>
+      </c>
+      <c r="E3082" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3083" spans="1:5">
+      <c r="A3083" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3083" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3083" t="s">
+        <v>6005</v>
+      </c>
+      <c r="D3083" t="s">
+        <v>6006</v>
+      </c>
+      <c r="E3083" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3084" spans="1:5">
+      <c r="A3084" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3084" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3084" t="s">
+        <v>6007</v>
+      </c>
+      <c r="D3084" t="s">
+        <v>6008</v>
+      </c>
+      <c r="E3084" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3085" spans="1:5">
+      <c r="A3085" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3085" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3085" t="s">
+        <v>6009</v>
+      </c>
+      <c r="D3085" t="s">
+        <v>6010</v>
+      </c>
+      <c r="E3085" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3086" spans="1:5">
+      <c r="A3086" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3086" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3086" t="s">
+        <v>6011</v>
+      </c>
+      <c r="D3086" t="s">
+        <v>6012</v>
+      </c>
+      <c r="E3086" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3087" spans="1:5">
+      <c r="A3087" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3087" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3087" t="s">
+        <v>6013</v>
+      </c>
+      <c r="D3087" t="s">
+        <v>6014</v>
+      </c>
+      <c r="E3087" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3088" spans="1:5">
+      <c r="A3088" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3088" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3088" t="s">
+        <v>6015</v>
+      </c>
+      <c r="D3088" t="s">
+        <v>6016</v>
+      </c>
+      <c r="E3088" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3089" spans="1:5">
+      <c r="A3089" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3089" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3089" t="s">
+        <v>6017</v>
+      </c>
+      <c r="D3089" t="s">
+        <v>6018</v>
+      </c>
+      <c r="E3089" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3090" spans="1:5">
+      <c r="A3090" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3090" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3090" t="s">
+        <v>6019</v>
+      </c>
+      <c r="D3090" t="s">
+        <v>6020</v>
+      </c>
+      <c r="E3090" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3091" spans="1:5">
+      <c r="A3091" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3091" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3091" t="s">
+        <v>6021</v>
+      </c>
+      <c r="D3091" t="s">
+        <v>6022</v>
+      </c>
+      <c r="E3091" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3092" spans="1:5">
+      <c r="A3092" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3092" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3092" t="s">
+        <v>6023</v>
+      </c>
+      <c r="D3092" t="s">
+        <v>6024</v>
+      </c>
+      <c r="E3092" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3093" spans="1:5">
+      <c r="A3093" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3093" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3093" t="s">
+        <v>6025</v>
+      </c>
+      <c r="D3093" t="s">
+        <v>6026</v>
+      </c>
+      <c r="E3093" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3094" spans="1:5">
+      <c r="A3094" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3094" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3094" t="s">
+        <v>6027</v>
+      </c>
+      <c r="D3094" t="s">
+        <v>6028</v>
+      </c>
+      <c r="E3094" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3095" spans="1:5">
+      <c r="A3095" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3095" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3095" t="s">
+        <v>6029</v>
+      </c>
+      <c r="D3095" t="s">
+        <v>6030</v>
+      </c>
+      <c r="E3095" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3096" spans="1:5">
+      <c r="A3096" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3096" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3096" t="s">
+        <v>6031</v>
+      </c>
+      <c r="D3096" t="s">
+        <v>6032</v>
+      </c>
+      <c r="E3096" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3097" spans="1:5">
+      <c r="A3097" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3097" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3097" t="s">
+        <v>6033</v>
+      </c>
+      <c r="D3097" t="s">
+        <v>6034</v>
+      </c>
+      <c r="E3097" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3098" spans="1:5">
+      <c r="A3098" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3098" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3098" t="s">
+        <v>6035</v>
+      </c>
+      <c r="D3098" t="s">
+        <v>6036</v>
+      </c>
+      <c r="E3098" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3099" spans="1:5">
+      <c r="A3099" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3099" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3099" t="s">
+        <v>6037</v>
+      </c>
+      <c r="D3099" t="s">
+        <v>6038</v>
+      </c>
+      <c r="E3099" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3100" spans="1:5">
+      <c r="A3100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3100" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3100" t="s">
+        <v>6039</v>
+      </c>
+      <c r="D3100" t="s">
+        <v>6040</v>
+      </c>
+      <c r="E3100" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3101" spans="1:5">
+      <c r="A3101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3101" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3101" t="s">
+        <v>6041</v>
+      </c>
+      <c r="D3101" t="s">
+        <v>6042</v>
+      </c>
+      <c r="E3101" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3102" spans="1:5">
+      <c r="A3102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3102" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3102" t="s">
+        <v>6043</v>
+      </c>
+      <c r="D3102" t="s">
+        <v>6044</v>
+      </c>
+      <c r="E3102" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3103" spans="1:5">
+      <c r="A3103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3103" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3103" t="s">
+        <v>6045</v>
+      </c>
+      <c r="D3103" t="s">
+        <v>6046</v>
+      </c>
+      <c r="E3103" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3104" spans="1:5">
+      <c r="A3104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3104" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3104" t="s">
+        <v>6047</v>
+      </c>
+      <c r="D3104" t="s">
+        <v>6048</v>
+      </c>
+      <c r="E3104" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3105" spans="1:5">
+      <c r="A3105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3105" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3105" t="s">
+        <v>6049</v>
+      </c>
+      <c r="D3105" t="s">
+        <v>6050</v>
+      </c>
+      <c r="E3105" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3106" spans="1:5">
+      <c r="A3106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3106" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3106" t="s">
+        <v>6051</v>
+      </c>
+      <c r="D3106" t="s">
+        <v>6052</v>
+      </c>
+      <c r="E3106" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3107" spans="1:5">
+      <c r="A3107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3107" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3107" t="s">
+        <v>6053</v>
+      </c>
+      <c r="D3107" t="s">
+        <v>6054</v>
+      </c>
+      <c r="E3107" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3108" spans="1:5">
+      <c r="A3108" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3108" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3108" t="s">
+        <v>6055</v>
+      </c>
+      <c r="D3108" t="s">
+        <v>6056</v>
+      </c>
+      <c r="E3108" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3109" spans="1:5">
+      <c r="A3109" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3109" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3109" t="s">
+        <v>6057</v>
+      </c>
+      <c r="D3109" t="s">
+        <v>6058</v>
+      </c>
+      <c r="E3109" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3110" spans="1:5">
+      <c r="A3110" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3110" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3110">
+        <v>404</v>
+      </c>
+      <c r="D3110">
+        <v>404</v>
+      </c>
+      <c r="E3110" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3111" spans="1:5">
+      <c r="A3111" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3111" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3111" t="s">
+        <v>6059</v>
+      </c>
+      <c r="D3111" t="s">
+        <v>6060</v>
+      </c>
+      <c r="E3111" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3112" spans="1:5">
+      <c r="A3112" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3112" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3112" t="s">
+        <v>6061</v>
+      </c>
+      <c r="D3112" t="s">
+        <v>6062</v>
+      </c>
+      <c r="E3112" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3113" spans="1:5">
+      <c r="A3113" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3113" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3113" t="s">
+        <v>6063</v>
+      </c>
+      <c r="D3113" t="s">
+        <v>6064</v>
+      </c>
+      <c r="E3113" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3114" spans="1:5">
+      <c r="A3114" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3114" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3114" t="s">
+        <v>6065</v>
+      </c>
+      <c r="D3114" t="s">
+        <v>6066</v>
+      </c>
+      <c r="E3114" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3115" spans="1:5">
+      <c r="A3115" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3115" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3115" t="s">
+        <v>6067</v>
+      </c>
+      <c r="D3115" t="s">
+        <v>6068</v>
+      </c>
+      <c r="E3115" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3116" spans="1:5">
+      <c r="A3116" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3116" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3116" t="s">
+        <v>6069</v>
+      </c>
+      <c r="D3116" t="s">
+        <v>6070</v>
+      </c>
+      <c r="E3116" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3117" spans="1:5">
+      <c r="A3117" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3117" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3117" t="s">
+        <v>6071</v>
+      </c>
+      <c r="D3117" t="s">
+        <v>6072</v>
+      </c>
+      <c r="E3117" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3118" spans="1:5">
+      <c r="A3118" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3118" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3118" t="s">
+        <v>6073</v>
+      </c>
+      <c r="D3118" t="s">
+        <v>6074</v>
+      </c>
+      <c r="E3118" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3119" spans="1:5">
+      <c r="A3119" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3119" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3119" t="s">
+        <v>6075</v>
+      </c>
+      <c r="D3119" t="s">
+        <v>6076</v>
+      </c>
+      <c r="E3119" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3120" spans="1:5">
+      <c r="A3120" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3120" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3120" t="s">
+        <v>6077</v>
+      </c>
+      <c r="D3120" t="s">
+        <v>6078</v>
+      </c>
+      <c r="E3120" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3121" spans="1:5">
+      <c r="A3121" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3121" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3121" t="s">
+        <v>6079</v>
+      </c>
+      <c r="D3121" t="s">
+        <v>6080</v>
+      </c>
+      <c r="E3121" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3122" spans="1:5">
+      <c r="A3122" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3122" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3122" t="s">
+        <v>6081</v>
+      </c>
+      <c r="D3122" t="s">
+        <v>6082</v>
+      </c>
+      <c r="E3122" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3123" spans="1:5">
+      <c r="A3123" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3123" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3123" t="s">
+        <v>6083</v>
+      </c>
+      <c r="D3123" t="s">
+        <v>6084</v>
+      </c>
+      <c r="E3123" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3124" spans="1:5">
+      <c r="A3124" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3124" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3124" t="s">
+        <v>6085</v>
+      </c>
+      <c r="D3124" t="s">
+        <v>6086</v>
+      </c>
+      <c r="E3124" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3125" spans="1:5">
+      <c r="A3125" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3125" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3125" t="s">
+        <v>6087</v>
+      </c>
+      <c r="D3125" t="s">
+        <v>6088</v>
+      </c>
+      <c r="E3125" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3126" spans="1:5">
+      <c r="A3126" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3126" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3126" t="s">
+        <v>6089</v>
+      </c>
+      <c r="D3126" t="s">
+        <v>6090</v>
+      </c>
+      <c r="E3126" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3127" spans="1:5">
+      <c r="A3127" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3127" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3127" t="s">
+        <v>6091</v>
+      </c>
+      <c r="D3127" t="s">
+        <v>6092</v>
+      </c>
+      <c r="E3127" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3128" spans="1:5">
+      <c r="A3128" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3128" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3128" t="s">
+        <v>6093</v>
+      </c>
+      <c r="D3128" t="s">
+        <v>6094</v>
+      </c>
+      <c r="E3128" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3129" spans="1:5">
+      <c r="A3129" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3129" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3129" t="s">
+        <v>6095</v>
+      </c>
+      <c r="D3129" t="s">
+        <v>6096</v>
+      </c>
+      <c r="E3129" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3130" spans="1:5">
+      <c r="A3130" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3130" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3130" t="s">
+        <v>6097</v>
+      </c>
+      <c r="D3130" t="s">
+        <v>3670</v>
+      </c>
+      <c r="E3130" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3131" spans="1:5">
+      <c r="A3131" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3131" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3131" t="s">
+        <v>6098</v>
+      </c>
+      <c r="D3131" t="s">
+        <v>6099</v>
+      </c>
+      <c r="E3131" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3132" spans="1:5">
+      <c r="A3132" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3132" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3132" t="s">
+        <v>6100</v>
+      </c>
+      <c r="D3132" t="s">
+        <v>6101</v>
+      </c>
+      <c r="E3132" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3133" spans="1:5">
+      <c r="A3133" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3133" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3133" t="s">
+        <v>6102</v>
+      </c>
+      <c r="D3133" t="s">
+        <v>6103</v>
+      </c>
+      <c r="E3133" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3134" spans="1:5">
+      <c r="A3134" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3134" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3134" t="s">
+        <v>6104</v>
+      </c>
+      <c r="D3134" t="s">
+        <v>6105</v>
+      </c>
+      <c r="E3134" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3135" spans="1:5">
+      <c r="A3135" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3135" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3135" t="s">
+        <v>6106</v>
+      </c>
+      <c r="D3135" t="s">
+        <v>6107</v>
+      </c>
+      <c r="E3135" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3136" spans="1:5">
+      <c r="A3136" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3136" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3136" t="s">
+        <v>6108</v>
+      </c>
+      <c r="D3136" t="s">
+        <v>6109</v>
+      </c>
+      <c r="E3136" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3137" spans="1:5">
+      <c r="A3137" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3137" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3137" t="s">
+        <v>6110</v>
+      </c>
+      <c r="D3137" t="s">
+        <v>6111</v>
+      </c>
+      <c r="E3137" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3138" spans="1:5">
+      <c r="A3138" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3138" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3138" t="s">
+        <v>6112</v>
+      </c>
+      <c r="D3138" t="s">
+        <v>6113</v>
+      </c>
+      <c r="E3138" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3139" spans="1:5">
+      <c r="A3139" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3139" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3139" t="s">
+        <v>6114</v>
+      </c>
+      <c r="D3139" t="s">
+        <v>6115</v>
+      </c>
+      <c r="E3139" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3140" spans="1:5">
+      <c r="A3140" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3140" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3140" t="s">
+        <v>6116</v>
+      </c>
+      <c r="D3140" t="s">
+        <v>6117</v>
+      </c>
+      <c r="E3140" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3141" spans="1:5">
+      <c r="A3141" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3141" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3141" t="s">
+        <v>6118</v>
+      </c>
+      <c r="D3141" t="s">
+        <v>6119</v>
+      </c>
+      <c r="E3141" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3142" spans="1:5">
+      <c r="A3142" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3142" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3142" t="s">
+        <v>6120</v>
+      </c>
+      <c r="D3142" t="s">
+        <v>6121</v>
+      </c>
+      <c r="E3142" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3143" spans="1:5">
+      <c r="A3143" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3143" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3143" t="s">
+        <v>6122</v>
+      </c>
+      <c r="D3143" t="s">
+        <v>6123</v>
+      </c>
+      <c r="E3143" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3144" spans="1:5">
+      <c r="A3144" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3144" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3144" t="s">
+        <v>6124</v>
+      </c>
+      <c r="D3144" t="s">
+        <v>6125</v>
+      </c>
+      <c r="E3144" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3145" spans="1:5">
+      <c r="A3145" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3145" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3145" t="s">
+        <v>6126</v>
+      </c>
+      <c r="D3145" t="s">
+        <v>6127</v>
+      </c>
+      <c r="E3145" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3146" spans="1:5">
+      <c r="A3146" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3146" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3146" t="s">
+        <v>6128</v>
+      </c>
+      <c r="D3146" t="s">
+        <v>6129</v>
+      </c>
+      <c r="E3146" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3147" spans="1:5">
+      <c r="A3147" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3147" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3147" t="s">
+        <v>6130</v>
+      </c>
+      <c r="D3147" t="s">
+        <v>6131</v>
+      </c>
+      <c r="E3147" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3148" spans="1:5">
+      <c r="A3148" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3148" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3148" t="s">
+        <v>6132</v>
+      </c>
+      <c r="D3148" t="s">
+        <v>6133</v>
+      </c>
+      <c r="E3148" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3149" spans="1:5">
+      <c r="A3149" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3149" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3149" t="s">
+        <v>6134</v>
+      </c>
+      <c r="D3149" t="s">
+        <v>6135</v>
+      </c>
+      <c r="E3149" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3150" spans="1:5">
+      <c r="A3150" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3150" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3150" t="s">
+        <v>6136</v>
+      </c>
+      <c r="D3150" t="s">
+        <v>6137</v>
+      </c>
+      <c r="E3150" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3151" spans="1:5">
+      <c r="A3151" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3151" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3151" t="s">
+        <v>6138</v>
+      </c>
+      <c r="D3151" t="s">
+        <v>6139</v>
+      </c>
+      <c r="E3151" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3152" spans="1:5">
+      <c r="A3152" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3152" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3152" t="s">
+        <v>6140</v>
+      </c>
+      <c r="D3152" t="s">
+        <v>6141</v>
+      </c>
+      <c r="E3152" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3153" spans="1:5">
+      <c r="A3153" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3153" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3153" t="s">
+        <v>6142</v>
+      </c>
+      <c r="D3153" t="s">
+        <v>6143</v>
+      </c>
+      <c r="E3153" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3154" spans="1:5">
+      <c r="A3154" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3154" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3154" t="s">
+        <v>6144</v>
+      </c>
+      <c r="D3154" t="s">
+        <v>6145</v>
+      </c>
+      <c r="E3154" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3155" spans="1:5">
+      <c r="A3155" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3155" t="s">
+        <v>6146</v>
+      </c>
+      <c r="C3155" t="s">
+        <v>6147</v>
+      </c>
+      <c r="D3155" t="s">
+        <v>6148</v>
+      </c>
+      <c r="E3155" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3156" spans="1:5">
+      <c r="A3156" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3156" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3156" t="s">
+        <v>6149</v>
+      </c>
+      <c r="D3156" t="s">
+        <v>6150</v>
+      </c>
+      <c r="E3156" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3157" spans="1:5">
+      <c r="A3157" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3157" t="s">
+        <v>5962</v>
+      </c>
+      <c r="C3157" t="s">
+        <v>6151</v>
+      </c>
+      <c r="D3157" t="s">
+        <v>6152</v>
+      </c>
+      <c r="E3157" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3158" spans="1:5">
+      <c r="A3158" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3158" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3158" t="s">
+        <v>6153</v>
+      </c>
+      <c r="D3158" t="s">
+        <v>6154</v>
+      </c>
+      <c r="E3158" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3159" spans="1:5">
+      <c r="A3159" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3159" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3159" t="s">
+        <v>6155</v>
+      </c>
+      <c r="D3159" t="s">
+        <v>6155</v>
+      </c>
+      <c r="E3159" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3160" spans="1:5">
+      <c r="A3160" t="s">
+        <v>6156</v>
+      </c>
+      <c r="B3160" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3160" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D3160" t="s">
+        <v>6157</v>
+      </c>
+      <c r="E3160" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3161" spans="1:5">
+      <c r="A3161" t="s">
+        <v>6156</v>
+      </c>
+      <c r="B3161" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3161" t="s">
+        <v>6158</v>
+      </c>
+      <c r="D3161" t="s">
+        <v>6158</v>
+      </c>
+      <c r="E3161" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3162" spans="1:5">
+      <c r="A3162" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3162" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3162" t="s">
+        <v>6159</v>
+      </c>
+      <c r="D3162" t="s">
+        <v>6159</v>
+      </c>
+      <c r="E3162" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3163" spans="1:5">
+      <c r="A3163" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3163" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3163" t="s">
+        <v>6160</v>
+      </c>
+      <c r="D3163" t="s">
+        <v>6161</v>
+      </c>
+      <c r="E3163" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3164" spans="1:5">
+      <c r="A3164" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3164" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3164" t="s">
+        <v>6162</v>
+      </c>
+      <c r="D3164" t="s">
+        <v>6163</v>
+      </c>
+      <c r="E3164" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3165" spans="1:5">
+      <c r="A3165" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3165" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3165" t="s">
+        <v>6164</v>
+      </c>
+      <c r="D3165" t="s">
+        <v>6164</v>
+      </c>
+      <c r="E3165" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3166" spans="1:5">
+      <c r="A3166" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3166" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3166" t="s">
+        <v>6165</v>
+      </c>
+      <c r="D3166" t="s">
+        <v>6166</v>
+      </c>
+      <c r="E3166" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3167" spans="1:5">
+      <c r="A3167" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3167" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3167" t="s">
+        <v>6167</v>
+      </c>
+      <c r="D3167" t="s">
+        <v>6168</v>
+      </c>
+      <c r="E3167" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3168" spans="1:5">
+      <c r="A3168" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3168" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3168" t="s">
+        <v>6169</v>
+      </c>
+      <c r="D3168" t="s">
+        <v>6170</v>
+      </c>
+      <c r="E3168" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3169" spans="1:5">
+      <c r="A3169" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3169" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3169" t="s">
+        <v>6171</v>
+      </c>
+      <c r="D3169" t="s">
+        <v>6172</v>
+      </c>
+      <c r="E3169" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3170" spans="1:5">
+      <c r="A3170" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3170" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3170" t="s">
+        <v>6173</v>
+      </c>
+      <c r="D3170" t="s">
+        <v>6174</v>
+      </c>
+      <c r="E3170" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3171" spans="1:5">
+      <c r="A3171" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3171" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3171" t="s">
+        <v>6175</v>
+      </c>
+      <c r="D3171" t="s">
+        <v>6176</v>
+      </c>
+      <c r="E3171" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3172" spans="1:5">
+      <c r="A3172" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3172" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3172" t="s">
+        <v>6177</v>
+      </c>
+      <c r="D3172" t="s">
+        <v>6178</v>
+      </c>
+      <c r="E3172" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3173" spans="1:5">
+      <c r="A3173" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3173" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3173" t="s">
+        <v>6179</v>
+      </c>
+      <c r="D3173" t="s">
+        <v>6180</v>
+      </c>
+      <c r="E3173" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3174" spans="1:5">
+      <c r="A3174" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3174" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3174" t="s">
+        <v>6181</v>
+      </c>
+      <c r="D3174" t="s">
+        <v>6182</v>
+      </c>
+      <c r="E3174" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3175" spans="1:5">
+      <c r="A3175" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3175" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3175" t="s">
+        <v>6183</v>
+      </c>
+      <c r="D3175" t="s">
+        <v>6184</v>
+      </c>
+      <c r="E3175" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3176" spans="1:5">
+      <c r="A3176" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3176" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3176" t="s">
+        <v>6185</v>
+      </c>
+      <c r="D3176" t="s">
+        <v>6186</v>
+      </c>
+      <c r="E3176" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3177" spans="1:5">
+      <c r="A3177" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3177" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3177" t="s">
+        <v>6187</v>
+      </c>
+      <c r="D3177" t="s">
+        <v>6188</v>
+      </c>
+      <c r="E3177" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3178" spans="1:5">
+      <c r="A3178" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3178" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3178" t="s">
+        <v>6189</v>
+      </c>
+      <c r="D3178" t="s">
+        <v>6190</v>
+      </c>
+      <c r="E3178" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3179" spans="1:5">
+      <c r="A3179" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3179" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3179" t="s">
+        <v>6191</v>
+      </c>
+      <c r="D3179" t="s">
+        <v>6192</v>
+      </c>
+      <c r="E3179" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3180" spans="1:5">
+      <c r="A3180" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3180" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3180" t="s">
+        <v>6193</v>
+      </c>
+      <c r="D3180" t="s">
+        <v>6194</v>
+      </c>
+      <c r="E3180" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3181" spans="1:5">
+      <c r="A3181" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3181" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3181" t="s">
+        <v>6195</v>
+      </c>
+      <c r="D3181" t="s">
+        <v>1827</v>
+      </c>
+      <c r="E3181" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3182" spans="1:5">
+      <c r="A3182" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3182" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3182" t="s">
+        <v>6196</v>
+      </c>
+      <c r="D3182" t="s">
+        <v>6197</v>
+      </c>
+      <c r="E3182" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3183" spans="1:5">
+      <c r="A3183" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3183" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3183" t="s">
+        <v>6198</v>
+      </c>
+      <c r="D3183" t="s">
+        <v>6199</v>
+      </c>
+      <c r="E3183" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3184" spans="1:5">
+      <c r="A3184" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3184" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3184" t="s">
+        <v>6200</v>
+      </c>
+      <c r="D3184" t="s">
+        <v>6201</v>
+      </c>
+      <c r="E3184" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3185" spans="1:5">
+      <c r="A3185" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3185" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3185" t="s">
+        <v>6202</v>
+      </c>
+      <c r="D3185" t="s">
+        <v>6203</v>
+      </c>
+      <c r="E3185" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3186" spans="1:5">
+      <c r="A3186" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3186" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3186" t="s">
+        <v>6204</v>
+      </c>
+      <c r="D3186" t="s">
+        <v>6205</v>
+      </c>
+      <c r="E3186" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3187" spans="1:5">
+      <c r="A3187" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3187" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3187" t="s">
+        <v>6206</v>
+      </c>
+      <c r="D3187" t="s">
+        <v>6207</v>
+      </c>
+      <c r="E3187" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3188" spans="1:5">
+      <c r="A3188" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3188" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3188" t="s">
+        <v>6208</v>
+      </c>
+      <c r="D3188" t="s">
+        <v>6209</v>
+      </c>
+      <c r="E3188" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3189" spans="1:5">
+      <c r="A3189" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3189" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3189" t="s">
+        <v>6210</v>
+      </c>
+      <c r="D3189" t="s">
+        <v>6211</v>
+      </c>
+      <c r="E3189" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3190" spans="1:5">
+      <c r="A3190" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3190" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3190" t="s">
+        <v>6212</v>
+      </c>
+      <c r="D3190" t="s">
+        <v>6213</v>
+      </c>
+      <c r="E3190" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3191" spans="1:5">
+      <c r="A3191" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3191" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3191" t="s">
+        <v>6214</v>
+      </c>
+      <c r="D3191" t="s">
+        <v>6215</v>
+      </c>
+      <c r="E3191" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3192" spans="1:5">
+      <c r="A3192" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3192" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3192" t="s">
+        <v>6216</v>
+      </c>
+      <c r="D3192" t="s">
+        <v>6217</v>
+      </c>
+      <c r="E3192" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3193" spans="1:5">
+      <c r="A3193" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3193" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3193" t="s">
+        <v>6218</v>
+      </c>
+      <c r="D3193" t="s">
+        <v>6219</v>
+      </c>
+      <c r="E3193" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3194" spans="1:5">
+      <c r="A3194" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3194" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3194" t="s">
+        <v>6220</v>
+      </c>
+      <c r="D3194" t="s">
+        <v>6221</v>
+      </c>
+      <c r="E3194" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3195" spans="1:5">
+      <c r="A3195" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3195" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3195" t="s">
+        <v>6222</v>
+      </c>
+      <c r="D3195" t="s">
+        <v>6223</v>
+      </c>
+      <c r="E3195" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3196" spans="1:5">
+      <c r="A3196" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3196" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3196" t="s">
+        <v>6224</v>
+      </c>
+      <c r="D3196" t="s">
+        <v>6225</v>
+      </c>
+      <c r="E3196" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3197" spans="1:5">
+      <c r="A3197" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3197" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3197" t="s">
+        <v>6226</v>
+      </c>
+      <c r="D3197" t="s">
+        <v>6227</v>
+      </c>
+      <c r="E3197" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3198" spans="1:5">
+      <c r="A3198" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3198" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3198" t="s">
+        <v>6228</v>
+      </c>
+      <c r="D3198" t="s">
+        <v>6229</v>
+      </c>
+      <c r="E3198" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3199" spans="1:5">
+      <c r="A3199" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3199" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3199" t="s">
+        <v>6230</v>
+      </c>
+      <c r="D3199" t="s">
+        <v>6231</v>
+      </c>
+      <c r="E3199" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3200" spans="1:5">
+      <c r="A3200" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3200" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3200" t="s">
+        <v>6232</v>
+      </c>
+      <c r="D3200" t="s">
+        <v>6233</v>
+      </c>
+      <c r="E3200" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3201" spans="1:5">
+      <c r="A3201" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3201" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3201" t="s">
+        <v>6234</v>
+      </c>
+      <c r="D3201" t="s">
+        <v>6235</v>
+      </c>
+      <c r="E3201" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3202" spans="1:5">
+      <c r="A3202" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3202" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3202" t="s">
+        <v>6236</v>
+      </c>
+      <c r="D3202" t="s">
+        <v>6237</v>
+      </c>
+      <c r="E3202" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3203" spans="1:5">
+      <c r="A3203" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3203" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3203" t="s">
+        <v>6238</v>
+      </c>
+      <c r="D3203" t="s">
+        <v>6239</v>
+      </c>
+      <c r="E3203" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3204" spans="1:5">
+      <c r="A3204" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3204" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3204" t="s">
+        <v>6240</v>
+      </c>
+      <c r="D3204" t="s">
+        <v>6241</v>
+      </c>
+      <c r="E3204" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3205" spans="1:5">
+      <c r="A3205" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3205" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3205" t="s">
+        <v>6242</v>
+      </c>
+      <c r="D3205" t="s">
+        <v>6243</v>
+      </c>
+      <c r="E3205" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3206" spans="1:5">
+      <c r="A3206" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3206" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3206" t="s">
+        <v>6244</v>
+      </c>
+      <c r="D3206" t="s">
+        <v>6245</v>
+      </c>
+      <c r="E3206" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3207" spans="1:5">
+      <c r="A3207" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3207" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3207" t="s">
+        <v>6246</v>
+      </c>
+      <c r="D3207" t="s">
+        <v>6247</v>
+      </c>
+      <c r="E3207" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3208" spans="1:5">
+      <c r="A3208" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3208" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3208" t="s">
+        <v>6248</v>
+      </c>
+      <c r="D3208" t="s">
+        <v>6249</v>
+      </c>
+      <c r="E3208" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3209" spans="1:5">
+      <c r="A3209" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3209" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3209" t="s">
+        <v>6250</v>
+      </c>
+      <c r="D3209" t="s">
+        <v>6251</v>
+      </c>
+      <c r="E3209" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3210" spans="1:5">
+      <c r="A3210" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3210" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3210" t="s">
+        <v>6252</v>
+      </c>
+      <c r="D3210" t="s">
+        <v>6253</v>
+      </c>
+      <c r="E3210" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3211" spans="1:5">
+      <c r="A3211" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3211" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3211" t="s">
+        <v>6254</v>
+      </c>
+      <c r="D3211" t="s">
+        <v>6255</v>
+      </c>
+      <c r="E3211" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3212" spans="1:5">
+      <c r="A3212" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3212" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3212" t="s">
+        <v>6256</v>
+      </c>
+      <c r="D3212" t="s">
+        <v>6257</v>
+      </c>
+      <c r="E3212" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3213" spans="1:5">
+      <c r="A3213" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3213" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3213" t="s">
+        <v>6258</v>
+      </c>
+      <c r="D3213" t="s">
+        <v>6259</v>
+      </c>
+      <c r="E3213" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3214" spans="1:5">
+      <c r="A3214" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3214" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3214" t="s">
+        <v>6260</v>
+      </c>
+      <c r="D3214" t="s">
+        <v>6261</v>
+      </c>
+      <c r="E3214" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3215" spans="1:5">
+      <c r="A3215" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3215" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3215" t="s">
+        <v>6262</v>
+      </c>
+      <c r="D3215" t="s">
+        <v>6263</v>
+      </c>
+      <c r="E3215" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3216" spans="1:5">
+      <c r="A3216" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3216" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3216" t="s">
+        <v>6264</v>
+      </c>
+      <c r="D3216" t="s">
+        <v>6265</v>
+      </c>
+      <c r="E3216" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3217" spans="1:5">
+      <c r="A3217" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3217" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3217" t="s">
+        <v>6266</v>
+      </c>
+      <c r="D3217" t="s">
+        <v>6267</v>
+      </c>
+      <c r="E3217" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
@@ -70337,5 +73877,6 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
+  <tableParts count="0"/>
 </worksheet>
 </file>
--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/zu_ZA.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/zu_ZA.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6077">
   <si>
     <t>translation_group</t>
   </si>
@@ -10241,7 +10241,7 @@
     <t>Fill in the fields for maximum results when finding your website in search engines.</t>
   </si>
   <si>
-    <t>Gcwalisa izinkambu ukuthola imiphumela ephezulu lapho uthola iwebhusayithi yakho ezinjini zokusesha.</t>
+    <t>Gcwalisa izinkambu ukuze uthole imiphumela ephezulu uma uthola iwebhusayithi yakho ezinjinini zokusesha.</t>
   </si>
   <si>
     <t>This is very important for search engines.</t>
@@ -17331,19 +17331,19 @@
     <t>Welcome to Microweber</t>
   </si>
   <si>
-    <t>Uyemukelwa kwaMicroweber</t>
+    <t>Siyakwamukela ku-Microweber</t>
   </si>
   <si>
     <t>Use Microweber to build your website, online shop or blog.</t>
   </si>
   <si>
-    <t>Sebenzisa iMicroweber ukwakha iwebhusayithi yakho, isitolo esiku-inthanethi noma ibhulogi.</t>
+    <t>Sebenzisa i-Microweber ukwakha iwebhusayithi yakho, isitolo se-inthanethi noma ibhulogi.</t>
   </si>
   <si>
     <t>Create and edit content, sell online, manage orders and clients.</t>
   </si>
   <si>
-    <t>Dala futhi uhlele okuqukethwe, thengisa ku-inthanethi, uphathe ama-oda namakhasimende.</t>
+    <t>Dala futhi uhlele okuqukethwe, thengisa ku-inthanethi, phatha ama-oda namakhasimende.</t>
   </si>
   <si>
     <t>Remove</t>
@@ -17376,19 +17376,19 @@
     <t>If you allow multiple templates, you will be abble to use different templates when you create a new pages.</t>
   </si>
   <si>
-    <t>Uma uvumela izifanekiso eziningi, uzokwazi ukusebenzisa izifanekiso ezahlukahlukene lapho udala amakhasi amasha.</t>
+    <t>Uma uvumela izifanekiso eziningi, uzokwazi ukusebenzisa izifanekiso ezihlukile uma udala amakhasi amasha.</t>
   </si>
   <si>
     <t>System e-mail website settings</t>
   </si>
   <si>
-    <t>Amasethingi e-imeyili e-System</t>
+    <t>Izilungiselelo zewebhusayithi ye-imeyili yesistimu</t>
   </si>
   <si>
     <t>Deliver messages related with new registration, password resets and others system functionalities.</t>
   </si>
   <si>
-    <t>Dlulisa imilayezo ehlobene nokubhaliswa okusha, ukusethwa kabusha kwephasiwedi nokunye ukusebenza kohlelo.</t>
+    <t>Thumela imilayezo ehlobene nokubhaliswa okusha, ukusetha kabusha iphasiwedi nokunye ukusebenza kwesistimu.</t>
   </si>
   <si>
     <t>From e-mail address</t>
@@ -17400,13 +17400,13 @@
     <t>Ex. Your Website Name</t>
   </si>
   <si>
-    <t>Isb. Igama Lakho Lewebhusayithi</t>
+    <t>Ex. Igama Lewebhusayithi Yakho</t>
   </si>
   <si>
     <t>General e-mail provider settings</t>
   </si>
   <si>
-    <t>Izilungiselelo ezijwayelekile zabanikezeli be-imeyili</t>
+    <t>Izilungiselelo ezijwayelekile zomhlinzeki we-imeyili</t>
   </si>
   <si>
     <t>Set up your email provider.</t>
@@ -17418,19 +17418,19 @@
     <t>The general e-mail provider will deliver all messages related with the website. Including system messages and contact form messages.</t>
   </si>
   <si>
-    <t>Umhlinzeki we-imeyili ojwayelekile uzoletha yonke imilayezo ehlobene newebhusayithi. Kubandakanya imiyalezo yohlelo nemiyalezo yefomu lokuxhumana.</t>
+    <t>Umhlinzeki we-imeyili ojwayelekile uzoletha yonke imilayezo ehlobene newebhusayithi. Kubandakanya imilayezo yesistimu nemilayezo yefomu lokuxhumana.</t>
   </si>
   <si>
     <t>Website Logo</t>
   </si>
   <si>
-    <t>Iwebhusayithi Ilogo</t>
+    <t>Ilogo yewebhusayithi</t>
   </si>
   <si>
     <t>Select an logo for your website.</t>
   </si>
   <si>
-    <t>Khetha uphawu lwewebhusayithi yakho.</t>
+    <t>Khetha ilogo yewebhusayithi yakho.</t>
   </si>
   <si>
     <t>Upload logo</t>
@@ -17442,60 +17442,63 @@
     <t>Website Favicon</t>
   </si>
   <si>
-    <t>Iwebhusayithi Favicon</t>
+    <t>I-Favicon yewebhusayithi</t>
   </si>
   <si>
     <t>Changing default language..</t>
   </si>
   <si>
-    <t>Ishintsha ulimi oluzenzakalelayo ..</t>
+    <t>Ishintsha ulimi oluzenzakalelayo..</t>
   </si>
   <si>
     <t>Clear cache..</t>
   </si>
   <si>
-    <t>Sula inqolobane ..</t>
+    <t>Sula inqolobane..</t>
   </si>
   <si>
     <t>Install Multilanguage Module</t>
   </si>
   <si>
-    <t>Faka iModyuli Yezilimi Eziningi</t>
+    <t>Faka i-Multilanguage Module</t>
   </si>
   <si>
     <t>Users can register with temporary emails like - Mailinator, MailDrop, Guerrilla...s</t>
   </si>
   <si>
-    <t>Abasebenzisi bangabhalisa ngama-imeyili esikhashana afana ne - Mailinator, MailDrop, Guerrilla ... s</t>
+    <t>Abasebenzisi bangabhalisa ngama-imeyili esikhashana afana ne-Mailinator, MailDrop, Guerrilla...s</t>
   </si>
   <si>
     <t>Register users can automatically receive an automatic email from you. See the settings and post your messages.</t>
   </si>
   <si>
-    <t>Bhalisa abasebenzisi bangathola ngokuzenzakalela i-imeyili evela kuwe. Bona izilungiselelo bese uthumela imilayezo yakho.</t>
+    <t>Bhalisa abasebenzisi bangathola ngokuzenzakalelayo i-imeyili evela kuwe. Bona izilungiselelo bese uthumela imilayezo yakho.</t>
   </si>
   <si>
     <t>Send email on new user registration to admin users</t>
   </si>
   <si>
-    <t>Thumela i-imeyili ekubhalisweni komsebenzisi okusha kubasebenzisi be-admin</t>
+    <t>Thumela i-imeyili ekubhaliseni okusha komsebenzisi kubasebenzisi abaphethe</t>
   </si>
   <si>
     <t>Do you want adminitrators to receive an e-mail when new user is registered?</t>
   </si>
   <si>
-    <t>Ngabe ufuna abaphathi ukuthi bathole i-imeyili lapho umsebenzisi omusha ebhalisiwe?</t>
+    <t>Uyafuna ukuthi abalawuli bathole i-imeyili uma umsebenzisi omusha ebhaliswa?</t>
   </si>
   <si>
     <t>Microweber is free open source drag and drop website builder and CMS. It is under MIT license and we use Laravel PHP framework</t>
   </si>
   <si>
-    <t>IMicroweber ingumthombo ovulekile ovulekile wokudonsa bese uphonsa umakhi wewebhusayithi ne-CMS. Ingaphansi kwelayisense ye-MIT futhi sisebenzisa uhlaka lwe-Laravel PHP</t>
+    <t>I-Microweber ingumthombo ovulekile wokudonsa bese uphonsa umakhi wewebhusayithi kanye ne-CMS. Ingaphansi kwelayisensi ye-MIT futhi sisebenzisa uhlaka lwe-Laravel PHP</t>
   </si>
   <si>
     <t>A Slider</t>
   </si>
   <si>
+    <t>Isilayidi</t>
+  </si>
+  <si>
     <t>Shipping to address</t>
   </si>
   <si>
@@ -17505,7 +17508,7 @@
     <t>Pickup from address</t>
   </si>
   <si>
-    <t>Ukulandwa kukheli</t>
+    <t>Thatha ekhelini</t>
   </si>
   <si>
     <t>Global settings</t>
@@ -17523,19 +17526,19 @@
     <t>You don't have system e-mail and smtp setup.</t>
   </si>
   <si>
-    <t>Awunayo i-e-mail yohlelo nokusethwa kwe-smtp.</t>
+    <t>Awunayo i-imeyili yesistimu nokusethwa kwe-smtp.</t>
   </si>
   <si>
     <t>Setup your system settings here.</t>
   </si>
   <si>
-    <t>Setha izilungiselelo zakho zohlelo lapha.</t>
+    <t>Misa izilungiselelo zesistimu yakho lapha.</t>
   </si>
   <si>
     <t>Global contact form settings</t>
   </si>
   <si>
-    <t>Izilungiselelo zefomu lokuxhumana lomhlaba jikelele</t>
+    <t>Izilungiselelo zefomu lokuxhumana lomhlaba wonke</t>
   </si>
   <si>
     <t>E-mail sending options</t>
@@ -17547,61 +17550,61 @@
     <t>Global sender</t>
   </si>
   <si>
-    <t>Umthumeli womhlaba jikelele</t>
+    <t>Umthumeli womhlaba</t>
   </si>
   <si>
     <t>Use custom sender settings</t>
   </si>
   <si>
-    <t>Sebenzisa izilungiselelo zomthumeli wangokwezifiso</t>
+    <t>Sebenzisa izilungiselelo zomthumeli ngokwezifiso</t>
   </si>
   <si>
     <t>Use custom sender settings for the global contact forms.</t>
   </si>
   <si>
-    <t>Sebenzisa izilungiselelo zomthumeli wangokwezifiso kumafomu wokuxhumana womhlaba jikelele.</t>
+    <t>Sebenzisa izilungiselelo zomthumeli ngokwezifiso zamafomu okuxhumana omhlaba.</t>
   </si>
   <si>
     <t>By default we will use website system e-mail settings.</t>
   </si>
   <si>
-    <t>Ngokuzenzakalelayo sizosebenzisa izilungiselelo ze-imeyili zohlelo lwewebhusayithi.</t>
+    <t>Ngokuzenzakalelayo sizosebenzisa izilungiselelo ze-imeyili zesistimu yewebhusayithi.</t>
   </si>
   <si>
     <t>You can change the system e-mail settings here.</t>
   </si>
   <si>
-    <t>Ungashintsha amasethingi e-imeyili ohlelo lapha.</t>
+    <t>Ungashintsha izilungiselelo ze-imeyili zesistimu lapha.</t>
   </si>
   <si>
     <t>Global Receivers</t>
   </si>
   <si>
-    <t>Abamukeli Bomhlaba Wonke</t>
+    <t>Abamukeli bomhlaba wonke</t>
   </si>
   <si>
     <t>Send contact forms data to global receivers when is submited</t>
   </si>
   <si>
-    <t>Thumela idatha yamafomu wokuxhumana kubamukeli bomhlaba wonke lapho ithunyelwa</t>
+    <t>Thumela idatha yamafomu okuxhumana kubamukeli bomhlaba wonke lapho ithunyelwa</t>
   </si>
   <si>
     <t>To e-mail addresses</t>
   </si>
   <si>
-    <t>Ukuze amakheli e-imeyili</t>
+    <t>Kumakheli e-imeyili</t>
   </si>
   <si>
     <t>E-mail address of the receivers seperated with coma.</t>
   </si>
   <si>
-    <t>Ikheli le-imeyili labemukeli abahlukaniswe ngekhoma.</t>
+    <t>Ikheli le-imeyili labamukeli lihlukaniswe ne-coma.</t>
   </si>
   <si>
     <t>Contact your hosting provider to enable PHP SOAP extension.</t>
   </si>
   <si>
-    <t>Xhumana nomhlinzeki wakho wokubamba ukuze unike amandla isandiso se-PHP SOAP.</t>
+    <t>Xhumana nomhlinzeki wakho wokusingatha ukuze unike amandla isandiso se-PHP SOAP.</t>
   </si>
   <si>
     <t>Elements</t>
@@ -17622,7 +17625,7 @@
     <t>Remove favicon</t>
   </si>
   <si>
-    <t>Susa i-favicon</t>
+    <t>Susa isithombe-sithombe-skrini</t>
   </si>
   <si>
     <t>Custom</t>
@@ -17643,6 +17646,9 @@
     <t>ProductsV2</t>
   </si>
   <si>
+    <t>ImikhiqizoV2</t>
+  </si>
+  <si>
     <t>Timeline</t>
   </si>
   <si>
@@ -17652,7 +17658,7 @@
     <t>White label WHMCS</t>
   </si>
   <si>
-    <t>Ilebula elimhlophe i-WHMCS</t>
+    <t>Ilebula elimhlophe elithi WHMCS</t>
   </si>
   <si>
     <t>Number of the visible testimonials</t>
@@ -17661,13 +17667,13 @@
     <t>Module template has changed</t>
   </si>
   <si>
-    <t>Isifanekiso semodyuli sishintshile</t>
+    <t>Isifanekiso semojuli sishintshile</t>
   </si>
   <si>
     <t>Content versions</t>
   </si>
   <si>
-    <t>Izinhlobo zokuqukethwe</t>
+    <t>Izinguqulo zokuqukethwe</t>
   </si>
   <si>
     <t>Clear Cache</t>
@@ -17682,7 +17688,7 @@
     <t>Arrows List</t>
   </si>
   <si>
-    <t>Uhlu lwemicibisholo</t>
+    <t>Uhlu Lwemicibisholo</t>
   </si>
   <si>
     <t>Checked List</t>
@@ -17694,7 +17700,7 @@
     <t>Background Text</t>
   </si>
   <si>
-    <t>Umbhalo ongemuva</t>
+    <t>Umbhalo Osemuva</t>
   </si>
   <si>
     <t>Title with Text</t>
@@ -17712,13 +17718,13 @@
     <t>Two Text Columns</t>
   </si>
   <si>
-    <t>Amakholomu Umbhalo Amabili</t>
+    <t>Amakholomu Ombhalo Amabili</t>
   </si>
   <si>
     <t>Two text columns with icon and title</t>
   </si>
   <si>
-    <t>Amakholomu wombhalo amabili anesithonjana nesihloko</t>
+    <t>Amakholomu ombhalo amabili anesithonjana nesihloko</t>
   </si>
   <si>
     <t>Image with Title and Text</t>
@@ -17751,12 +17757,15 @@
     <t xml:space="preserve">Setup your captcha preferences from </t>
   </si>
   <si>
-    <t xml:space="preserve">Setha okuncamelayo kwe-captcha kusuka ku- </t>
+    <t xml:space="preserve">Setha okuncamelayo kwakho kwe-captcha kusuka </t>
   </si>
   <si>
     <t>Add / Edit fields of the form using the custom fields</t>
   </si>
   <si>
+    <t>Engeza / Hlela izinkambu zefomu usebenzisa izinkambu zangokwezifiso</t>
+  </si>
+  <si>
     <t>Current contact form settings</t>
   </si>
   <si>
@@ -17772,7 +17781,7 @@
     <t>What is the name of this contact form?</t>
   </si>
   <si>
-    <t>Yini igama laleli fomu lokuxhumana?</t>
+    <t>Lithini igama laleli fomu lokuxhumana?</t>
   </si>
   <si>
     <t>Receivers</t>
@@ -17784,111 +17793,117 @@
     <t>Send contact form data to custom receivers when is submited</t>
   </si>
   <si>
-    <t>Thumela idatha yefomu lokuxhumana kubamukeli abangokwezifiso lapho ifakwa</t>
+    <t>Thumela idatha yefomu lokuxhumana kubamukeli bangokwezifiso lapho ithunyelwa</t>
   </si>
   <si>
     <t>Use custom receivers settings for the current contact form.</t>
   </si>
   <si>
-    <t>Sebenzisa izilungiselelo zabamukeli ngokwezifiso zefomu lokuxhumana lamanje.</t>
+    <t>Sebenzisa izilungiselelo zezamukeli zangokwezifiso zefomu lokuxhumana lamanje.</t>
   </si>
   <si>
     <t>By default we will use contact form global settings.</t>
   </si>
   <si>
-    <t>Ngokuzenzakalelayo sizosebenzisa izilungiselelo zomhlaba jikelele zokuxhumana.</t>
+    <t>Ngokuzenzakalelayo sizosebenzisa izilungiselelo zomhlaba jikelele zefomu lokuxhumana.</t>
   </si>
   <si>
     <t>You can change the contact form global settings here.</t>
   </si>
   <si>
-    <t>Ungashintsha amasethingi wefomu lokuxhumana lapha.</t>
+    <t>Ungashintsha izilungiselelo zomhlaba jikelele zefomu lokuxhumana lapha.</t>
   </si>
   <si>
     <t>Auto respond message to user</t>
   </si>
   <si>
-    <t>Phendula umyalezo ngokuzenzakalela kumsebenzisi</t>
+    <t>Phendula ngokuzenzakalelayo umlayezo kumsebenzisi</t>
   </si>
   <si>
     <t>Enable auto respond message to user</t>
   </si>
   <si>
-    <t>Nika amandla umlayezo wokuphendula ngokuzenzakalela kumsebenzisi</t>
+    <t>Nika amandla umlayezo wokuphendula ngokuzenzakalelayo kumsebenzisi</t>
   </si>
   <si>
     <t>Allow users to receive "Thank you emails after subscription."</t>
   </si>
   <si>
-    <t>Vumela abasebenzisi ukuthi bathole "Ngiyabonga ama-imeyili ngemuva kokubhalisile."</t>
+    <t>Vumela abasebenzisi ukuthi bathole "Siyabonga ama-imeyili ngemva kokubhalisa."</t>
   </si>
   <si>
     <t>Auto respond subject</t>
   </si>
   <si>
-    <t>Isihloko sokuphendula ngokuzenzakalela</t>
+    <t>Isihloko sokuphendula ngokuzenzakalelayo</t>
   </si>
   <si>
     <t>Auto responders allows you to set up automated replies to incoming email</t>
   </si>
   <si>
+    <t>Izimpendulo ezizenzakalelayo zikuvumela ukuthi usethe izimpendulo ezizenzakalelayo kuma-imeyili angenayo</t>
+  </si>
+  <si>
     <t>Auto respond message</t>
   </si>
   <si>
-    <t>Phendula ngokuzenzakalela umlayezo</t>
+    <t>Phendula ngokuzenzakalelayo umlayezo</t>
   </si>
   <si>
     <t>Auto respond e-mail sent back to the user</t>
   </si>
   <si>
-    <t>Phendula ngokuzenzakalela i-imeyili ebuyiselwe kumsebenzisi</t>
+    <t>I-imeyili ephendula ngokuzenzakalelayo ibuyiselwe kumsebenzisi</t>
   </si>
   <si>
     <t>Auto respond custom sender</t>
   </si>
   <si>
-    <t>Phendula ngokuzenzakalela umthumeli</t>
+    <t>Phendula ngokuzenzakalelayo umthumeli ngokwezifiso</t>
   </si>
   <si>
     <t>Use custom sender settings for the current contact form.</t>
   </si>
   <si>
-    <t>Sebenzisa izilungiselelo zomthumeli wangokwezifiso zefomu lokuxhumana lamanje.</t>
+    <t>Sebenzisa izilungiselelo zomthumeli ngokwezifiso zefomu lokuxhumana lamanje.</t>
   </si>
   <si>
     <t>Auto respond from e-mail address</t>
   </si>
   <si>
-    <t>Phendula ngokuzenzakalela kukheli le-imeyili</t>
+    <t>Phendula ngokuzenzakalelayo ngekheli le-imeyili</t>
   </si>
   <si>
     <t>Auto respond from name</t>
   </si>
   <si>
-    <t>Phendula ngokuzenzakalela kusuka egameni</t>
+    <t>Phendula ngokuzenzakalelayo egameni</t>
   </si>
   <si>
     <t>Auto respond reply to e-mail</t>
   </si>
   <si>
-    <t>Phendula ngokuzenzakalela impendulo ku-imeyili</t>
+    <t>Phendula ngokuzenzakalelayo ku-imeyili</t>
   </si>
   <si>
     <t>When the user receive the auto respond message they can response back to reply to email.</t>
   </si>
   <si>
-    <t>Lapho umsebenzisi ethola umyalezo wokuphendula ngokuzenzakalela angaphendula abuye aphendule ku-imeyili.</t>
+    <t>Lapho umsebenzisi ethola umlayezo ozenzakalelayo wokuphendula angaphendula ukuze aphendule i-imeyili.</t>
   </si>
   <si>
     <t>Auto respond e-mail attachments</t>
   </si>
   <si>
-    <t>Phendula ngokuzenzakalela okunamathiselwe kwe-imeyili</t>
+    <t>Phendula ngokuzenzakalelayo okunamathiselwe kwi-imeyili</t>
   </si>
   <si>
     <t>If you want to attach og images, you must upload them to gallery from 'Add media'</t>
   </si>
   <si>
+    <t>Uma ufuna ukunamathisela izithombe ze-og, kufanele uzilayishe kugalari ukusuka ku-'Engeza imidiya'</t>
+  </si>
+  <si>
     <t>You don’t have any posts yet</t>
   </si>
   <si>
@@ -17898,13 +17913,13 @@
     <t>Create your first post right now.</t>
   </si>
   <si>
-    <t>Dala okuthunyelwe kwakho kokuqala njengamanje.</t>
+    <t>Dala okuthunyelwe kwakho kokuqala manje.</t>
   </si>
   <si>
     <t>Create a Post</t>
   </si>
   <si>
-    <t>Dala okuthunyelwe</t>
+    <t>Dala Okuthunyelwe</t>
   </si>
   <si>
     <t>templates-new-world</t>
@@ -17918,12 +17933,12 @@
                                                             limit each one to 5-8 words.</t>
   </si>
   <si>
-    <t>Ungazibhala kanjani izincazelo zomkhiqizo ezithengisa
-                                                    Enye yezinto ezinhle kakhulu ongayenza ukwenza isitolo sakho siphumelele ukutshala isikhathi esithile ngokubhala izincazelo ezinhle zomkhiqizo. Ufuna ukuhlinzeka ngemininingwane enemininingwane efingqiwe ezodonsa abathengi abangase babe khona ukuthi bathenge.
+    <t>Uzibhala kanjani izincazelo zomkhiqizo ezithengisa
+                                                    Enye yezinto ezinhle kakhulu ongayenza ukuze wenze isitolo sakho siphumelele ukutshala isikhathi esithile ekubhaleni izincazelo ezinhle zomkhiqizo. Ufuna ukunikeza ulwazi oluningiliziwe kodwa olufushane oluzoyenga abangaba amakhasimende ukuthi athenge.
                                                     Cabanga njengomthengi
-                                                    Cabanga ngalokho wena njengomthengi ongathanda ukukwazi, bese ufaka lezo zici encazelweni yakho. Okwezingubo: okokusebenza nokulingana. Okokudla: izithako nokuthi kwakulungiswa kanjani. Izinhlamvu zingabangani bakho uma ufaka kuhlu izici ze-
-                                                   - zama
-                                                            ukhawulele igama ngalinye kumagama angu-5-8.</t>
+                                                    Cabanga ngalokho wena njengomthengi ongathanda ukukwazi, bese ufaka lezo zici encazelweni yakho. Ukuze izingubo: materials kanye kufanelekile. Okokudla: izithako nokuthi kuphekwe kanjani. Amachashazi angabangani bakho uma ufaka kuhlu
+                                                   izici — zama
+                                                            ukukhawulela igama ngalinye libe ngu-5-8.</t>
   </si>
   <si>
     <t>Admin language</t>
@@ -17932,358 +17947,274 @@
     <t>Ulimi lomlawuli</t>
   </si>
   <si>
+    <t>Add post</t>
+  </si>
+  <si>
+    <t>Engeza okuthunyelwe</t>
+  </si>
+  <si>
+    <t>Add subpage</t>
+  </si>
+  <si>
+    <t>Engeza ikhasi elincane</t>
+  </si>
+  <si>
+    <t>Category deleted</t>
+  </si>
+  <si>
+    <t>Isigaba sisusiwe</t>
+  </si>
+  <si>
+    <t>Content deleted</t>
+  </si>
+  <si>
+    <t>Okuqukethwe kususiwe</t>
+  </si>
+  <si>
+    <t>Search categories</t>
+  </si>
+  <si>
+    <t>Sesha izigaba</t>
+  </si>
+  <si>
+    <t>Create content</t>
+  </si>
+  <si>
+    <t>Dala okuqukethwe</t>
+  </si>
+  <si>
+    <t>Card</t>
+  </si>
+  <si>
+    <t>Ikhadi</t>
+  </si>
+  <si>
+    <t>Any</t>
+  </si>
+  <si>
+    <t>Noma yikuphi</t>
+  </si>
+  <si>
+    <t>Id Desc</t>
+  </si>
+  <si>
+    <t>Id Asc</t>
+  </si>
+  <si>
     <t>Limit</t>
   </si>
   <si>
     <t>Umkhawulo</t>
   </si>
   <si>
+    <t>Are you sure want to delete?</t>
+  </si>
+  <si>
+    <t>You don’t have any products in</t>
+  </si>
+  <si>
+    <t>Awunayo imikhiqizo ngaphakathi</t>
+  </si>
+  <si>
+    <t>Back to</t>
+  </si>
+  <si>
+    <t>Emuva ku</t>
+  </si>
+  <si>
+    <t>categories</t>
+  </si>
+  <si>
+    <t>izigaba</t>
+  </si>
+  <si>
+    <t>Custom fields are saved</t>
+  </si>
+  <si>
+    <t>Izinkambu ngokwezifiso zilondoloziwe</t>
+  </si>
+  <si>
+    <t>Existing fields</t>
+  </si>
+  <si>
+    <t>Izinkambu ezikhona</t>
+  </si>
+  <si>
+    <t>Choose from your existing fields bellow</t>
+  </si>
+  <si>
+    <t>Khetha kuzinkambu zakho ezikhona ngezansi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Add new fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Engeza izinkambu ezintsha</t>
+  </si>
+  <si>
+    <t>Add new custom field from list bellow</t>
+  </si>
+  <si>
+    <t>Engeza inkambu entsha yangokwezifiso ohlwini olungezansi</t>
+  </si>
+  <si>
+    <t>Your fields</t>
+  </si>
+  <si>
+    <t>Izinkambu zakho</t>
+  </si>
+  <si>
+    <t>List of your added custom fields</t>
+  </si>
+  <si>
+    <t>Uhlu lwezinkambu zakho zangokwezifiso ezingeziwe</t>
+  </si>
+  <si>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t>Isitoko</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>Uhlelo</t>
+  </si>
+  <si>
+    <t>Blog</t>
+  </si>
+  <si>
+    <t>Ibhulogi</t>
+  </si>
+  <si>
+    <t>Browser Redirect</t>
+  </si>
+  <si>
+    <t>Ukuqondisa Kabusha Isiphequluli</t>
+  </si>
+  <si>
+    <t>Integration</t>
+  </si>
+  <si>
+    <t>Ukuhlanganisa</t>
+  </si>
+  <si>
+    <t>Import Export Tool</t>
+  </si>
+  <si>
+    <t>Ngenisa Ithuluzi Lokuthekelisa</t>
+  </si>
+  <si>
+    <t>Standalone Updater</t>
+  </si>
+  <si>
+    <t>I-Standalone Updater</t>
+  </si>
+  <si>
+    <t>Preview package</t>
+  </si>
+  <si>
+    <t>Buka kuqala iphakheji</t>
+  </si>
+  <si>
+    <t>Demo</t>
+  </si>
+  <si>
+    <t>Idemo</t>
+  </si>
+  <si>
+    <t>Use</t>
+  </si>
+  <si>
+    <t>Sebenzisa</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Okwamanje</t>
+  </si>
+  <si>
+    <t>Express</t>
+  </si>
+  <si>
+    <t>First Class</t>
+  </si>
+  <si>
+    <t>Ikilasi Lokuqala</t>
+  </si>
+  <si>
+    <t>Click &amp; Collect</t>
+  </si>
+  <si>
+    <t>Chofoza &amp; Qoqa</t>
+  </si>
+  <si>
+    <t>Video Background</t>
+  </si>
+  <si>
+    <t>Ingemuva levidiyo</t>
+  </si>
+  <si>
+    <t>Multi-Language</t>
+  </si>
+  <si>
+    <t>Izilimi Eziningi</t>
+  </si>
+  <si>
+    <t>You can activate the Multi-language module to use multiple languages</t>
+  </si>
+  <si>
+    <t>Ungakwazi ukusebenzisa imojula Yezilimi Eziningi ukuze usebenzise izilimi eziningi</t>
+  </si>
+  <si>
+    <t>Multi language mode</t>
+  </si>
+  <si>
+    <t>Imodi yolimi oluningi</t>
+  </si>
+  <si>
+    <t>Activate the multi-language mode to have multiple languages for your content.</t>
+  </si>
+  <si>
+    <t>Yenza kusebenze imodi yezilimi eziningi ukuze ube nezilimi eziningi zokuqukethwe kwakho.</t>
+  </si>
+  <si>
+    <t>Translations are imported</t>
+  </si>
+  <si>
+    <t>Izinguqulo zingenisiwe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translations not found in database. Do you wish to import translations? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ukuhumusha akutholakali kusizindalwazi. Uyafisa ukungenisa ukuhumusha? </t>
+  </si>
+  <si>
+    <t>Your cart is empty.</t>
+  </si>
+  <si>
+    <t>Inqola yakho ayinalutho.</t>
+  </si>
+  <si>
     <t>Code Editor</t>
   </si>
   <si>
     <t>Umhleli Wekhodi</t>
   </si>
   <si>
-    <t>Blog</t>
-  </si>
-  <si>
-    <t>Ibhulogi</t>
-  </si>
-  <si>
-    <t>titles</t>
-  </si>
-  <si>
-    <t>izihloko</t>
-  </si>
-  <si>
-    <t>Titles 1</t>
-  </si>
-  <si>
-    <t>Izihloko 1</t>
-  </si>
-  <si>
-    <t>Titles 2</t>
-  </si>
-  <si>
-    <t>Izihloko 2</t>
-  </si>
-  <si>
-    <t>Titles 3</t>
-  </si>
-  <si>
-    <t>Izihloko 3</t>
-  </si>
-  <si>
-    <t>Titles 4</t>
-  </si>
-  <si>
-    <t>Izihloko 4</t>
-  </si>
-  <si>
-    <t>Titles 5</t>
-  </si>
-  <si>
-    <t>Izihloko 5</t>
-  </si>
-  <si>
-    <t>Titles 6</t>
-  </si>
-  <si>
-    <t>Izihloko 6</t>
-  </si>
-  <si>
-    <t>Titles 7</t>
-  </si>
-  <si>
-    <t>Izihloko 7</t>
-  </si>
-  <si>
-    <t>Titles 8</t>
-  </si>
-  <si>
-    <t>Izihloko 8</t>
-  </si>
-  <si>
-    <t>text block</t>
-  </si>
-  <si>
-    <t>ibhulokhi yombhalo</t>
-  </si>
-  <si>
-    <t>Text block 1</t>
-  </si>
-  <si>
-    <t>Ibhulokhi yombhalo 1</t>
-  </si>
-  <si>
-    <t>Text block 2</t>
-  </si>
-  <si>
-    <t>Ibhulokhi yombhalo 2</t>
-  </si>
-  <si>
-    <t>Text block 3</t>
-  </si>
-  <si>
-    <t>Ibhulokhi yombhalo 3</t>
-  </si>
-  <si>
-    <t>Text block 4</t>
-  </si>
-  <si>
-    <t>Ibhulokhi yombhalo 4</t>
-  </si>
-  <si>
-    <t>Text block 5</t>
-  </si>
-  <si>
-    <t>Ibhulokhi yombhalo 5</t>
-  </si>
-  <si>
-    <t>Text block 6</t>
-  </si>
-  <si>
-    <t>Ibhulokhi yombhalo 6</t>
-  </si>
-  <si>
-    <t>Text block 7</t>
-  </si>
-  <si>
-    <t>Ibhulokhi yombhalo 7</t>
-  </si>
-  <si>
-    <t>Text block 8</t>
-  </si>
-  <si>
-    <t>Ibhulokhi yombhalo 8</t>
-  </si>
-  <si>
-    <t>Text block 9</t>
-  </si>
-  <si>
-    <t>Ibhulokhi yombhalo 9</t>
-  </si>
-  <si>
-    <t>Text block 10</t>
-  </si>
-  <si>
-    <t>Ibhulokhi yombhalo 10</t>
-  </si>
-  <si>
-    <t>Text block 11</t>
-  </si>
-  <si>
-    <t>Ibhulokhi yombhalo 11</t>
-  </si>
-  <si>
-    <t>Text block 12</t>
-  </si>
-  <si>
-    <t>Umbhalo block 12</t>
-  </si>
-  <si>
-    <t>Text block 13</t>
-  </si>
-  <si>
-    <t>Umbhalo block 13</t>
-  </si>
-  <si>
-    <t>Text block 14</t>
-  </si>
-  <si>
-    <t>Ibhulokhi yombhalo 14</t>
-  </si>
-  <si>
-    <t>Text block 15</t>
-  </si>
-  <si>
-    <t>Ibhulokhi yombhalo 15</t>
-  </si>
-  <si>
-    <t>features</t>
-  </si>
-  <si>
-    <t>izici</t>
-  </si>
-  <si>
-    <t>Features 1</t>
-  </si>
-  <si>
-    <t>Izici 1</t>
-  </si>
-  <si>
-    <t>Features 2</t>
-  </si>
-  <si>
-    <t>Izici 2</t>
-  </si>
-  <si>
-    <t>Features 3</t>
-  </si>
-  <si>
-    <t>Izici 3</t>
-  </si>
-  <si>
-    <t>Features 4</t>
-  </si>
-  <si>
-    <t>Izici 4</t>
-  </si>
-  <si>
-    <t>grids</t>
-  </si>
-  <si>
-    <t>amagridi</t>
-  </si>
-  <si>
-    <t>menu</t>
-  </si>
-  <si>
-    <t>imenyu</t>
-  </si>
-  <si>
-    <t>Menu - skin-1</t>
-  </si>
-  <si>
-    <t>Imenyu - isikhumba-1</t>
-  </si>
-  <si>
-    <t>Menu - skin-2</t>
-  </si>
-  <si>
-    <t>Imenyu - isikhumba-2</t>
-  </si>
-  <si>
-    <t>Menu - skin-3</t>
-  </si>
-  <si>
-    <t>Imenyu - isikhumba-3</t>
-  </si>
-  <si>
-    <t>Menu - skin-4</t>
-  </si>
-  <si>
-    <t>Imenyu - isikhumba-4</t>
-  </si>
-  <si>
-    <t>Menu - skin-5</t>
-  </si>
-  <si>
-    <t>Imenyu - isikhumba-5</t>
-  </si>
-  <si>
-    <t>footers</t>
-  </si>
-  <si>
-    <t>amanyaweni</t>
-  </si>
-  <si>
-    <t>Footers 1</t>
-  </si>
-  <si>
-    <t>Okwasezansi 1</t>
-  </si>
-  <si>
-    <t>Footers 2</t>
-  </si>
-  <si>
-    <t>Osezansi 2</t>
-  </si>
-  <si>
-    <t>Footers 3</t>
-  </si>
-  <si>
-    <t>Osezansi 3</t>
-  </si>
-  <si>
-    <t>Footers 4</t>
-  </si>
-  <si>
-    <t>Okwasezansi 4</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>okunye</t>
-  </si>
-  <si>
-    <t>jumbotron</t>
-  </si>
-  <si>
-    <t>i-jumbotron</t>
-  </si>
-  <si>
-    <t>Jumbotron 1</t>
-  </si>
-  <si>
-    <t>I-Jumbotron 1</t>
-  </si>
-  <si>
-    <t>pricing</t>
-  </si>
-  <si>
-    <t>amanani entengo</t>
-  </si>
-  <si>
-    <t>Pricing 1</t>
-  </si>
-  <si>
-    <t>Intengo 1</t>
-  </si>
-  <si>
     <t>Default layouts</t>
   </si>
   <si>
     <t>Izakhiwo ezizenzakalelayo</t>
   </si>
   <si>
-    <t>No Content Here</t>
-  </si>
-  <si>
-    <t>Akukho Okuqukethwe Lapha</t>
-  </si>
-  <si>
-    <t>Custom fields are saved</t>
-  </si>
-  <si>
-    <t>Izinkambu ngokwezifiso zilondoloziwe</t>
-  </si>
-  <si>
-    <t>Existing fields</t>
-  </si>
-  <si>
-    <t>Izinkambu ezikhona</t>
-  </si>
-  <si>
-    <t>Choose from your existing fields bellow</t>
-  </si>
-  <si>
-    <t>Khetha kuzinkambu zakho ezikhona ngezansi</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Add new fields</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Engeza izinkambu ezintsha</t>
-  </si>
-  <si>
-    <t>Add new custom field from list bellow</t>
-  </si>
-  <si>
-    <t>Engeza inkambu entsha yangokwezifiso ohlwini olungezansi</t>
-  </si>
-  <si>
-    <t>Your fields</t>
-  </si>
-  <si>
-    <t>Izinkambu zakho</t>
-  </si>
-  <si>
-    <t>List of your added custom fields</t>
-  </si>
-  <si>
-    <t>Uhlu lwezinkambu zakho zangokwezifiso ezingeziwe</t>
+    <t>New import</t>
+  </si>
+  <si>
+    <t>Ukungenisa okusha</t>
   </si>
   <si>
     <t xml:space="preserve">repeat vertically </t>
@@ -18329,510 +18260,6 @@
   </si>
   <si>
     <t>Ilayisha kabusha izitayela</t>
-  </si>
-  <si>
-    <t>Links to</t>
-  </si>
-  <si>
-    <t>Izixhumanisi ze</t>
-  </si>
-  <si>
-    <t>Preview package</t>
-  </si>
-  <si>
-    <t>Buka kuqala iphakheji</t>
-  </si>
-  <si>
-    <t>Demo</t>
-  </si>
-  <si>
-    <t>Idemo</t>
-  </si>
-  <si>
-    <t>Use</t>
-  </si>
-  <si>
-    <t>Sebenzisa</t>
-  </si>
-  <si>
-    <t>Current</t>
-  </si>
-  <si>
-    <t>Okwamanje</t>
-  </si>
-  <si>
-    <t>Reorder</t>
-  </si>
-  <si>
-    <t>Hlela kabusha</t>
-  </si>
-  <si>
-    <t>System</t>
-  </si>
-  <si>
-    <t>Uhlelo</t>
-  </si>
-  <si>
-    <t>Browser Redirect</t>
-  </si>
-  <si>
-    <t>Ukuqondisa Kabusha Isiphequluli</t>
-  </si>
-  <si>
-    <t>Integration</t>
-  </si>
-  <si>
-    <t>Ukuhlanganisa</t>
-  </si>
-  <si>
-    <t>Standalone Updater</t>
-  </si>
-  <si>
-    <t>I-Standalone Updater</t>
-  </si>
-  <si>
-    <t>You need license key to install this package</t>
-  </si>
-  <si>
-    <t>Udinga ukhiye welayisensi ukuze ufake le phakheji</t>
-  </si>
-  <si>
-    <t>This package is premium and you must have a license key to install it</t>
-  </si>
-  <si>
-    <t>Le phakheji iyi-premium futhi kufanele ube nokhiye welayisensi ukuze uyifake</t>
-  </si>
-  <si>
-    <t>You need license key</t>
-  </si>
-  <si>
-    <t>Udinga ukhiye welayisensi</t>
-  </si>
-  <si>
-    <t>License activated</t>
-  </si>
-  <si>
-    <t>Ilayisensi yenziwe yasebenza</t>
-  </si>
-  <si>
-    <t>Reloading page</t>
-  </si>
-  <si>
-    <t>Ilayisha kabusha ikhasi</t>
-  </si>
-  <si>
-    <t>License not activated</t>
-  </si>
-  <si>
-    <t>Ilayisensi ayenziwanga isebenze</t>
-  </si>
-  <si>
-    <t>Url</t>
-  </si>
-  <si>
-    <t>I-Url</t>
-  </si>
-  <si>
-    <t>System updates</t>
-  </si>
-  <si>
-    <t>Izibuyekezo zesistimu</t>
-  </si>
-  <si>
-    <t>Check for system updates</t>
-  </si>
-  <si>
-    <t>Hlola izibuyekezo zesistimu</t>
-  </si>
-  <si>
-    <t>Back to list</t>
-  </si>
-  <si>
-    <t>Buyela ohlwini</t>
-  </si>
-  <si>
-    <t>The category must have a name</t>
-  </si>
-  <si>
-    <t>Isigaba kufanele sibe negama</t>
-  </si>
-  <si>
-    <t>Is category hidden?</t>
-  </si>
-  <si>
-    <t>Ingabe isigaba sifihliwe?</t>
-  </si>
-  <si>
-    <t>If you set this to YES this category will be hidden from the website</t>
-  </si>
-  <si>
-    <t>Uma usetha lokhu kuthi YEBO lesi sigaba sizofihlwa kuwebhusayithi</t>
-  </si>
-  <si>
-    <t>template-big</t>
-  </si>
-  <si>
-    <t>Mentioning</t>
-  </si>
-  <si>
-    <t>Ukubalula</t>
-  </si>
-  <si>
-    <t>Your cart is empty.</t>
-  </si>
-  <si>
-    <t>Inqola yakho ayinalutho.</t>
-  </si>
-  <si>
-    <t>Results found</t>
-  </si>
-  <si>
-    <t>Imiphumela itholakele</t>
-  </si>
-  <si>
-    <t>If you choose the Percent from the select field, it will be calculated automatically from the Price and Offer price of the product.</t>
-  </si>
-  <si>
-    <t>Uma ukhetha Iphesenti kunkambu ekhethiwe, lizobalwa ngokuzenzakalelayo ukusuka Enanini Nenani Lokunikezwa lomkhiqizo.</t>
-  </si>
-  <si>
-    <t>أضف منتج</t>
-  </si>
-  <si>
-    <t>validation</t>
-  </si>
-  <si>
-    <t>custom.multilanguage.title.en_US.required</t>
-  </si>
-  <si>
-    <t>values.multilanguage.title.en_US.</t>
-  </si>
-  <si>
-    <t>تحرير المنتج</t>
-  </si>
-  <si>
-    <t>iuiuui</t>
-  </si>
-  <si>
-    <t>iwuui</t>
-  </si>
-  <si>
-    <t>Proceed to Checkout</t>
-  </si>
-  <si>
-    <t>Qhubeka uthenge</t>
-  </si>
-  <si>
-    <t>تحرير آخر</t>
-  </si>
-  <si>
-    <t>Displaying</t>
-  </si>
-  <si>
-    <t>Iyabonisa</t>
-  </si>
-  <si>
-    <t>of</t>
-  </si>
-  <si>
-    <t>kwe</t>
-  </si>
-  <si>
-    <t>result(s)</t>
-  </si>
-  <si>
-    <t>imiphumela</t>
-  </si>
-  <si>
-    <t>Page Title - Right Breadcrumb</t>
-  </si>
-  <si>
-    <t>Isihloko Sekhasi - Isinkwa Sesokudla</t>
-  </si>
-  <si>
-    <t>Page Title - Left Breadcrumb</t>
-  </si>
-  <si>
-    <t>Isihloko Sekhasi - Isinkwa Sesokunxele</t>
-  </si>
-  <si>
-    <t>Terms of use</t>
-  </si>
-  <si>
-    <t>Imigomo Yokusebenzisa</t>
-  </si>
-  <si>
-    <t>Delivery and returns</t>
-  </si>
-  <si>
-    <t>Ukulethwa nokubuyisela</t>
-  </si>
-  <si>
-    <t>Shipping information</t>
-  </si>
-  <si>
-    <t>Ulwazi lokuthumela</t>
-  </si>
-  <si>
-    <t>About 1</t>
-  </si>
-  <si>
-    <t>Cishe u-1</t>
-  </si>
-  <si>
-    <t>About 2</t>
-  </si>
-  <si>
-    <t>Cishe u-2</t>
-  </si>
-  <si>
-    <t>About 3</t>
-  </si>
-  <si>
-    <t>Cishe u-3</t>
-  </si>
-  <si>
-    <t>Home 1</t>
-  </si>
-  <si>
-    <t>Ikhaya 1</t>
-  </si>
-  <si>
-    <t>Home 2</t>
-  </si>
-  <si>
-    <t>Ikhaya 2</t>
-  </si>
-  <si>
-    <t>You must click the apply template button to change your template</t>
-  </si>
-  <si>
-    <t>Kufanele uchofoze inkinobho yesifanekiso sokusebenza ukuze ushintshe isifanekiso sakho</t>
-  </si>
-  <si>
-    <t>Search by criteria</t>
-  </si>
-  <si>
-    <t>Sesha ngemibandela</t>
-  </si>
-  <si>
-    <t>Order ID</t>
-  </si>
-  <si>
-    <t>Date from</t>
-  </si>
-  <si>
-    <t>Idethi kusuka</t>
-  </si>
-  <si>
-    <t>Set the orders from date</t>
-  </si>
-  <si>
-    <t>Setha ama-oda kusuka kudethi</t>
-  </si>
-  <si>
-    <t>Date to</t>
-  </si>
-  <si>
-    <t>Idethi eya kuyo</t>
-  </si>
-  <si>
-    <t>Set the orders to date</t>
-  </si>
-  <si>
-    <t>Setha ama-oda abe yimanje</t>
-  </si>
-  <si>
-    <t>Order amount from</t>
-  </si>
-  <si>
-    <t>Oda inani kusuka</t>
-  </si>
-  <si>
-    <t>Show the order with minimum amount</t>
-  </si>
-  <si>
-    <t>Bonisa i-oda elinenani elincane</t>
-  </si>
-  <si>
-    <t>Order amount to</t>
-  </si>
-  <si>
-    <t>Oda inani lokuthi</t>
-  </si>
-  <si>
-    <t>Show the order with maximum amount</t>
-  </si>
-  <si>
-    <t>Bonisa i-oda ngenani eliphezulu</t>
-  </si>
-  <si>
-    <t>Search by products...</t>
-  </si>
-  <si>
-    <t>Sesha ngemikhiqizo...</t>
-  </si>
-  <si>
-    <t>Search by products</t>
-  </si>
-  <si>
-    <t>Sesha ngemikhiqizo</t>
-  </si>
-  <si>
-    <t>Payment Status</t>
-  </si>
-  <si>
-    <t>Isimo Sokukhokha</t>
-  </si>
-  <si>
-    <t>Free search by phone, name, email etc...</t>
-  </si>
-  <si>
-    <t>Ukusesha kwamahhala ngefoni, igama, i-imeyili njll...</t>
-  </si>
-  <si>
-    <t>Submit this criteria</t>
-  </si>
-  <si>
-    <t>Thumela le mibandela</t>
-  </si>
-  <si>
-    <t>Reset filter</t>
-  </si>
-  <si>
-    <t>Setha kabusha isihlungi</t>
-  </si>
-  <si>
-    <t>Export all</t>
-  </si>
-  <si>
-    <t>Khipha konke</t>
-  </si>
-  <si>
-    <t>Select sorting</t>
-  </si>
-  <si>
-    <t>Khetha ukuhlunga</t>
-  </si>
-  <si>
-    <t>Order date</t>
-  </si>
-  <si>
-    <t>Idethi yoku-oda</t>
-  </si>
-  <si>
-    <t>[New &gt; Old]</t>
-  </si>
-  <si>
-    <t>[Okusha &gt; Okudala]</t>
-  </si>
-  <si>
-    <t>[Old &gt; New]</t>
-  </si>
-  <si>
-    <t>[Okudala &gt; Okusha]</t>
-  </si>
-  <si>
-    <t>[High &gt; Low]</t>
-  </si>
-  <si>
-    <t>[Phezulu &gt; Phansi]</t>
-  </si>
-  <si>
-    <t>[Low &gt; High]</t>
-  </si>
-  <si>
-    <t>[Phansi &gt; Phezulu]</t>
-  </si>
-  <si>
-    <t>Order completed</t>
-  </si>
-  <si>
-    <t>I-oda liqediwe</t>
-  </si>
-  <si>
-    <t>translations from the multilnaguage module have been found in your database.</t>
-  </si>
-  <si>
-    <t>ukuhumushwa okuvela kumojula yezilimi eziningi kutholwe kusizindalwazi sakho.</t>
-  </si>
-  <si>
-    <t>Warning! Changing the default language can break translations on your site.</t>
-  </si>
-  <si>
-    <t>Isexwayiso! Ukushintsha ulimi olumisiwe kungaphula ukuhumusha kusayithi lakho.</t>
-  </si>
-  <si>
-    <t>Are you sure want to continue?</t>
-  </si>
-  <si>
-    <t>Uqinisekile ukuthi ufuna ukuqhubeka?</t>
-  </si>
-  <si>
-    <t>Warning! The changing default language maybe will break your site.</t>
-  </si>
-  <si>
-    <t>Isexwayiso! Ukushintsha ulimi oluzenzakalelayo mhlawumbe kuzophula isayithi lakho.</t>
-  </si>
-  <si>
-    <t>Shipping details</t>
-  </si>
-  <si>
-    <t>Imininingwane yokuthumela</t>
-  </si>
-  <si>
-    <t>Shipping type</t>
-  </si>
-  <si>
-    <t>Uhlobo lokuthumela</t>
-  </si>
-  <si>
-    <t>the order is not completed yet</t>
-  </si>
-  <si>
-    <t>i-oda alikaqedwa</t>
-  </si>
-  <si>
-    <t>the order is completed</t>
-  </si>
-  <si>
-    <t>i-oda seliqediwe</t>
-  </si>
-  <si>
-    <t>Created at</t>
-  </si>
-  <si>
-    <t>Idalwe ngo</t>
-  </si>
-  <si>
-    <t>Updated at</t>
-  </si>
-  <si>
-    <t>Kubuyekezwe ngo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quick view </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ukubuka okusheshayo </t>
-  </si>
-  <si>
-    <t>Replace language values</t>
-  </si>
-  <si>
-    <t>Shintshanisa amanani olimi</t>
-  </si>
-  <si>
-    <t>Translations are imported</t>
-  </si>
-  <si>
-    <t>Izinguqulo zingenisiwe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Translations not found in database. Do you wish to import translations? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ukuhumusha akutholakali kusizindalwazi. Uyafisa ukungenisa ukuhumusha? </t>
   </si>
 </sst>
 </file>
@@ -19168,7 +18595,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E3217"/>
+  <dimension ref="A1:E3119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -69966,7 +69393,7 @@
         <v>5824</v>
       </c>
       <c r="D2988" t="s">
-        <v>651</v>
+        <v>5825</v>
       </c>
       <c r="E2988" t="s">
         <v>8</v>
@@ -69980,10 +69407,10 @@
         <v>5</v>
       </c>
       <c r="C2989" t="s">
-        <v>5825</v>
+        <v>5826</v>
       </c>
       <c r="D2989" t="s">
-        <v>5826</v>
+        <v>5827</v>
       </c>
       <c r="E2989" t="s">
         <v>8</v>
@@ -69997,10 +69424,10 @@
         <v>5</v>
       </c>
       <c r="C2990" t="s">
-        <v>5827</v>
+        <v>5828</v>
       </c>
       <c r="D2990" t="s">
-        <v>5828</v>
+        <v>5829</v>
       </c>
       <c r="E2990" t="s">
         <v>8</v>
@@ -70014,10 +69441,10 @@
         <v>5</v>
       </c>
       <c r="C2991" t="s">
-        <v>5829</v>
+        <v>5830</v>
       </c>
       <c r="D2991" t="s">
-        <v>5830</v>
+        <v>5831</v>
       </c>
       <c r="E2991" t="s">
         <v>8</v>
@@ -70031,10 +69458,10 @@
         <v>5</v>
       </c>
       <c r="C2992" t="s">
-        <v>5831</v>
+        <v>5832</v>
       </c>
       <c r="D2992" t="s">
-        <v>5832</v>
+        <v>5833</v>
       </c>
       <c r="E2992" t="s">
         <v>8</v>
@@ -70048,10 +69475,10 @@
         <v>5</v>
       </c>
       <c r="C2993" t="s">
-        <v>5833</v>
+        <v>5834</v>
       </c>
       <c r="D2993" t="s">
-        <v>5834</v>
+        <v>5835</v>
       </c>
       <c r="E2993" t="s">
         <v>8</v>
@@ -70065,10 +69492,10 @@
         <v>5</v>
       </c>
       <c r="C2994" t="s">
-        <v>5835</v>
+        <v>5836</v>
       </c>
       <c r="D2994" t="s">
-        <v>5836</v>
+        <v>5837</v>
       </c>
       <c r="E2994" t="s">
         <v>8</v>
@@ -70082,10 +69509,10 @@
         <v>5</v>
       </c>
       <c r="C2995" t="s">
-        <v>5837</v>
+        <v>5838</v>
       </c>
       <c r="D2995" t="s">
-        <v>5838</v>
+        <v>5839</v>
       </c>
       <c r="E2995" t="s">
         <v>8</v>
@@ -70099,10 +69526,10 @@
         <v>5</v>
       </c>
       <c r="C2996" t="s">
-        <v>5839</v>
+        <v>5840</v>
       </c>
       <c r="D2996" t="s">
-        <v>5840</v>
+        <v>5841</v>
       </c>
       <c r="E2996" t="s">
         <v>8</v>
@@ -70116,10 +69543,10 @@
         <v>5</v>
       </c>
       <c r="C2997" t="s">
-        <v>5841</v>
+        <v>5842</v>
       </c>
       <c r="D2997" t="s">
-        <v>5842</v>
+        <v>5843</v>
       </c>
       <c r="E2997" t="s">
         <v>8</v>
@@ -70133,10 +69560,10 @@
         <v>5</v>
       </c>
       <c r="C2998" t="s">
-        <v>5843</v>
+        <v>5844</v>
       </c>
       <c r="D2998" t="s">
-        <v>5844</v>
+        <v>5845</v>
       </c>
       <c r="E2998" t="s">
         <v>8</v>
@@ -70150,10 +69577,10 @@
         <v>5</v>
       </c>
       <c r="C2999" t="s">
-        <v>5845</v>
+        <v>5846</v>
       </c>
       <c r="D2999" t="s">
-        <v>5846</v>
+        <v>5847</v>
       </c>
       <c r="E2999" t="s">
         <v>8</v>
@@ -70167,10 +69594,10 @@
         <v>5</v>
       </c>
       <c r="C3000" t="s">
-        <v>5847</v>
+        <v>5848</v>
       </c>
       <c r="D3000" t="s">
-        <v>5848</v>
+        <v>5849</v>
       </c>
       <c r="E3000" t="s">
         <v>8</v>
@@ -70184,10 +69611,10 @@
         <v>5</v>
       </c>
       <c r="C3001" t="s">
-        <v>5849</v>
+        <v>5850</v>
       </c>
       <c r="D3001" t="s">
-        <v>5850</v>
+        <v>5851</v>
       </c>
       <c r="E3001" t="s">
         <v>8</v>
@@ -70201,10 +69628,10 @@
         <v>5</v>
       </c>
       <c r="C3002" t="s">
-        <v>5851</v>
+        <v>5852</v>
       </c>
       <c r="D3002" t="s">
-        <v>5852</v>
+        <v>5853</v>
       </c>
       <c r="E3002" t="s">
         <v>8</v>
@@ -70218,10 +69645,10 @@
         <v>5</v>
       </c>
       <c r="C3003" t="s">
-        <v>5853</v>
+        <v>5854</v>
       </c>
       <c r="D3003" t="s">
-        <v>5854</v>
+        <v>5855</v>
       </c>
       <c r="E3003" t="s">
         <v>8</v>
@@ -70235,10 +69662,10 @@
         <v>5</v>
       </c>
       <c r="C3004" t="s">
-        <v>5855</v>
+        <v>5856</v>
       </c>
       <c r="D3004" t="s">
-        <v>5856</v>
+        <v>5857</v>
       </c>
       <c r="E3004" t="s">
         <v>8</v>
@@ -70252,10 +69679,10 @@
         <v>5</v>
       </c>
       <c r="C3005" t="s">
-        <v>5857</v>
+        <v>5858</v>
       </c>
       <c r="D3005" t="s">
-        <v>5858</v>
+        <v>5859</v>
       </c>
       <c r="E3005" t="s">
         <v>8</v>
@@ -70269,10 +69696,10 @@
         <v>5</v>
       </c>
       <c r="C3006" t="s">
-        <v>5859</v>
+        <v>5860</v>
       </c>
       <c r="D3006" t="s">
-        <v>5860</v>
+        <v>5861</v>
       </c>
       <c r="E3006" t="s">
         <v>8</v>
@@ -70286,10 +69713,10 @@
         <v>5</v>
       </c>
       <c r="C3007" t="s">
-        <v>5861</v>
+        <v>5862</v>
       </c>
       <c r="D3007" t="s">
-        <v>5862</v>
+        <v>5863</v>
       </c>
       <c r="E3007" t="s">
         <v>8</v>
@@ -70303,10 +69730,10 @@
         <v>5</v>
       </c>
       <c r="C3008" t="s">
-        <v>5863</v>
+        <v>5864</v>
       </c>
       <c r="D3008" t="s">
-        <v>5864</v>
+        <v>5865</v>
       </c>
       <c r="E3008" t="s">
         <v>8</v>
@@ -70320,7 +69747,7 @@
         <v>5</v>
       </c>
       <c r="C3009" t="s">
-        <v>5865</v>
+        <v>5866</v>
       </c>
       <c r="D3009" t="s">
         <v>3241</v>
@@ -70337,10 +69764,10 @@
         <v>5</v>
       </c>
       <c r="C3010" t="s">
-        <v>5866</v>
+        <v>5867</v>
       </c>
       <c r="D3010" t="s">
-        <v>5867</v>
+        <v>5868</v>
       </c>
       <c r="E3010" t="s">
         <v>8</v>
@@ -70354,10 +69781,10 @@
         <v>5</v>
       </c>
       <c r="C3011" t="s">
-        <v>5868</v>
+        <v>5869</v>
       </c>
       <c r="D3011" t="s">
-        <v>5869</v>
+        <v>5870</v>
       </c>
       <c r="E3011" t="s">
         <v>8</v>
@@ -70371,10 +69798,10 @@
         <v>5</v>
       </c>
       <c r="C3012" t="s">
-        <v>5870</v>
+        <v>5871</v>
       </c>
       <c r="D3012" t="s">
-        <v>5870</v>
+        <v>5871</v>
       </c>
       <c r="E3012" t="s">
         <v>8</v>
@@ -70388,10 +69815,10 @@
         <v>5</v>
       </c>
       <c r="C3013" t="s">
-        <v>5871</v>
+        <v>5872</v>
       </c>
       <c r="D3013" t="s">
-        <v>5872</v>
+        <v>5873</v>
       </c>
       <c r="E3013" t="s">
         <v>8</v>
@@ -70405,10 +69832,10 @@
         <v>5</v>
       </c>
       <c r="C3014" t="s">
-        <v>5873</v>
+        <v>5874</v>
       </c>
       <c r="D3014" t="s">
-        <v>131</v>
+        <v>5875</v>
       </c>
       <c r="E3014" t="s">
         <v>8</v>
@@ -70422,10 +69849,10 @@
         <v>5</v>
       </c>
       <c r="C3015" t="s">
-        <v>5874</v>
+        <v>5876</v>
       </c>
       <c r="D3015" t="s">
-        <v>5875</v>
+        <v>5877</v>
       </c>
       <c r="E3015" t="s">
         <v>8</v>
@@ -70439,10 +69866,10 @@
         <v>5</v>
       </c>
       <c r="C3016" t="s">
-        <v>5876</v>
+        <v>5878</v>
       </c>
       <c r="D3016" t="s">
-        <v>5877</v>
+        <v>5879</v>
       </c>
       <c r="E3016" t="s">
         <v>8</v>
@@ -70456,7 +69883,7 @@
         <v>5</v>
       </c>
       <c r="C3017" t="s">
-        <v>5878</v>
+        <v>5880</v>
       </c>
       <c r="D3017" t="s">
         <v>3342</v>
@@ -70473,10 +69900,10 @@
         <v>5</v>
       </c>
       <c r="C3018" t="s">
-        <v>5879</v>
+        <v>5881</v>
       </c>
       <c r="D3018" t="s">
-        <v>5880</v>
+        <v>5882</v>
       </c>
       <c r="E3018" t="s">
         <v>8</v>
@@ -70490,10 +69917,10 @@
         <v>5</v>
       </c>
       <c r="C3019" t="s">
-        <v>5881</v>
+        <v>5883</v>
       </c>
       <c r="D3019" t="s">
-        <v>5882</v>
+        <v>5884</v>
       </c>
       <c r="E3019" t="s">
         <v>8</v>
@@ -70507,7 +69934,7 @@
         <v>5</v>
       </c>
       <c r="C3020" t="s">
-        <v>5883</v>
+        <v>5885</v>
       </c>
       <c r="D3020" t="s">
         <v>1581</v>
@@ -70524,10 +69951,10 @@
         <v>5</v>
       </c>
       <c r="C3021" t="s">
-        <v>5884</v>
+        <v>5886</v>
       </c>
       <c r="D3021" t="s">
-        <v>5885</v>
+        <v>5887</v>
       </c>
       <c r="E3021" t="s">
         <v>8</v>
@@ -70541,10 +69968,10 @@
         <v>5</v>
       </c>
       <c r="C3022" t="s">
-        <v>5886</v>
+        <v>5888</v>
       </c>
       <c r="D3022" t="s">
-        <v>5887</v>
+        <v>5889</v>
       </c>
       <c r="E3022" t="s">
         <v>8</v>
@@ -70558,10 +69985,10 @@
         <v>5</v>
       </c>
       <c r="C3023" t="s">
-        <v>5888</v>
+        <v>5890</v>
       </c>
       <c r="D3023" t="s">
-        <v>5889</v>
+        <v>5891</v>
       </c>
       <c r="E3023" t="s">
         <v>8</v>
@@ -70575,10 +70002,10 @@
         <v>5</v>
       </c>
       <c r="C3024" t="s">
-        <v>5890</v>
+        <v>5892</v>
       </c>
       <c r="D3024" t="s">
-        <v>5891</v>
+        <v>5893</v>
       </c>
       <c r="E3024" t="s">
         <v>8</v>
@@ -70592,10 +70019,10 @@
         <v>5</v>
       </c>
       <c r="C3025" t="s">
-        <v>5892</v>
+        <v>5894</v>
       </c>
       <c r="D3025" t="s">
-        <v>5893</v>
+        <v>5895</v>
       </c>
       <c r="E3025" t="s">
         <v>8</v>
@@ -70609,10 +70036,10 @@
         <v>5</v>
       </c>
       <c r="C3026" t="s">
-        <v>5894</v>
+        <v>5896</v>
       </c>
       <c r="D3026" t="s">
-        <v>5895</v>
+        <v>5897</v>
       </c>
       <c r="E3026" t="s">
         <v>8</v>
@@ -70626,10 +70053,10 @@
         <v>5</v>
       </c>
       <c r="C3027" t="s">
-        <v>5896</v>
+        <v>5898</v>
       </c>
       <c r="D3027" t="s">
-        <v>5897</v>
+        <v>5899</v>
       </c>
       <c r="E3027" t="s">
         <v>8</v>
@@ -70643,10 +70070,10 @@
         <v>5</v>
       </c>
       <c r="C3028" t="s">
-        <v>5898</v>
+        <v>5900</v>
       </c>
       <c r="D3028" t="s">
-        <v>5899</v>
+        <v>5901</v>
       </c>
       <c r="E3028" t="s">
         <v>8</v>
@@ -70660,10 +70087,10 @@
         <v>5</v>
       </c>
       <c r="C3029" t="s">
-        <v>5900</v>
+        <v>5902</v>
       </c>
       <c r="D3029" t="s">
-        <v>5901</v>
+        <v>5903</v>
       </c>
       <c r="E3029" t="s">
         <v>8</v>
@@ -70677,10 +70104,10 @@
         <v>5</v>
       </c>
       <c r="C3030" t="s">
-        <v>5902</v>
+        <v>5904</v>
       </c>
       <c r="D3030" t="s">
-        <v>5903</v>
+        <v>5905</v>
       </c>
       <c r="E3030" t="s">
         <v>8</v>
@@ -70694,7 +70121,7 @@
         <v>5</v>
       </c>
       <c r="C3031" t="s">
-        <v>5904</v>
+        <v>5906</v>
       </c>
       <c r="D3031" t="s">
         <v>1132</v>
@@ -70711,10 +70138,10 @@
         <v>5</v>
       </c>
       <c r="C3032" t="s">
-        <v>5905</v>
+        <v>5907</v>
       </c>
       <c r="D3032" t="s">
-        <v>5906</v>
+        <v>5908</v>
       </c>
       <c r="E3032" t="s">
         <v>8</v>
@@ -70728,10 +70155,10 @@
         <v>5</v>
       </c>
       <c r="C3033" t="s">
-        <v>5907</v>
+        <v>5909</v>
       </c>
       <c r="D3033" t="s">
-        <v>5908</v>
+        <v>5910</v>
       </c>
       <c r="E3033" t="s">
         <v>8</v>
@@ -70745,10 +70172,10 @@
         <v>5</v>
       </c>
       <c r="C3034" t="s">
-        <v>5909</v>
+        <v>5911</v>
       </c>
       <c r="D3034" t="s">
-        <v>5910</v>
+        <v>5912</v>
       </c>
       <c r="E3034" t="s">
         <v>8</v>
@@ -70762,10 +70189,10 @@
         <v>5</v>
       </c>
       <c r="C3035" t="s">
-        <v>5911</v>
+        <v>5913</v>
       </c>
       <c r="D3035" t="s">
-        <v>4983</v>
+        <v>5914</v>
       </c>
       <c r="E3035" t="s">
         <v>8</v>
@@ -70779,10 +70206,10 @@
         <v>5</v>
       </c>
       <c r="C3036" t="s">
-        <v>5912</v>
+        <v>5915</v>
       </c>
       <c r="D3036" t="s">
-        <v>5913</v>
+        <v>5916</v>
       </c>
       <c r="E3036" t="s">
         <v>8</v>
@@ -70796,10 +70223,10 @@
         <v>5</v>
       </c>
       <c r="C3037" t="s">
-        <v>5914</v>
+        <v>5917</v>
       </c>
       <c r="D3037" t="s">
-        <v>5915</v>
+        <v>5918</v>
       </c>
       <c r="E3037" t="s">
         <v>8</v>
@@ -70813,10 +70240,10 @@
         <v>5</v>
       </c>
       <c r="C3038" t="s">
-        <v>5916</v>
+        <v>5919</v>
       </c>
       <c r="D3038" t="s">
-        <v>5917</v>
+        <v>5920</v>
       </c>
       <c r="E3038" t="s">
         <v>8</v>
@@ -70830,10 +70257,10 @@
         <v>5</v>
       </c>
       <c r="C3039" t="s">
-        <v>5918</v>
+        <v>5921</v>
       </c>
       <c r="D3039" t="s">
-        <v>5919</v>
+        <v>5922</v>
       </c>
       <c r="E3039" t="s">
         <v>8</v>
@@ -70847,10 +70274,10 @@
         <v>5</v>
       </c>
       <c r="C3040" t="s">
-        <v>5920</v>
+        <v>5923</v>
       </c>
       <c r="D3040" t="s">
-        <v>5921</v>
+        <v>5924</v>
       </c>
       <c r="E3040" t="s">
         <v>8</v>
@@ -70864,10 +70291,10 @@
         <v>5</v>
       </c>
       <c r="C3041" t="s">
-        <v>5922</v>
+        <v>5925</v>
       </c>
       <c r="D3041" t="s">
-        <v>5923</v>
+        <v>5926</v>
       </c>
       <c r="E3041" t="s">
         <v>8</v>
@@ -70881,10 +70308,10 @@
         <v>5</v>
       </c>
       <c r="C3042" t="s">
-        <v>5924</v>
+        <v>5927</v>
       </c>
       <c r="D3042" t="s">
-        <v>5925</v>
+        <v>5928</v>
       </c>
       <c r="E3042" t="s">
         <v>8</v>
@@ -70898,10 +70325,10 @@
         <v>5</v>
       </c>
       <c r="C3043" t="s">
-        <v>5926</v>
+        <v>5929</v>
       </c>
       <c r="D3043" t="s">
-        <v>5927</v>
+        <v>5930</v>
       </c>
       <c r="E3043" t="s">
         <v>8</v>
@@ -70915,10 +70342,10 @@
         <v>5</v>
       </c>
       <c r="C3044" t="s">
-        <v>5928</v>
+        <v>5931</v>
       </c>
       <c r="D3044" t="s">
-        <v>5929</v>
+        <v>5932</v>
       </c>
       <c r="E3044" t="s">
         <v>8</v>
@@ -70932,10 +70359,10 @@
         <v>5</v>
       </c>
       <c r="C3045" t="s">
-        <v>5930</v>
+        <v>5933</v>
       </c>
       <c r="D3045" t="s">
-        <v>5931</v>
+        <v>5934</v>
       </c>
       <c r="E3045" t="s">
         <v>8</v>
@@ -70949,10 +70376,10 @@
         <v>5</v>
       </c>
       <c r="C3046" t="s">
-        <v>5932</v>
+        <v>5935</v>
       </c>
       <c r="D3046" t="s">
-        <v>5933</v>
+        <v>5936</v>
       </c>
       <c r="E3046" t="s">
         <v>8</v>
@@ -70966,10 +70393,10 @@
         <v>5</v>
       </c>
       <c r="C3047" t="s">
-        <v>5934</v>
+        <v>5937</v>
       </c>
       <c r="D3047" t="s">
-        <v>5935</v>
+        <v>5938</v>
       </c>
       <c r="E3047" t="s">
         <v>8</v>
@@ -70983,10 +70410,10 @@
         <v>5</v>
       </c>
       <c r="C3048" t="s">
-        <v>5936</v>
+        <v>5939</v>
       </c>
       <c r="D3048" t="s">
-        <v>3142</v>
+        <v>5940</v>
       </c>
       <c r="E3048" t="s">
         <v>8</v>
@@ -71000,10 +70427,10 @@
         <v>5</v>
       </c>
       <c r="C3049" t="s">
-        <v>5937</v>
+        <v>5941</v>
       </c>
       <c r="D3049" t="s">
-        <v>5938</v>
+        <v>5942</v>
       </c>
       <c r="E3049" t="s">
         <v>8</v>
@@ -71017,10 +70444,10 @@
         <v>5</v>
       </c>
       <c r="C3050" t="s">
-        <v>5939</v>
+        <v>5943</v>
       </c>
       <c r="D3050" t="s">
-        <v>5940</v>
+        <v>5944</v>
       </c>
       <c r="E3050" t="s">
         <v>8</v>
@@ -71034,10 +70461,10 @@
         <v>5</v>
       </c>
       <c r="C3051" t="s">
-        <v>5941</v>
+        <v>5945</v>
       </c>
       <c r="D3051" t="s">
-        <v>5942</v>
+        <v>5946</v>
       </c>
       <c r="E3051" t="s">
         <v>8</v>
@@ -71051,10 +70478,10 @@
         <v>5</v>
       </c>
       <c r="C3052" t="s">
-        <v>5943</v>
+        <v>5947</v>
       </c>
       <c r="D3052" t="s">
-        <v>5944</v>
+        <v>5948</v>
       </c>
       <c r="E3052" t="s">
         <v>8</v>
@@ -71068,10 +70495,10 @@
         <v>5</v>
       </c>
       <c r="C3053" t="s">
-        <v>5945</v>
+        <v>5949</v>
       </c>
       <c r="D3053" t="s">
-        <v>5946</v>
+        <v>5950</v>
       </c>
       <c r="E3053" t="s">
         <v>8</v>
@@ -71085,10 +70512,10 @@
         <v>5</v>
       </c>
       <c r="C3054" t="s">
-        <v>5947</v>
+        <v>5951</v>
       </c>
       <c r="D3054" t="s">
-        <v>5948</v>
+        <v>5952</v>
       </c>
       <c r="E3054" t="s">
         <v>8</v>
@@ -71102,10 +70529,10 @@
         <v>5</v>
       </c>
       <c r="C3055" t="s">
-        <v>5949</v>
+        <v>5953</v>
       </c>
       <c r="D3055" t="s">
-        <v>5950</v>
+        <v>5954</v>
       </c>
       <c r="E3055" t="s">
         <v>8</v>
@@ -71119,10 +70546,10 @@
         <v>5</v>
       </c>
       <c r="C3056" t="s">
-        <v>5951</v>
+        <v>5955</v>
       </c>
       <c r="D3056" t="s">
-        <v>5952</v>
+        <v>5956</v>
       </c>
       <c r="E3056" t="s">
         <v>8</v>
@@ -71136,10 +70563,10 @@
         <v>5</v>
       </c>
       <c r="C3057" t="s">
-        <v>5953</v>
+        <v>5957</v>
       </c>
       <c r="D3057" t="s">
-        <v>5954</v>
+        <v>5958</v>
       </c>
       <c r="E3057" t="s">
         <v>8</v>
@@ -71153,10 +70580,10 @@
         <v>5</v>
       </c>
       <c r="C3058" t="s">
-        <v>5955</v>
+        <v>5959</v>
       </c>
       <c r="D3058" t="s">
-        <v>4253</v>
+        <v>5960</v>
       </c>
       <c r="E3058" t="s">
         <v>8</v>
@@ -71170,10 +70597,10 @@
         <v>5</v>
       </c>
       <c r="C3059" t="s">
-        <v>5956</v>
+        <v>5961</v>
       </c>
       <c r="D3059" t="s">
-        <v>5957</v>
+        <v>5962</v>
       </c>
       <c r="E3059" t="s">
         <v>8</v>
@@ -71187,10 +70614,10 @@
         <v>5</v>
       </c>
       <c r="C3060" t="s">
-        <v>5958</v>
+        <v>5963</v>
       </c>
       <c r="D3060" t="s">
-        <v>5959</v>
+        <v>5964</v>
       </c>
       <c r="E3060" t="s">
         <v>8</v>
@@ -71204,10 +70631,10 @@
         <v>5</v>
       </c>
       <c r="C3061" t="s">
-        <v>5960</v>
+        <v>5965</v>
       </c>
       <c r="D3061" t="s">
-        <v>5961</v>
+        <v>5966</v>
       </c>
       <c r="E3061" t="s">
         <v>8</v>
@@ -71218,13 +70645,13 @@
         <v>5</v>
       </c>
       <c r="B3062" t="s">
-        <v>5962</v>
+        <v>5967</v>
       </c>
       <c r="C3062" t="s">
-        <v>5963</v>
+        <v>5968</v>
       </c>
       <c r="D3062" t="s">
-        <v>5964</v>
+        <v>5969</v>
       </c>
       <c r="E3062" t="s">
         <v>8</v>
@@ -71238,10 +70665,10 @@
         <v>5</v>
       </c>
       <c r="C3063" t="s">
-        <v>5965</v>
+        <v>5970</v>
       </c>
       <c r="D3063" t="s">
-        <v>5966</v>
+        <v>5971</v>
       </c>
       <c r="E3063" t="s">
         <v>8</v>
@@ -71255,10 +70682,10 @@
         <v>5</v>
       </c>
       <c r="C3064" t="s">
-        <v>5967</v>
+        <v>5972</v>
       </c>
       <c r="D3064" t="s">
-        <v>5968</v>
+        <v>5973</v>
       </c>
       <c r="E3064" t="s">
         <v>8</v>
@@ -71272,10 +70699,10 @@
         <v>5</v>
       </c>
       <c r="C3065" t="s">
-        <v>5969</v>
+        <v>5974</v>
       </c>
       <c r="D3065" t="s">
-        <v>5970</v>
+        <v>5975</v>
       </c>
       <c r="E3065" t="s">
         <v>8</v>
@@ -71289,10 +70716,10 @@
         <v>5</v>
       </c>
       <c r="C3066" t="s">
-        <v>5971</v>
+        <v>5976</v>
       </c>
       <c r="D3066" t="s">
-        <v>5972</v>
+        <v>5977</v>
       </c>
       <c r="E3066" t="s">
         <v>8</v>
@@ -71306,10 +70733,10 @@
         <v>5</v>
       </c>
       <c r="C3067" t="s">
-        <v>5973</v>
+        <v>5978</v>
       </c>
       <c r="D3067" t="s">
-        <v>5974</v>
+        <v>5979</v>
       </c>
       <c r="E3067" t="s">
         <v>8</v>
@@ -71323,10 +70750,10 @@
         <v>5</v>
       </c>
       <c r="C3068" t="s">
-        <v>5975</v>
+        <v>5980</v>
       </c>
       <c r="D3068" t="s">
-        <v>5976</v>
+        <v>5981</v>
       </c>
       <c r="E3068" t="s">
         <v>8</v>
@@ -71340,10 +70767,10 @@
         <v>5</v>
       </c>
       <c r="C3069" t="s">
-        <v>5977</v>
+        <v>5982</v>
       </c>
       <c r="D3069" t="s">
-        <v>5978</v>
+        <v>5983</v>
       </c>
       <c r="E3069" t="s">
         <v>8</v>
@@ -71357,10 +70784,10 @@
         <v>5</v>
       </c>
       <c r="C3070" t="s">
-        <v>5979</v>
+        <v>5984</v>
       </c>
       <c r="D3070" t="s">
-        <v>5980</v>
+        <v>5985</v>
       </c>
       <c r="E3070" t="s">
         <v>8</v>
@@ -71374,10 +70801,10 @@
         <v>5</v>
       </c>
       <c r="C3071" t="s">
-        <v>5981</v>
+        <v>5986</v>
       </c>
       <c r="D3071" t="s">
-        <v>5982</v>
+        <v>5987</v>
       </c>
       <c r="E3071" t="s">
         <v>8</v>
@@ -71391,10 +70818,10 @@
         <v>5</v>
       </c>
       <c r="C3072" t="s">
-        <v>5983</v>
+        <v>5988</v>
       </c>
       <c r="D3072" t="s">
-        <v>5984</v>
+        <v>5988</v>
       </c>
       <c r="E3072" t="s">
         <v>8</v>
@@ -71408,10 +70835,10 @@
         <v>5</v>
       </c>
       <c r="C3073" t="s">
-        <v>5985</v>
+        <v>5989</v>
       </c>
       <c r="D3073" t="s">
-        <v>5986</v>
+        <v>5989</v>
       </c>
       <c r="E3073" t="s">
         <v>8</v>
@@ -71425,10 +70852,10 @@
         <v>5</v>
       </c>
       <c r="C3074" t="s">
-        <v>5987</v>
+        <v>5990</v>
       </c>
       <c r="D3074" t="s">
-        <v>5988</v>
+        <v>5991</v>
       </c>
       <c r="E3074" t="s">
         <v>8</v>
@@ -71442,10 +70869,10 @@
         <v>5</v>
       </c>
       <c r="C3075" t="s">
-        <v>5989</v>
+        <v>5992</v>
       </c>
       <c r="D3075" t="s">
-        <v>5990</v>
+        <v>1665</v>
       </c>
       <c r="E3075" t="s">
         <v>8</v>
@@ -71459,10 +70886,10 @@
         <v>5</v>
       </c>
       <c r="C3076" t="s">
-        <v>5991</v>
+        <v>5993</v>
       </c>
       <c r="D3076" t="s">
-        <v>5992</v>
+        <v>5994</v>
       </c>
       <c r="E3076" t="s">
         <v>8</v>
@@ -71476,10 +70903,10 @@
         <v>5</v>
       </c>
       <c r="C3077" t="s">
-        <v>5993</v>
+        <v>5995</v>
       </c>
       <c r="D3077" t="s">
-        <v>5994</v>
+        <v>5996</v>
       </c>
       <c r="E3077" t="s">
         <v>8</v>
@@ -71493,10 +70920,10 @@
         <v>5</v>
       </c>
       <c r="C3078" t="s">
-        <v>5995</v>
+        <v>5997</v>
       </c>
       <c r="D3078" t="s">
-        <v>5996</v>
+        <v>5998</v>
       </c>
       <c r="E3078" t="s">
         <v>8</v>
@@ -71510,10 +70937,10 @@
         <v>5</v>
       </c>
       <c r="C3079" t="s">
-        <v>5997</v>
+        <v>5999</v>
       </c>
       <c r="D3079" t="s">
-        <v>5998</v>
+        <v>6000</v>
       </c>
       <c r="E3079" t="s">
         <v>8</v>
@@ -71527,10 +70954,10 @@
         <v>5</v>
       </c>
       <c r="C3080" t="s">
-        <v>5999</v>
+        <v>6001</v>
       </c>
       <c r="D3080" t="s">
-        <v>6000</v>
+        <v>6002</v>
       </c>
       <c r="E3080" t="s">
         <v>8</v>
@@ -71544,10 +70971,10 @@
         <v>5</v>
       </c>
       <c r="C3081" t="s">
-        <v>6001</v>
+        <v>6003</v>
       </c>
       <c r="D3081" t="s">
-        <v>6002</v>
+        <v>6004</v>
       </c>
       <c r="E3081" t="s">
         <v>8</v>
@@ -71561,10 +70988,10 @@
         <v>5</v>
       </c>
       <c r="C3082" t="s">
-        <v>6003</v>
+        <v>6005</v>
       </c>
       <c r="D3082" t="s">
-        <v>6004</v>
+        <v>6006</v>
       </c>
       <c r="E3082" t="s">
         <v>8</v>
@@ -71578,10 +71005,10 @@
         <v>5</v>
       </c>
       <c r="C3083" t="s">
-        <v>6005</v>
+        <v>6007</v>
       </c>
       <c r="D3083" t="s">
-        <v>6006</v>
+        <v>6008</v>
       </c>
       <c r="E3083" t="s">
         <v>8</v>
@@ -71595,10 +71022,10 @@
         <v>5</v>
       </c>
       <c r="C3084" t="s">
-        <v>6007</v>
+        <v>6009</v>
       </c>
       <c r="D3084" t="s">
-        <v>6008</v>
+        <v>6010</v>
       </c>
       <c r="E3084" t="s">
         <v>8</v>
@@ -71612,10 +71039,10 @@
         <v>5</v>
       </c>
       <c r="C3085" t="s">
-        <v>6009</v>
+        <v>6011</v>
       </c>
       <c r="D3085" t="s">
-        <v>6010</v>
+        <v>6012</v>
       </c>
       <c r="E3085" t="s">
         <v>8</v>
@@ -71629,10 +71056,10 @@
         <v>5</v>
       </c>
       <c r="C3086" t="s">
-        <v>6011</v>
+        <v>6013</v>
       </c>
       <c r="D3086" t="s">
-        <v>6012</v>
+        <v>6014</v>
       </c>
       <c r="E3086" t="s">
         <v>8</v>
@@ -71646,10 +71073,10 @@
         <v>5</v>
       </c>
       <c r="C3087" t="s">
-        <v>6013</v>
+        <v>6015</v>
       </c>
       <c r="D3087" t="s">
-        <v>6014</v>
+        <v>6016</v>
       </c>
       <c r="E3087" t="s">
         <v>8</v>
@@ -71663,10 +71090,10 @@
         <v>5</v>
       </c>
       <c r="C3088" t="s">
-        <v>6015</v>
+        <v>6017</v>
       </c>
       <c r="D3088" t="s">
-        <v>6016</v>
+        <v>6018</v>
       </c>
       <c r="E3088" t="s">
         <v>8</v>
@@ -71680,10 +71107,10 @@
         <v>5</v>
       </c>
       <c r="C3089" t="s">
-        <v>6017</v>
+        <v>6019</v>
       </c>
       <c r="D3089" t="s">
-        <v>6018</v>
+        <v>6020</v>
       </c>
       <c r="E3089" t="s">
         <v>8</v>
@@ -71697,10 +71124,10 @@
         <v>5</v>
       </c>
       <c r="C3090" t="s">
-        <v>6019</v>
+        <v>6021</v>
       </c>
       <c r="D3090" t="s">
-        <v>6020</v>
+        <v>6022</v>
       </c>
       <c r="E3090" t="s">
         <v>8</v>
@@ -71714,10 +71141,10 @@
         <v>5</v>
       </c>
       <c r="C3091" t="s">
-        <v>6021</v>
+        <v>6023</v>
       </c>
       <c r="D3091" t="s">
-        <v>6022</v>
+        <v>6024</v>
       </c>
       <c r="E3091" t="s">
         <v>8</v>
@@ -71731,10 +71158,10 @@
         <v>5</v>
       </c>
       <c r="C3092" t="s">
-        <v>6023</v>
+        <v>6025</v>
       </c>
       <c r="D3092" t="s">
-        <v>6024</v>
+        <v>6026</v>
       </c>
       <c r="E3092" t="s">
         <v>8</v>
@@ -71748,10 +71175,10 @@
         <v>5</v>
       </c>
       <c r="C3093" t="s">
-        <v>6025</v>
+        <v>6027</v>
       </c>
       <c r="D3093" t="s">
-        <v>6026</v>
+        <v>6028</v>
       </c>
       <c r="E3093" t="s">
         <v>8</v>
@@ -71765,10 +71192,10 @@
         <v>5</v>
       </c>
       <c r="C3094" t="s">
-        <v>6027</v>
+        <v>6029</v>
       </c>
       <c r="D3094" t="s">
-        <v>6028</v>
+        <v>6030</v>
       </c>
       <c r="E3094" t="s">
         <v>8</v>
@@ -71782,10 +71209,10 @@
         <v>5</v>
       </c>
       <c r="C3095" t="s">
-        <v>6029</v>
+        <v>6031</v>
       </c>
       <c r="D3095" t="s">
-        <v>6030</v>
+        <v>6032</v>
       </c>
       <c r="E3095" t="s">
         <v>8</v>
@@ -71799,10 +71226,10 @@
         <v>5</v>
       </c>
       <c r="C3096" t="s">
-        <v>6031</v>
+        <v>6033</v>
       </c>
       <c r="D3096" t="s">
-        <v>6032</v>
+        <v>6034</v>
       </c>
       <c r="E3096" t="s">
         <v>8</v>
@@ -71816,10 +71243,10 @@
         <v>5</v>
       </c>
       <c r="C3097" t="s">
-        <v>6033</v>
+        <v>6035</v>
       </c>
       <c r="D3097" t="s">
-        <v>6034</v>
+        <v>6035</v>
       </c>
       <c r="E3097" t="s">
         <v>8</v>
@@ -71833,10 +71260,10 @@
         <v>5</v>
       </c>
       <c r="C3098" t="s">
-        <v>6035</v>
+        <v>6036</v>
       </c>
       <c r="D3098" t="s">
-        <v>6036</v>
+        <v>6037</v>
       </c>
       <c r="E3098" t="s">
         <v>8</v>
@@ -71850,10 +71277,10 @@
         <v>5</v>
       </c>
       <c r="C3099" t="s">
-        <v>6037</v>
+        <v>6038</v>
       </c>
       <c r="D3099" t="s">
-        <v>6038</v>
+        <v>6039</v>
       </c>
       <c r="E3099" t="s">
         <v>8</v>
@@ -71867,10 +71294,10 @@
         <v>5</v>
       </c>
       <c r="C3100" t="s">
-        <v>6039</v>
+        <v>6040</v>
       </c>
       <c r="D3100" t="s">
-        <v>6040</v>
+        <v>6041</v>
       </c>
       <c r="E3100" t="s">
         <v>8</v>
@@ -71884,10 +71311,10 @@
         <v>5</v>
       </c>
       <c r="C3101" t="s">
-        <v>6041</v>
+        <v>6042</v>
       </c>
       <c r="D3101" t="s">
-        <v>6042</v>
+        <v>6043</v>
       </c>
       <c r="E3101" t="s">
         <v>8</v>
@@ -71901,10 +71328,10 @@
         <v>5</v>
       </c>
       <c r="C3102" t="s">
-        <v>6043</v>
+        <v>6044</v>
       </c>
       <c r="D3102" t="s">
-        <v>6044</v>
+        <v>6045</v>
       </c>
       <c r="E3102" t="s">
         <v>8</v>
@@ -71918,10 +71345,10 @@
         <v>5</v>
       </c>
       <c r="C3103" t="s">
-        <v>6045</v>
+        <v>6046</v>
       </c>
       <c r="D3103" t="s">
-        <v>6046</v>
+        <v>6047</v>
       </c>
       <c r="E3103" t="s">
         <v>8</v>
@@ -71935,10 +71362,10 @@
         <v>5</v>
       </c>
       <c r="C3104" t="s">
-        <v>6047</v>
+        <v>6048</v>
       </c>
       <c r="D3104" t="s">
-        <v>6048</v>
+        <v>6049</v>
       </c>
       <c r="E3104" t="s">
         <v>8</v>
@@ -71952,10 +71379,10 @@
         <v>5</v>
       </c>
       <c r="C3105" t="s">
-        <v>6049</v>
+        <v>6050</v>
       </c>
       <c r="D3105" t="s">
-        <v>6050</v>
+        <v>6051</v>
       </c>
       <c r="E3105" t="s">
         <v>8</v>
@@ -71969,10 +71396,10 @@
         <v>5</v>
       </c>
       <c r="C3106" t="s">
-        <v>6051</v>
+        <v>6052</v>
       </c>
       <c r="D3106" t="s">
-        <v>6052</v>
+        <v>6053</v>
       </c>
       <c r="E3106" t="s">
         <v>8</v>
@@ -71986,10 +71413,10 @@
         <v>5</v>
       </c>
       <c r="C3107" t="s">
-        <v>6053</v>
+        <v>6054</v>
       </c>
       <c r="D3107" t="s">
-        <v>6054</v>
+        <v>6055</v>
       </c>
       <c r="E3107" t="s">
         <v>8</v>
@@ -72003,10 +71430,10 @@
         <v>5</v>
       </c>
       <c r="C3108" t="s">
-        <v>6055</v>
+        <v>6056</v>
       </c>
       <c r="D3108" t="s">
-        <v>6056</v>
+        <v>6057</v>
       </c>
       <c r="E3108" t="s">
         <v>8</v>
@@ -72019,11 +71446,11 @@
       <c r="B3109" t="s">
         <v>5</v>
       </c>
-      <c r="C3109" t="s">
-        <v>6057</v>
-      </c>
-      <c r="D3109" t="s">
-        <v>6058</v>
+      <c r="C3109">
+        <v>404</v>
+      </c>
+      <c r="D3109">
+        <v>404</v>
       </c>
       <c r="E3109" t="s">
         <v>8</v>
@@ -72036,11 +71463,11 @@
       <c r="B3110" t="s">
         <v>5</v>
       </c>
-      <c r="C3110">
-        <v>404</v>
-      </c>
-      <c r="D3110">
-        <v>404</v>
+      <c r="C3110" t="s">
+        <v>6058</v>
+      </c>
+      <c r="D3110" t="s">
+        <v>6059</v>
       </c>
       <c r="E3110" t="s">
         <v>8</v>
@@ -72054,10 +71481,10 @@
         <v>5</v>
       </c>
       <c r="C3111" t="s">
-        <v>6059</v>
+        <v>6060</v>
       </c>
       <c r="D3111" t="s">
-        <v>6060</v>
+        <v>6061</v>
       </c>
       <c r="E3111" t="s">
         <v>8</v>
@@ -72071,10 +71498,10 @@
         <v>5</v>
       </c>
       <c r="C3112" t="s">
-        <v>6061</v>
+        <v>6062</v>
       </c>
       <c r="D3112" t="s">
-        <v>6062</v>
+        <v>6063</v>
       </c>
       <c r="E3112" t="s">
         <v>8</v>
@@ -72088,10 +71515,10 @@
         <v>5</v>
       </c>
       <c r="C3113" t="s">
-        <v>6063</v>
+        <v>6064</v>
       </c>
       <c r="D3113" t="s">
-        <v>6064</v>
+        <v>6065</v>
       </c>
       <c r="E3113" t="s">
         <v>8</v>
@@ -72105,10 +71532,10 @@
         <v>5</v>
       </c>
       <c r="C3114" t="s">
-        <v>6065</v>
+        <v>6066</v>
       </c>
       <c r="D3114" t="s">
-        <v>6066</v>
+        <v>6067</v>
       </c>
       <c r="E3114" t="s">
         <v>8</v>
@@ -72122,10 +71549,10 @@
         <v>5</v>
       </c>
       <c r="C3115" t="s">
-        <v>6067</v>
+        <v>6068</v>
       </c>
       <c r="D3115" t="s">
-        <v>6068</v>
+        <v>6069</v>
       </c>
       <c r="E3115" t="s">
         <v>8</v>
@@ -72139,10 +71566,10 @@
         <v>5</v>
       </c>
       <c r="C3116" t="s">
-        <v>6069</v>
+        <v>6070</v>
       </c>
       <c r="D3116" t="s">
-        <v>6070</v>
+        <v>6071</v>
       </c>
       <c r="E3116" t="s">
         <v>8</v>
@@ -72156,10 +71583,10 @@
         <v>5</v>
       </c>
       <c r="C3117" t="s">
-        <v>6071</v>
+        <v>6072</v>
       </c>
       <c r="D3117" t="s">
-        <v>6072</v>
+        <v>6073</v>
       </c>
       <c r="E3117" t="s">
         <v>8</v>
@@ -72173,10 +71600,10 @@
         <v>5</v>
       </c>
       <c r="C3118" t="s">
-        <v>6073</v>
+        <v>6074</v>
       </c>
       <c r="D3118" t="s">
-        <v>6074</v>
+        <v>3670</v>
       </c>
       <c r="E3118" t="s">
         <v>8</v>
@@ -72196,1672 +71623,6 @@
         <v>6076</v>
       </c>
       <c r="E3119" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3120" spans="1:5">
-      <c r="A3120" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3120" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3120" t="s">
-        <v>6077</v>
-      </c>
-      <c r="D3120" t="s">
-        <v>6078</v>
-      </c>
-      <c r="E3120" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3121" spans="1:5">
-      <c r="A3121" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3121" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3121" t="s">
-        <v>6079</v>
-      </c>
-      <c r="D3121" t="s">
-        <v>6080</v>
-      </c>
-      <c r="E3121" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3122" spans="1:5">
-      <c r="A3122" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3122" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3122" t="s">
-        <v>6081</v>
-      </c>
-      <c r="D3122" t="s">
-        <v>6082</v>
-      </c>
-      <c r="E3122" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3123" spans="1:5">
-      <c r="A3123" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3123" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3123" t="s">
-        <v>6083</v>
-      </c>
-      <c r="D3123" t="s">
-        <v>6084</v>
-      </c>
-      <c r="E3123" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3124" spans="1:5">
-      <c r="A3124" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3124" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3124" t="s">
-        <v>6085</v>
-      </c>
-      <c r="D3124" t="s">
-        <v>6086</v>
-      </c>
-      <c r="E3124" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3125" spans="1:5">
-      <c r="A3125" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3125" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3125" t="s">
-        <v>6087</v>
-      </c>
-      <c r="D3125" t="s">
-        <v>6088</v>
-      </c>
-      <c r="E3125" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3126" spans="1:5">
-      <c r="A3126" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3126" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3126" t="s">
-        <v>6089</v>
-      </c>
-      <c r="D3126" t="s">
-        <v>6090</v>
-      </c>
-      <c r="E3126" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3127" spans="1:5">
-      <c r="A3127" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3127" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3127" t="s">
-        <v>6091</v>
-      </c>
-      <c r="D3127" t="s">
-        <v>6092</v>
-      </c>
-      <c r="E3127" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3128" spans="1:5">
-      <c r="A3128" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3128" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3128" t="s">
-        <v>6093</v>
-      </c>
-      <c r="D3128" t="s">
-        <v>6094</v>
-      </c>
-      <c r="E3128" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3129" spans="1:5">
-      <c r="A3129" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3129" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3129" t="s">
-        <v>6095</v>
-      </c>
-      <c r="D3129" t="s">
-        <v>6096</v>
-      </c>
-      <c r="E3129" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3130" spans="1:5">
-      <c r="A3130" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3130" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3130" t="s">
-        <v>6097</v>
-      </c>
-      <c r="D3130" t="s">
-        <v>3670</v>
-      </c>
-      <c r="E3130" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3131" spans="1:5">
-      <c r="A3131" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3131" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3131" t="s">
-        <v>6098</v>
-      </c>
-      <c r="D3131" t="s">
-        <v>6099</v>
-      </c>
-      <c r="E3131" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3132" spans="1:5">
-      <c r="A3132" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3132" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3132" t="s">
-        <v>6100</v>
-      </c>
-      <c r="D3132" t="s">
-        <v>6101</v>
-      </c>
-      <c r="E3132" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3133" spans="1:5">
-      <c r="A3133" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3133" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3133" t="s">
-        <v>6102</v>
-      </c>
-      <c r="D3133" t="s">
-        <v>6103</v>
-      </c>
-      <c r="E3133" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3134" spans="1:5">
-      <c r="A3134" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3134" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3134" t="s">
-        <v>6104</v>
-      </c>
-      <c r="D3134" t="s">
-        <v>6105</v>
-      </c>
-      <c r="E3134" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3135" spans="1:5">
-      <c r="A3135" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3135" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3135" t="s">
-        <v>6106</v>
-      </c>
-      <c r="D3135" t="s">
-        <v>6107</v>
-      </c>
-      <c r="E3135" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3136" spans="1:5">
-      <c r="A3136" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3136" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3136" t="s">
-        <v>6108</v>
-      </c>
-      <c r="D3136" t="s">
-        <v>6109</v>
-      </c>
-      <c r="E3136" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3137" spans="1:5">
-      <c r="A3137" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3137" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3137" t="s">
-        <v>6110</v>
-      </c>
-      <c r="D3137" t="s">
-        <v>6111</v>
-      </c>
-      <c r="E3137" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3138" spans="1:5">
-      <c r="A3138" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3138" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3138" t="s">
-        <v>6112</v>
-      </c>
-      <c r="D3138" t="s">
-        <v>6113</v>
-      </c>
-      <c r="E3138" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3139" spans="1:5">
-      <c r="A3139" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3139" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3139" t="s">
-        <v>6114</v>
-      </c>
-      <c r="D3139" t="s">
-        <v>6115</v>
-      </c>
-      <c r="E3139" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3140" spans="1:5">
-      <c r="A3140" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3140" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3140" t="s">
-        <v>6116</v>
-      </c>
-      <c r="D3140" t="s">
-        <v>6117</v>
-      </c>
-      <c r="E3140" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3141" spans="1:5">
-      <c r="A3141" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3141" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3141" t="s">
-        <v>6118</v>
-      </c>
-      <c r="D3141" t="s">
-        <v>6119</v>
-      </c>
-      <c r="E3141" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3142" spans="1:5">
-      <c r="A3142" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3142" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3142" t="s">
-        <v>6120</v>
-      </c>
-      <c r="D3142" t="s">
-        <v>6121</v>
-      </c>
-      <c r="E3142" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3143" spans="1:5">
-      <c r="A3143" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3143" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3143" t="s">
-        <v>6122</v>
-      </c>
-      <c r="D3143" t="s">
-        <v>6123</v>
-      </c>
-      <c r="E3143" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3144" spans="1:5">
-      <c r="A3144" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3144" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3144" t="s">
-        <v>6124</v>
-      </c>
-      <c r="D3144" t="s">
-        <v>6125</v>
-      </c>
-      <c r="E3144" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3145" spans="1:5">
-      <c r="A3145" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3145" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3145" t="s">
-        <v>6126</v>
-      </c>
-      <c r="D3145" t="s">
-        <v>6127</v>
-      </c>
-      <c r="E3145" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3146" spans="1:5">
-      <c r="A3146" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3146" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3146" t="s">
-        <v>6128</v>
-      </c>
-      <c r="D3146" t="s">
-        <v>6129</v>
-      </c>
-      <c r="E3146" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3147" spans="1:5">
-      <c r="A3147" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3147" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3147" t="s">
-        <v>6130</v>
-      </c>
-      <c r="D3147" t="s">
-        <v>6131</v>
-      </c>
-      <c r="E3147" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3148" spans="1:5">
-      <c r="A3148" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3148" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3148" t="s">
-        <v>6132</v>
-      </c>
-      <c r="D3148" t="s">
-        <v>6133</v>
-      </c>
-      <c r="E3148" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3149" spans="1:5">
-      <c r="A3149" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3149" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3149" t="s">
-        <v>6134</v>
-      </c>
-      <c r="D3149" t="s">
-        <v>6135</v>
-      </c>
-      <c r="E3149" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3150" spans="1:5">
-      <c r="A3150" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3150" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3150" t="s">
-        <v>6136</v>
-      </c>
-      <c r="D3150" t="s">
-        <v>6137</v>
-      </c>
-      <c r="E3150" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3151" spans="1:5">
-      <c r="A3151" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3151" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3151" t="s">
-        <v>6138</v>
-      </c>
-      <c r="D3151" t="s">
-        <v>6139</v>
-      </c>
-      <c r="E3151" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3152" spans="1:5">
-      <c r="A3152" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3152" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3152" t="s">
-        <v>6140</v>
-      </c>
-      <c r="D3152" t="s">
-        <v>6141</v>
-      </c>
-      <c r="E3152" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3153" spans="1:5">
-      <c r="A3153" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3153" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3153" t="s">
-        <v>6142</v>
-      </c>
-      <c r="D3153" t="s">
-        <v>6143</v>
-      </c>
-      <c r="E3153" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3154" spans="1:5">
-      <c r="A3154" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3154" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3154" t="s">
-        <v>6144</v>
-      </c>
-      <c r="D3154" t="s">
-        <v>6145</v>
-      </c>
-      <c r="E3154" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3155" spans="1:5">
-      <c r="A3155" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3155" t="s">
-        <v>6146</v>
-      </c>
-      <c r="C3155" t="s">
-        <v>6147</v>
-      </c>
-      <c r="D3155" t="s">
-        <v>6148</v>
-      </c>
-      <c r="E3155" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3156" spans="1:5">
-      <c r="A3156" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3156" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3156" t="s">
-        <v>6149</v>
-      </c>
-      <c r="D3156" t="s">
-        <v>6150</v>
-      </c>
-      <c r="E3156" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3157" spans="1:5">
-      <c r="A3157" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3157" t="s">
-        <v>5962</v>
-      </c>
-      <c r="C3157" t="s">
-        <v>6151</v>
-      </c>
-      <c r="D3157" t="s">
-        <v>6152</v>
-      </c>
-      <c r="E3157" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3158" spans="1:5">
-      <c r="A3158" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3158" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3158" t="s">
-        <v>6153</v>
-      </c>
-      <c r="D3158" t="s">
-        <v>6154</v>
-      </c>
-      <c r="E3158" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3159" spans="1:5">
-      <c r="A3159" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3159" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3159" t="s">
-        <v>6155</v>
-      </c>
-      <c r="D3159" t="s">
-        <v>6155</v>
-      </c>
-      <c r="E3159" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3160" spans="1:5">
-      <c r="A3160" t="s">
-        <v>6156</v>
-      </c>
-      <c r="B3160" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3160" t="s">
-        <v>6157</v>
-      </c>
-      <c r="D3160" t="s">
-        <v>6157</v>
-      </c>
-      <c r="E3160" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3161" spans="1:5">
-      <c r="A3161" t="s">
-        <v>6156</v>
-      </c>
-      <c r="B3161" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3161" t="s">
-        <v>6158</v>
-      </c>
-      <c r="D3161" t="s">
-        <v>6158</v>
-      </c>
-      <c r="E3161" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3162" spans="1:5">
-      <c r="A3162" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3162" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3162" t="s">
-        <v>6159</v>
-      </c>
-      <c r="D3162" t="s">
-        <v>6159</v>
-      </c>
-      <c r="E3162" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3163" spans="1:5">
-      <c r="A3163" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3163" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3163" t="s">
-        <v>6160</v>
-      </c>
-      <c r="D3163" t="s">
-        <v>6161</v>
-      </c>
-      <c r="E3163" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3164" spans="1:5">
-      <c r="A3164" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3164" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3164" t="s">
-        <v>6162</v>
-      </c>
-      <c r="D3164" t="s">
-        <v>6163</v>
-      </c>
-      <c r="E3164" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3165" spans="1:5">
-      <c r="A3165" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3165" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3165" t="s">
-        <v>6164</v>
-      </c>
-      <c r="D3165" t="s">
-        <v>6164</v>
-      </c>
-      <c r="E3165" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3166" spans="1:5">
-      <c r="A3166" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3166" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3166" t="s">
-        <v>6165</v>
-      </c>
-      <c r="D3166" t="s">
-        <v>6166</v>
-      </c>
-      <c r="E3166" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3167" spans="1:5">
-      <c r="A3167" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3167" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3167" t="s">
-        <v>6167</v>
-      </c>
-      <c r="D3167" t="s">
-        <v>6168</v>
-      </c>
-      <c r="E3167" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3168" spans="1:5">
-      <c r="A3168" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3168" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3168" t="s">
-        <v>6169</v>
-      </c>
-      <c r="D3168" t="s">
-        <v>6170</v>
-      </c>
-      <c r="E3168" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3169" spans="1:5">
-      <c r="A3169" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3169" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3169" t="s">
-        <v>6171</v>
-      </c>
-      <c r="D3169" t="s">
-        <v>6172</v>
-      </c>
-      <c r="E3169" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3170" spans="1:5">
-      <c r="A3170" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3170" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3170" t="s">
-        <v>6173</v>
-      </c>
-      <c r="D3170" t="s">
-        <v>6174</v>
-      </c>
-      <c r="E3170" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3171" spans="1:5">
-      <c r="A3171" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3171" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3171" t="s">
-        <v>6175</v>
-      </c>
-      <c r="D3171" t="s">
-        <v>6176</v>
-      </c>
-      <c r="E3171" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3172" spans="1:5">
-      <c r="A3172" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3172" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3172" t="s">
-        <v>6177</v>
-      </c>
-      <c r="D3172" t="s">
-        <v>6178</v>
-      </c>
-      <c r="E3172" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3173" spans="1:5">
-      <c r="A3173" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3173" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3173" t="s">
-        <v>6179</v>
-      </c>
-      <c r="D3173" t="s">
-        <v>6180</v>
-      </c>
-      <c r="E3173" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3174" spans="1:5">
-      <c r="A3174" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3174" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3174" t="s">
-        <v>6181</v>
-      </c>
-      <c r="D3174" t="s">
-        <v>6182</v>
-      </c>
-      <c r="E3174" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3175" spans="1:5">
-      <c r="A3175" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3175" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3175" t="s">
-        <v>6183</v>
-      </c>
-      <c r="D3175" t="s">
-        <v>6184</v>
-      </c>
-      <c r="E3175" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3176" spans="1:5">
-      <c r="A3176" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3176" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3176" t="s">
-        <v>6185</v>
-      </c>
-      <c r="D3176" t="s">
-        <v>6186</v>
-      </c>
-      <c r="E3176" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3177" spans="1:5">
-      <c r="A3177" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3177" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3177" t="s">
-        <v>6187</v>
-      </c>
-      <c r="D3177" t="s">
-        <v>6188</v>
-      </c>
-      <c r="E3177" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3178" spans="1:5">
-      <c r="A3178" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3178" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3178" t="s">
-        <v>6189</v>
-      </c>
-      <c r="D3178" t="s">
-        <v>6190</v>
-      </c>
-      <c r="E3178" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3179" spans="1:5">
-      <c r="A3179" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3179" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3179" t="s">
-        <v>6191</v>
-      </c>
-      <c r="D3179" t="s">
-        <v>6192</v>
-      </c>
-      <c r="E3179" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3180" spans="1:5">
-      <c r="A3180" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3180" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3180" t="s">
-        <v>6193</v>
-      </c>
-      <c r="D3180" t="s">
-        <v>6194</v>
-      </c>
-      <c r="E3180" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3181" spans="1:5">
-      <c r="A3181" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3181" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3181" t="s">
-        <v>6195</v>
-      </c>
-      <c r="D3181" t="s">
-        <v>1827</v>
-      </c>
-      <c r="E3181" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3182" spans="1:5">
-      <c r="A3182" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3182" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3182" t="s">
-        <v>6196</v>
-      </c>
-      <c r="D3182" t="s">
-        <v>6197</v>
-      </c>
-      <c r="E3182" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3183" spans="1:5">
-      <c r="A3183" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3183" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3183" t="s">
-        <v>6198</v>
-      </c>
-      <c r="D3183" t="s">
-        <v>6199</v>
-      </c>
-      <c r="E3183" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3184" spans="1:5">
-      <c r="A3184" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3184" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3184" t="s">
-        <v>6200</v>
-      </c>
-      <c r="D3184" t="s">
-        <v>6201</v>
-      </c>
-      <c r="E3184" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3185" spans="1:5">
-      <c r="A3185" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3185" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3185" t="s">
-        <v>6202</v>
-      </c>
-      <c r="D3185" t="s">
-        <v>6203</v>
-      </c>
-      <c r="E3185" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3186" spans="1:5">
-      <c r="A3186" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3186" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3186" t="s">
-        <v>6204</v>
-      </c>
-      <c r="D3186" t="s">
-        <v>6205</v>
-      </c>
-      <c r="E3186" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3187" spans="1:5">
-      <c r="A3187" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3187" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3187" t="s">
-        <v>6206</v>
-      </c>
-      <c r="D3187" t="s">
-        <v>6207</v>
-      </c>
-      <c r="E3187" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3188" spans="1:5">
-      <c r="A3188" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3188" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3188" t="s">
-        <v>6208</v>
-      </c>
-      <c r="D3188" t="s">
-        <v>6209</v>
-      </c>
-      <c r="E3188" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3189" spans="1:5">
-      <c r="A3189" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3189" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3189" t="s">
-        <v>6210</v>
-      </c>
-      <c r="D3189" t="s">
-        <v>6211</v>
-      </c>
-      <c r="E3189" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3190" spans="1:5">
-      <c r="A3190" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3190" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3190" t="s">
-        <v>6212</v>
-      </c>
-      <c r="D3190" t="s">
-        <v>6213</v>
-      </c>
-      <c r="E3190" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3191" spans="1:5">
-      <c r="A3191" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3191" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3191" t="s">
-        <v>6214</v>
-      </c>
-      <c r="D3191" t="s">
-        <v>6215</v>
-      </c>
-      <c r="E3191" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3192" spans="1:5">
-      <c r="A3192" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3192" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3192" t="s">
-        <v>6216</v>
-      </c>
-      <c r="D3192" t="s">
-        <v>6217</v>
-      </c>
-      <c r="E3192" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3193" spans="1:5">
-      <c r="A3193" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3193" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3193" t="s">
-        <v>6218</v>
-      </c>
-      <c r="D3193" t="s">
-        <v>6219</v>
-      </c>
-      <c r="E3193" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3194" spans="1:5">
-      <c r="A3194" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3194" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3194" t="s">
-        <v>6220</v>
-      </c>
-      <c r="D3194" t="s">
-        <v>6221</v>
-      </c>
-      <c r="E3194" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3195" spans="1:5">
-      <c r="A3195" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3195" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3195" t="s">
-        <v>6222</v>
-      </c>
-      <c r="D3195" t="s">
-        <v>6223</v>
-      </c>
-      <c r="E3195" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3196" spans="1:5">
-      <c r="A3196" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3196" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3196" t="s">
-        <v>6224</v>
-      </c>
-      <c r="D3196" t="s">
-        <v>6225</v>
-      </c>
-      <c r="E3196" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3197" spans="1:5">
-      <c r="A3197" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3197" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3197" t="s">
-        <v>6226</v>
-      </c>
-      <c r="D3197" t="s">
-        <v>6227</v>
-      </c>
-      <c r="E3197" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3198" spans="1:5">
-      <c r="A3198" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3198" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3198" t="s">
-        <v>6228</v>
-      </c>
-      <c r="D3198" t="s">
-        <v>6229</v>
-      </c>
-      <c r="E3198" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3199" spans="1:5">
-      <c r="A3199" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3199" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3199" t="s">
-        <v>6230</v>
-      </c>
-      <c r="D3199" t="s">
-        <v>6231</v>
-      </c>
-      <c r="E3199" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3200" spans="1:5">
-      <c r="A3200" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3200" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3200" t="s">
-        <v>6232</v>
-      </c>
-      <c r="D3200" t="s">
-        <v>6233</v>
-      </c>
-      <c r="E3200" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3201" spans="1:5">
-      <c r="A3201" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3201" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3201" t="s">
-        <v>6234</v>
-      </c>
-      <c r="D3201" t="s">
-        <v>6235</v>
-      </c>
-      <c r="E3201" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3202" spans="1:5">
-      <c r="A3202" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3202" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3202" t="s">
-        <v>6236</v>
-      </c>
-      <c r="D3202" t="s">
-        <v>6237</v>
-      </c>
-      <c r="E3202" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3203" spans="1:5">
-      <c r="A3203" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3203" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3203" t="s">
-        <v>6238</v>
-      </c>
-      <c r="D3203" t="s">
-        <v>6239</v>
-      </c>
-      <c r="E3203" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3204" spans="1:5">
-      <c r="A3204" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3204" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3204" t="s">
-        <v>6240</v>
-      </c>
-      <c r="D3204" t="s">
-        <v>6241</v>
-      </c>
-      <c r="E3204" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3205" spans="1:5">
-      <c r="A3205" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3205" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3205" t="s">
-        <v>6242</v>
-      </c>
-      <c r="D3205" t="s">
-        <v>6243</v>
-      </c>
-      <c r="E3205" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3206" spans="1:5">
-      <c r="A3206" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3206" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3206" t="s">
-        <v>6244</v>
-      </c>
-      <c r="D3206" t="s">
-        <v>6245</v>
-      </c>
-      <c r="E3206" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3207" spans="1:5">
-      <c r="A3207" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3207" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3207" t="s">
-        <v>6246</v>
-      </c>
-      <c r="D3207" t="s">
-        <v>6247</v>
-      </c>
-      <c r="E3207" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3208" spans="1:5">
-      <c r="A3208" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3208" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3208" t="s">
-        <v>6248</v>
-      </c>
-      <c r="D3208" t="s">
-        <v>6249</v>
-      </c>
-      <c r="E3208" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3209" spans="1:5">
-      <c r="A3209" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3209" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3209" t="s">
-        <v>6250</v>
-      </c>
-      <c r="D3209" t="s">
-        <v>6251</v>
-      </c>
-      <c r="E3209" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3210" spans="1:5">
-      <c r="A3210" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3210" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3210" t="s">
-        <v>6252</v>
-      </c>
-      <c r="D3210" t="s">
-        <v>6253</v>
-      </c>
-      <c r="E3210" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3211" spans="1:5">
-      <c r="A3211" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3211" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3211" t="s">
-        <v>6254</v>
-      </c>
-      <c r="D3211" t="s">
-        <v>6255</v>
-      </c>
-      <c r="E3211" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3212" spans="1:5">
-      <c r="A3212" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3212" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3212" t="s">
-        <v>6256</v>
-      </c>
-      <c r="D3212" t="s">
-        <v>6257</v>
-      </c>
-      <c r="E3212" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3213" spans="1:5">
-      <c r="A3213" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3213" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3213" t="s">
-        <v>6258</v>
-      </c>
-      <c r="D3213" t="s">
-        <v>6259</v>
-      </c>
-      <c r="E3213" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3214" spans="1:5">
-      <c r="A3214" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3214" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3214" t="s">
-        <v>6260</v>
-      </c>
-      <c r="D3214" t="s">
-        <v>6261</v>
-      </c>
-      <c r="E3214" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3215" spans="1:5">
-      <c r="A3215" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3215" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3215" t="s">
-        <v>6262</v>
-      </c>
-      <c r="D3215" t="s">
-        <v>6263</v>
-      </c>
-      <c r="E3215" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3216" spans="1:5">
-      <c r="A3216" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3216" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3216" t="s">
-        <v>6264</v>
-      </c>
-      <c r="D3216" t="s">
-        <v>6265</v>
-      </c>
-      <c r="E3216" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3217" spans="1:5">
-      <c r="A3217" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3217" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3217" t="s">
-        <v>6266</v>
-      </c>
-      <c r="D3217" t="s">
-        <v>6267</v>
-      </c>
-      <c r="E3217" t="s">
         <v>8</v>
       </c>
     </row>
